--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="CARD_COLORS" vbProcedure="false">Config!$A$1:$D$13</definedName>
-    <definedName function="false" hidden="false" name="COLOR_EFFECTS" vbProcedure="false">Config!$F$1:$I$19</definedName>
+    <definedName function="false" hidden="false" name="COLOR_EFFECTS" vbProcedure="false">Config!$F$1:$I$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="134">
   <si>
     <t xml:space="preserve">Count</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Mercury</t>
@@ -430,12 +433,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,12 +469,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -589,24 +587,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -614,51 +604,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,15 +672,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,11 +692,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,15 +712,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,11 +728,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -992,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1001,79 +1003,80 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="18.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="5" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="27.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="74.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="13" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="74.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="13" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="7" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="12" t="str">
+      <c r="K2" s="11" t="str">
         <f aca="false">F2 &amp; G2</f>
         <v/>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1088,40 +1091,40 @@
         <f aca="false">VLOOKUP(B3,CARD_COLORS,3,0)</f>
         <v>#000000</v>
       </c>
-      <c r="D3" s="13" t="str">
+      <c r="D3" s="15" t="str">
         <f aca="false">VLOOKUP(B3,CARD_COLORS,2,0)</f>
         <v>Pluto</v>
       </c>
-      <c r="E3" s="13" t="str">
+      <c r="E3" s="16" t="str">
         <f aca="false">"Planets\" &amp; D3 &amp; ".png"</f>
         <v>Planets\Pluto.png</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" s="15" t="str">
         <f aca="false">VLOOKUP(B3,CARD_COLORS,4,0)</f>
         <v>♇</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="15" t="e">
+      <c r="H3" s="15" t="str">
         <f aca="false">VLOOKUP(G3,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" s="15" t="e">
+        <v>Rainbow</v>
+      </c>
+      <c r="I3" s="15" t="str">
         <f aca="false">VLOOKUP(G3,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="6" t="e">
+        <v>Trap</v>
+      </c>
+      <c r="J3" s="3" t="str">
         <f aca="false">D3&amp;" "&amp;H3</f>
-        <v>#N/A</v>
+        <v>Pluto Rainbow</v>
       </c>
       <c r="K3" s="15" t="str">
         <f aca="false">F3 &amp; G3</f>
         <v>♇🌈</v>
       </c>
-      <c r="L3" s="16" t="e">
+      <c r="L3" s="17" t="str">
         <f aca="false">VLOOKUP(G3,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Current player can change color</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,40 +1138,40 @@
         <f aca="false">VLOOKUP(B4,CARD_COLORS,3,0)</f>
         <v>#000000</v>
       </c>
-      <c r="D4" s="13" t="str">
+      <c r="D4" s="15" t="str">
         <f aca="false">VLOOKUP(B4,CARD_COLORS,2,0)</f>
         <v>Pluto</v>
       </c>
-      <c r="E4" s="13" t="str">
+      <c r="E4" s="16" t="str">
         <f aca="false">"Planets\" &amp; D4 &amp; ".png"</f>
         <v>Planets\Pluto.png</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="15" t="str">
         <f aca="false">VLOOKUP(B4,CARD_COLORS,4,0)</f>
         <v>♇</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="15" t="e">
+      <c r="H4" s="15" t="str">
         <f aca="false">VLOOKUP(G4,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="15" t="e">
+        <v>Rainbow +4</v>
+      </c>
+      <c r="I4" s="15" t="str">
         <f aca="false">VLOOKUP(G4,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="6" t="e">
+        <v>Trap</v>
+      </c>
+      <c r="J4" s="3" t="str">
         <f aca="false">D4&amp;" "&amp;H4</f>
-        <v>#N/A</v>
+        <v>Pluto Rainbow +4</v>
       </c>
       <c r="K4" s="15" t="str">
         <f aca="false">F4 &amp; G4</f>
         <v>♇+4🌈</v>
       </c>
-      <c r="L4" s="16" t="e">
+      <c r="L4" s="17" t="str">
         <f aca="false">VLOOKUP(G4,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Next player draws 4 cards, Current player can change color</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,40 +1185,40 @@
         <f aca="false">VLOOKUP(B5,CARD_COLORS,3,0)</f>
         <v>#000000</v>
       </c>
-      <c r="D5" s="13" t="str">
+      <c r="D5" s="15" t="str">
         <f aca="false">VLOOKUP(B5,CARD_COLORS,2,0)</f>
         <v>Pluto</v>
       </c>
-      <c r="E5" s="13" t="str">
+      <c r="E5" s="16" t="str">
         <f aca="false">"Planets\" &amp; D5 &amp; ".png"</f>
         <v>Planets\Pluto.png</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="F5" s="15" t="str">
         <f aca="false">VLOOKUP(B5,CARD_COLORS,4,0)</f>
         <v>♇</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="15" t="e">
+      <c r="H5" s="15" t="str">
         <f aca="false">VLOOKUP(G5,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="15" t="e">
+        <v>Rainbow Block</v>
+      </c>
+      <c r="I5" s="15" t="str">
         <f aca="false">VLOOKUP(G5,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="6" t="e">
+        <v>Trap</v>
+      </c>
+      <c r="J5" s="3" t="str">
         <f aca="false">D5&amp;" "&amp;H5</f>
-        <v>#N/A</v>
+        <v>Pluto Rainbow Block</v>
       </c>
       <c r="K5" s="15" t="str">
         <f aca="false">F5 &amp; G5</f>
         <v>♇🚫🌈</v>
       </c>
-      <c r="L5" s="16" t="e">
+      <c r="L5" s="17" t="str">
         <f aca="false">VLOOKUP(G5,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Next player sits out, Current player can change color</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,40 +1232,40 @@
         <f aca="false">VLOOKUP(B6,CARD_COLORS,3,0)</f>
         <v>#000000</v>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="15" t="str">
         <f aca="false">VLOOKUP(B6,CARD_COLORS,2,0)</f>
         <v>Pluto</v>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="16" t="str">
         <f aca="false">"Planets\" &amp; D6 &amp; ".png"</f>
         <v>Planets\Pluto.png</v>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="15" t="str">
         <f aca="false">VLOOKUP(B6,CARD_COLORS,4,0)</f>
         <v>♇</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15" t="e">
+      <c r="H6" s="15" t="str">
         <f aca="false">VLOOKUP(G6,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="15" t="e">
+        <v>Rainbow Reversal</v>
+      </c>
+      <c r="I6" s="15" t="str">
         <f aca="false">VLOOKUP(G6,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="6" t="e">
+        <v>Trap</v>
+      </c>
+      <c r="J6" s="3" t="str">
         <f aca="false">D6&amp;" "&amp;H6</f>
-        <v>#N/A</v>
+        <v>Pluto Rainbow Reversal</v>
       </c>
       <c r="K6" s="15" t="str">
         <f aca="false">F6 &amp; G6</f>
         <v>♇🔄🌈</v>
       </c>
-      <c r="L6" s="16" t="e">
+      <c r="L6" s="17" t="str">
         <f aca="false">VLOOKUP(G6,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Reverse turn direction, Current player can change color</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,40 +1279,40 @@
         <f aca="false">VLOOKUP(B7,CARD_COLORS,3,0)</f>
         <v>#000000</v>
       </c>
-      <c r="D7" s="13" t="str">
+      <c r="D7" s="15" t="str">
         <f aca="false">VLOOKUP(B7,CARD_COLORS,2,0)</f>
         <v>Pluto</v>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="E7" s="16" t="str">
         <f aca="false">"Planets\" &amp; D7 &amp; ".png"</f>
         <v>Planets\Pluto.png</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="15" t="str">
         <f aca="false">VLOOKUP(B7,CARD_COLORS,4,0)</f>
         <v>♇</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="15" t="e">
+      <c r="H7" s="15" t="str">
         <f aca="false">VLOOKUP(G7,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="15" t="e">
+        <v>Rainbow Reversal +4</v>
+      </c>
+      <c r="I7" s="15" t="str">
         <f aca="false">VLOOKUP(G7,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="6" t="e">
+        <v>Trap</v>
+      </c>
+      <c r="J7" s="3" t="str">
         <f aca="false">D7&amp;" "&amp;H7</f>
-        <v>#N/A</v>
+        <v>Pluto Rainbow Reversal +4</v>
       </c>
       <c r="K7" s="15" t="str">
         <f aca="false">F7 &amp; G7</f>
         <v>♇🔄+4🌈</v>
       </c>
-      <c r="L7" s="16" t="e">
+      <c r="L7" s="17" t="str">
         <f aca="false">VLOOKUP(G7,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Reverse turn direction, Next player draws 4 cards, Current player can change color</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,40 +1326,40 @@
         <f aca="false">VLOOKUP(B8,CARD_COLORS,3,0)</f>
         <v>#000000</v>
       </c>
-      <c r="D8" s="13" t="str">
+      <c r="D8" s="15" t="str">
         <f aca="false">VLOOKUP(B8,CARD_COLORS,2,0)</f>
         <v>Pluto</v>
       </c>
-      <c r="E8" s="13" t="str">
+      <c r="E8" s="16" t="str">
         <f aca="false">"Planets\" &amp; D8 &amp; ".png"</f>
         <v>Planets\Pluto.png</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="15" t="str">
         <f aca="false">VLOOKUP(B8,CARD_COLORS,4,0)</f>
         <v>♇</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="15" t="e">
+      <c r="H8" s="15" t="str">
         <f aca="false">VLOOKUP(G8,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="15" t="e">
+        <v>Rainbow Reversal Block</v>
+      </c>
+      <c r="I8" s="15" t="str">
         <f aca="false">VLOOKUP(G8,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="6" t="e">
+        <v>Trap</v>
+      </c>
+      <c r="J8" s="3" t="str">
         <f aca="false">D8&amp;" "&amp;H8</f>
-        <v>#N/A</v>
+        <v>Pluto Rainbow Reversal Block</v>
       </c>
       <c r="K8" s="15" t="str">
         <f aca="false">F8 &amp; G8</f>
         <v>♇🔄🚫🌈</v>
       </c>
-      <c r="L8" s="16" t="e">
+      <c r="L8" s="17" t="str">
         <f aca="false">VLOOKUP(G8,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Reverse turn direction, Next player sits out, Current player can change color</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,40 +1373,40 @@
         <f aca="false">VLOOKUP(B9,CARD_COLORS,3,0)</f>
         <v>#000000</v>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="15" t="str">
         <f aca="false">VLOOKUP(B9,CARD_COLORS,2,0)</f>
         <v>Pluto</v>
       </c>
-      <c r="E9" s="13" t="str">
+      <c r="E9" s="16" t="str">
         <f aca="false">"Planets\" &amp; D9 &amp; ".png"</f>
         <v>Planets\Pluto.png</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="15" t="str">
         <f aca="false">VLOOKUP(B9,CARD_COLORS,4,0)</f>
         <v>♇</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="15" t="e">
+      <c r="H9" s="15" t="str">
         <f aca="false">VLOOKUP(G9,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="15" t="e">
+        <v>Rainbow Focus +4</v>
+      </c>
+      <c r="I9" s="15" t="str">
         <f aca="false">VLOOKUP(G9,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="6" t="e">
+        <v>Trap</v>
+      </c>
+      <c r="J9" s="3" t="str">
         <f aca="false">D9&amp;" "&amp;H9</f>
-        <v>#N/A</v>
+        <v>Pluto Rainbow Focus +4</v>
       </c>
       <c r="K9" s="15" t="str">
         <f aca="false">F9 &amp; G9</f>
         <v>♇🎯+2🌈</v>
       </c>
-      <c r="L9" s="16" t="e">
+      <c r="L9" s="17" t="str">
         <f aca="false">VLOOKUP(G9,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Freely chosen-player draws 2 cards, Current player can change color</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,40 +1420,40 @@
         <f aca="false">VLOOKUP(B10,CARD_COLORS,3,0)</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="D10" s="13" t="str">
+      <c r="D10" s="15" t="str">
         <f aca="false">VLOOKUP(B10,CARD_COLORS,2,0)</f>
         <v>Star</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="16" t="str">
         <f aca="false">"Planets\" &amp; D10 &amp; ".png"</f>
         <v>Planets\Star.png</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="15" t="str">
         <f aca="false">VLOOKUP(B10,CARD_COLORS,4,0)</f>
         <v>★</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="15" t="e">
+      <c r="H10" s="15" t="str">
         <f aca="false">VLOOKUP(G10,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="15" t="e">
+        <v>Shield</v>
+      </c>
+      <c r="I10" s="15" t="str">
         <f aca="false">VLOOKUP(G10,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="6" t="e">
+        <v>Guard</v>
+      </c>
+      <c r="J10" s="3" t="str">
         <f aca="false">D10&amp;" "&amp;H10</f>
-        <v>#N/A</v>
+        <v>Star Shield</v>
       </c>
       <c r="K10" s="15" t="str">
         <f aca="false">F10 &amp; G10</f>
         <v>★🛡️</v>
       </c>
-      <c r="L10" s="16" t="e">
+      <c r="L10" s="17" t="str">
         <f aca="false">VLOOKUP(G10,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Nullify all effects</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,40 +1467,40 @@
         <f aca="false">VLOOKUP(B11,CARD_COLORS,3,0)</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="D11" s="13" t="str">
+      <c r="D11" s="15" t="str">
         <f aca="false">VLOOKUP(B11,CARD_COLORS,2,0)</f>
         <v>Star</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="16" t="str">
         <f aca="false">"Planets\" &amp; D11 &amp; ".png"</f>
         <v>Planets\Star.png</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="15" t="str">
         <f aca="false">VLOOKUP(B11,CARD_COLORS,4,0)</f>
         <v>★</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="15" t="e">
+      <c r="H11" s="15" t="str">
         <f aca="false">VLOOKUP(G11,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="15" t="e">
+        <v>Mirror</v>
+      </c>
+      <c r="I11" s="15" t="str">
         <f aca="false">VLOOKUP(G11,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="6" t="e">
+        <v>Guard</v>
+      </c>
+      <c r="J11" s="3" t="str">
         <f aca="false">D11&amp;" "&amp;H11</f>
-        <v>#N/A</v>
+        <v>Star Mirror</v>
       </c>
       <c r="K11" s="15" t="str">
         <f aca="false">F11 &amp; G11</f>
         <v>★🛡️🔄</v>
       </c>
-      <c r="L11" s="16" t="e">
+      <c r="L11" s="17" t="str">
         <f aca="false">VLOOKUP(G11,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Mirror all effects back to the last player</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,40 +1514,40 @@
         <f aca="false">VLOOKUP(B12,CARD_COLORS,3,0)</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="D12" s="13" t="str">
+      <c r="D12" s="15" t="str">
         <f aca="false">VLOOKUP(B12,CARD_COLORS,2,0)</f>
         <v>Star</v>
       </c>
-      <c r="E12" s="13" t="str">
+      <c r="E12" s="16" t="str">
         <f aca="false">"Planets\" &amp; D12 &amp; ".png"</f>
         <v>Planets\Star.png</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="15" t="str">
         <f aca="false">VLOOKUP(B12,CARD_COLORS,4,0)</f>
         <v>★</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="15" t="e">
+      <c r="H12" s="15" t="str">
         <f aca="false">VLOOKUP(G12,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="15" t="e">
+        <v>Focus</v>
+      </c>
+      <c r="I12" s="15" t="str">
         <f aca="false">VLOOKUP(G12,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="6" t="e">
+        <v>Guard</v>
+      </c>
+      <c r="J12" s="3" t="str">
         <f aca="false">D12&amp;" "&amp;H12</f>
-        <v>#N/A</v>
+        <v>Star Focus</v>
       </c>
       <c r="K12" s="15" t="str">
         <f aca="false">F12 &amp; G12</f>
         <v>★🛡️🎯</v>
       </c>
-      <c r="L12" s="16" t="e">
+      <c r="L12" s="17" t="str">
         <f aca="false">VLOOKUP(G12,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Mirror all effects to a freely chosen player</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,40 +1561,40 @@
         <f aca="false">VLOOKUP(B13,CARD_COLORS,3,0)</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="D13" s="13" t="str">
+      <c r="D13" s="15" t="str">
         <f aca="false">VLOOKUP(B13,CARD_COLORS,2,0)</f>
         <v>Star</v>
       </c>
-      <c r="E13" s="13" t="str">
+      <c r="E13" s="16" t="str">
         <f aca="false">"Planets\" &amp; D13 &amp; ".png"</f>
         <v>Planets\Star.png</v>
       </c>
-      <c r="F13" s="13" t="str">
+      <c r="F13" s="15" t="str">
         <f aca="false">VLOOKUP(B13,CARD_COLORS,4,0)</f>
         <v>★</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="15" t="e">
+      <c r="H13" s="15" t="str">
         <f aca="false">VLOOKUP(G13,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="15" t="e">
+        <v>-3</v>
+      </c>
+      <c r="I13" s="15" t="str">
         <f aca="false">VLOOKUP(G13,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="6" t="e">
+        <v>Guard</v>
+      </c>
+      <c r="J13" s="3" t="str">
         <f aca="false">D13&amp;" "&amp;H13</f>
-        <v>#N/A</v>
+        <v>Star -3</v>
       </c>
       <c r="K13" s="15" t="str">
         <f aca="false">F13 &amp; G13</f>
         <v>★-3</v>
       </c>
-      <c r="L13" s="16" t="e">
+      <c r="L13" s="17" t="str">
         <f aca="false">VLOOKUP(G13,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Discard 3 cards</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,40 +1608,40 @@
         <f aca="false">VLOOKUP(B14,CARD_COLORS,3,0)</f>
         <v>#FFFFFF</v>
       </c>
-      <c r="D14" s="13" t="str">
+      <c r="D14" s="15" t="str">
         <f aca="false">VLOOKUP(B14,CARD_COLORS,2,0)</f>
         <v>Star</v>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="E14" s="16" t="str">
         <f aca="false">"Planets\" &amp; D14 &amp; ".png"</f>
         <v>Planets\Star.png</v>
       </c>
-      <c r="F14" s="13" t="str">
+      <c r="F14" s="15" t="str">
         <f aca="false">VLOOKUP(B14,CARD_COLORS,4,0)</f>
         <v>★</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="15" t="e">
+      <c r="H14" s="15" t="str">
         <f aca="false">VLOOKUP(G14,COLOR_EFFECTS,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="15" t="e">
+        <v>-4</v>
+      </c>
+      <c r="I14" s="15" t="str">
         <f aca="false">VLOOKUP(G14,COLOR_EFFECTS,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="6" t="e">
+        <v>Guard</v>
+      </c>
+      <c r="J14" s="3" t="str">
         <f aca="false">D14&amp;" "&amp;H14</f>
-        <v>#N/A</v>
+        <v>Star -4</v>
       </c>
       <c r="K14" s="15" t="str">
         <f aca="false">F14 &amp; G14</f>
         <v>★-4</v>
       </c>
-      <c r="L14" s="16" t="e">
+      <c r="L14" s="17" t="str">
         <f aca="false">VLOOKUP(G14,COLOR_EFFECTS,4,0)</f>
-        <v>#N/A</v>
+        <v>Discard 4 cards</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,15 +1655,15 @@
         <f aca="false">VLOOKUP(B15,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D15" s="13" t="str">
+      <c r="D15" s="15" t="str">
         <f aca="false">VLOOKUP(B15,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E15" s="13" t="str">
+      <c r="E15" s="16" t="str">
         <f aca="false">"Planets\" &amp; D15 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F15" s="13" t="str">
+      <c r="F15" s="15" t="str">
         <f aca="false">VLOOKUP(B15,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -1675,7 +1678,7 @@
         <f aca="false">VLOOKUP(G15,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="J15" s="3" t="str">
         <f aca="false">D15&amp;" "&amp;H15</f>
         <v>Sun 0</v>
       </c>
@@ -1683,9 +1686,9 @@
         <f aca="false">F15 &amp; G15</f>
         <v>☉0</v>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="17" t="str">
         <f aca="false">VLOOKUP(G15,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,15 +1702,15 @@
         <f aca="false">VLOOKUP(B16,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D16" s="13" t="str">
+      <c r="D16" s="15" t="str">
         <f aca="false">VLOOKUP(B16,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E16" s="13" t="str">
+      <c r="E16" s="16" t="str">
         <f aca="false">"Planets\" &amp; D16 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F16" s="13" t="str">
+      <c r="F16" s="15" t="str">
         <f aca="false">VLOOKUP(B16,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -1722,7 +1725,7 @@
         <f aca="false">VLOOKUP(G16,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J16" s="6" t="str">
+      <c r="J16" s="3" t="str">
         <f aca="false">D16&amp;" "&amp;H16</f>
         <v>Sun 1</v>
       </c>
@@ -1730,9 +1733,9 @@
         <f aca="false">F16 &amp; G16</f>
         <v>☉1</v>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="17" t="str">
         <f aca="false">VLOOKUP(G16,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,15 +1749,15 @@
         <f aca="false">VLOOKUP(B17,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D17" s="13" t="str">
+      <c r="D17" s="15" t="str">
         <f aca="false">VLOOKUP(B17,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E17" s="13" t="str">
+      <c r="E17" s="16" t="str">
         <f aca="false">"Planets\" &amp; D17 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F17" s="13" t="str">
+      <c r="F17" s="15" t="str">
         <f aca="false">VLOOKUP(B17,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -1769,7 +1772,7 @@
         <f aca="false">VLOOKUP(G17,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J17" s="6" t="str">
+      <c r="J17" s="3" t="str">
         <f aca="false">D17&amp;" "&amp;H17</f>
         <v>Sun 2</v>
       </c>
@@ -1777,9 +1780,9 @@
         <f aca="false">F17 &amp; G17</f>
         <v>☉2</v>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="17" t="str">
         <f aca="false">VLOOKUP(G17,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,15 +1796,15 @@
         <f aca="false">VLOOKUP(B18,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D18" s="13" t="str">
+      <c r="D18" s="15" t="str">
         <f aca="false">VLOOKUP(B18,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="16" t="str">
         <f aca="false">"Planets\" &amp; D18 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="15" t="str">
         <f aca="false">VLOOKUP(B18,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -1816,7 +1819,7 @@
         <f aca="false">VLOOKUP(G18,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J18" s="6" t="str">
+      <c r="J18" s="3" t="str">
         <f aca="false">D18&amp;" "&amp;H18</f>
         <v>Sun 3</v>
       </c>
@@ -1824,9 +1827,9 @@
         <f aca="false">F18 &amp; G18</f>
         <v>☉3</v>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="17" t="str">
         <f aca="false">VLOOKUP(G18,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,15 +1843,15 @@
         <f aca="false">VLOOKUP(B19,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="15" t="str">
         <f aca="false">VLOOKUP(B19,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E19" s="13" t="str">
+      <c r="E19" s="16" t="str">
         <f aca="false">"Planets\" &amp; D19 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F19" s="13" t="str">
+      <c r="F19" s="15" t="str">
         <f aca="false">VLOOKUP(B19,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -1863,7 +1866,7 @@
         <f aca="false">VLOOKUP(G19,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="J19" s="3" t="str">
         <f aca="false">D19&amp;" "&amp;H19</f>
         <v>Sun 4</v>
       </c>
@@ -1871,9 +1874,9 @@
         <f aca="false">F19 &amp; G19</f>
         <v>☉4</v>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="17" t="str">
         <f aca="false">VLOOKUP(G19,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,15 +1890,15 @@
         <f aca="false">VLOOKUP(B20,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D20" s="13" t="str">
+      <c r="D20" s="15" t="str">
         <f aca="false">VLOOKUP(B20,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E20" s="13" t="str">
+      <c r="E20" s="16" t="str">
         <f aca="false">"Planets\" &amp; D20 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F20" s="13" t="str">
+      <c r="F20" s="15" t="str">
         <f aca="false">VLOOKUP(B20,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -1910,7 +1913,7 @@
         <f aca="false">VLOOKUP(G20,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="J20" s="3" t="str">
         <f aca="false">D20&amp;" "&amp;H20</f>
         <v>Sun 5</v>
       </c>
@@ -1918,9 +1921,9 @@
         <f aca="false">F20 &amp; G20</f>
         <v>☉5</v>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="17" t="str">
         <f aca="false">VLOOKUP(G20,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,15 +1937,15 @@
         <f aca="false">VLOOKUP(B21,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D21" s="13" t="str">
+      <c r="D21" s="15" t="str">
         <f aca="false">VLOOKUP(B21,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E21" s="13" t="str">
+      <c r="E21" s="16" t="str">
         <f aca="false">"Planets\" &amp; D21 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F21" s="13" t="str">
+      <c r="F21" s="15" t="str">
         <f aca="false">VLOOKUP(B21,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -1957,7 +1960,7 @@
         <f aca="false">VLOOKUP(G21,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J21" s="6" t="str">
+      <c r="J21" s="3" t="str">
         <f aca="false">D21&amp;" "&amp;H21</f>
         <v>Sun 6</v>
       </c>
@@ -1965,9 +1968,9 @@
         <f aca="false">F21 &amp; G21</f>
         <v>☉6</v>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="17" t="str">
         <f aca="false">VLOOKUP(G21,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,15 +1984,15 @@
         <f aca="false">VLOOKUP(B22,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D22" s="13" t="str">
+      <c r="D22" s="15" t="str">
         <f aca="false">VLOOKUP(B22,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E22" s="13" t="str">
+      <c r="E22" s="16" t="str">
         <f aca="false">"Planets\" &amp; D22 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F22" s="13" t="str">
+      <c r="F22" s="15" t="str">
         <f aca="false">VLOOKUP(B22,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2004,7 +2007,7 @@
         <f aca="false">VLOOKUP(G22,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J22" s="6" t="str">
+      <c r="J22" s="3" t="str">
         <f aca="false">D22&amp;" "&amp;H22</f>
         <v>Sun 7</v>
       </c>
@@ -2012,9 +2015,9 @@
         <f aca="false">F22 &amp; G22</f>
         <v>☉7</v>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="17" t="str">
         <f aca="false">VLOOKUP(G22,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,15 +2031,15 @@
         <f aca="false">VLOOKUP(B23,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="15" t="str">
         <f aca="false">VLOOKUP(B23,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E23" s="13" t="str">
+      <c r="E23" s="16" t="str">
         <f aca="false">"Planets\" &amp; D23 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F23" s="13" t="str">
+      <c r="F23" s="15" t="str">
         <f aca="false">VLOOKUP(B23,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2051,7 +2054,7 @@
         <f aca="false">VLOOKUP(G23,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J23" s="6" t="str">
+      <c r="J23" s="3" t="str">
         <f aca="false">D23&amp;" "&amp;H23</f>
         <v>Sun 8</v>
       </c>
@@ -2059,9 +2062,9 @@
         <f aca="false">F23 &amp; G23</f>
         <v>☉8</v>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="17" t="str">
         <f aca="false">VLOOKUP(G23,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,15 +2078,15 @@
         <f aca="false">VLOOKUP(B24,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="15" t="str">
         <f aca="false">VLOOKUP(B24,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E24" s="13" t="str">
+      <c r="E24" s="16" t="str">
         <f aca="false">"Planets\" &amp; D24 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F24" s="13" t="str">
+      <c r="F24" s="15" t="str">
         <f aca="false">VLOOKUP(B24,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2098,7 +2101,7 @@
         <f aca="false">VLOOKUP(G24,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="J24" s="3" t="str">
         <f aca="false">D24&amp;" "&amp;H24</f>
         <v>Sun 9</v>
       </c>
@@ -2106,9 +2109,9 @@
         <f aca="false">F24 &amp; G24</f>
         <v>☉9</v>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="17" t="str">
         <f aca="false">VLOOKUP(G24,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,15 +2125,15 @@
         <f aca="false">VLOOKUP(B25,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="15" t="str">
         <f aca="false">VLOOKUP(B25,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E25" s="13" t="str">
+      <c r="E25" s="16" t="str">
         <f aca="false">"Planets\" &amp; D25 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F25" s="13" t="str">
+      <c r="F25" s="15" t="str">
         <f aca="false">VLOOKUP(B25,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2145,7 +2148,7 @@
         <f aca="false">VLOOKUP(G25,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="J25" s="3" t="str">
         <f aca="false">D25&amp;" "&amp;H25</f>
         <v>Sun +2</v>
       </c>
@@ -2153,7 +2156,7 @@
         <f aca="false">F25 &amp; G25</f>
         <v>☉+2</v>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="17" t="str">
         <f aca="false">VLOOKUP(G25,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -2169,15 +2172,15 @@
         <f aca="false">VLOOKUP(B26,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D26" s="13" t="str">
+      <c r="D26" s="15" t="str">
         <f aca="false">VLOOKUP(B26,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E26" s="13" t="str">
+      <c r="E26" s="16" t="str">
         <f aca="false">"Planets\" &amp; D26 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F26" s="13" t="str">
+      <c r="F26" s="15" t="str">
         <f aca="false">VLOOKUP(B26,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2192,7 +2195,7 @@
         <f aca="false">VLOOKUP(G26,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J26" s="6" t="str">
+      <c r="J26" s="3" t="str">
         <f aca="false">D26&amp;" "&amp;H26</f>
         <v>Sun +3</v>
       </c>
@@ -2200,7 +2203,7 @@
         <f aca="false">F26 &amp; G26</f>
         <v>☉+3</v>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="17" t="str">
         <f aca="false">VLOOKUP(G26,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -2216,15 +2219,15 @@
         <f aca="false">VLOOKUP(B27,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D27" s="13" t="str">
+      <c r="D27" s="15" t="str">
         <f aca="false">VLOOKUP(B27,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E27" s="13" t="str">
+      <c r="E27" s="16" t="str">
         <f aca="false">"Planets\" &amp; D27 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F27" s="13" t="str">
+      <c r="F27" s="15" t="str">
         <f aca="false">VLOOKUP(B27,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2239,7 +2242,7 @@
         <f aca="false">VLOOKUP(G27,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J27" s="6" t="str">
+      <c r="J27" s="3" t="str">
         <f aca="false">D27&amp;" "&amp;H27</f>
         <v>Sun Reversal</v>
       </c>
@@ -2247,7 +2250,7 @@
         <f aca="false">F27 &amp; G27</f>
         <v>☉🔄</v>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="17" t="str">
         <f aca="false">VLOOKUP(G27,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -2263,15 +2266,15 @@
         <f aca="false">VLOOKUP(B28,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D28" s="13" t="str">
+      <c r="D28" s="15" t="str">
         <f aca="false">VLOOKUP(B28,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E28" s="13" t="str">
+      <c r="E28" s="16" t="str">
         <f aca="false">"Planets\" &amp; D28 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F28" s="13" t="str">
+      <c r="F28" s="15" t="str">
         <f aca="false">VLOOKUP(B28,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2286,7 +2289,7 @@
         <f aca="false">VLOOKUP(G28,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J28" s="6" t="str">
+      <c r="J28" s="3" t="str">
         <f aca="false">D28&amp;" "&amp;H28</f>
         <v>Sun Block</v>
       </c>
@@ -2294,7 +2297,7 @@
         <f aca="false">F28 &amp; G28</f>
         <v>☉🚫</v>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="17" t="str">
         <f aca="false">VLOOKUP(G28,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -2310,15 +2313,15 @@
         <f aca="false">VLOOKUP(B29,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D29" s="13" t="str">
+      <c r="D29" s="15" t="str">
         <f aca="false">VLOOKUP(B29,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E29" s="13" t="str">
+      <c r="E29" s="16" t="str">
         <f aca="false">"Planets\" &amp; D29 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F29" s="13" t="str">
+      <c r="F29" s="15" t="str">
         <f aca="false">VLOOKUP(B29,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2333,7 +2336,7 @@
         <f aca="false">VLOOKUP(G29,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J29" s="6" t="str">
+      <c r="J29" s="3" t="str">
         <f aca="false">D29&amp;" "&amp;H29</f>
         <v>Sun Repeat</v>
       </c>
@@ -2341,7 +2344,7 @@
         <f aca="false">F29 &amp; G29</f>
         <v>☉🔂</v>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="17" t="str">
         <f aca="false">VLOOKUP(G29,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -2357,15 +2360,15 @@
         <f aca="false">VLOOKUP(B30,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D30" s="13" t="str">
+      <c r="D30" s="15" t="str">
         <f aca="false">VLOOKUP(B30,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E30" s="13" t="str">
+      <c r="E30" s="16" t="str">
         <f aca="false">"Planets\" &amp; D30 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F30" s="13" t="str">
+      <c r="F30" s="15" t="str">
         <f aca="false">VLOOKUP(B30,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2380,7 +2383,7 @@
         <f aca="false">VLOOKUP(G30,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J30" s="6" t="str">
+      <c r="J30" s="3" t="str">
         <f aca="false">D30&amp;" "&amp;H30</f>
         <v>Sun Freeze</v>
       </c>
@@ -2388,7 +2391,7 @@
         <f aca="false">F30 &amp; G30</f>
         <v>☉❄️</v>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="17" t="str">
         <f aca="false">VLOOKUP(G30,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -2404,15 +2407,15 @@
         <f aca="false">VLOOKUP(B31,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D31" s="13" t="str">
+      <c r="D31" s="15" t="str">
         <f aca="false">VLOOKUP(B31,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E31" s="13" t="str">
+      <c r="E31" s="16" t="str">
         <f aca="false">"Planets\" &amp; D31 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F31" s="13" t="str">
+      <c r="F31" s="15" t="str">
         <f aca="false">VLOOKUP(B31,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2427,7 +2430,7 @@
         <f aca="false">VLOOKUP(G31,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J31" s="6" t="str">
+      <c r="J31" s="3" t="str">
         <f aca="false">D31&amp;" "&amp;H31</f>
         <v>Sun Burn</v>
       </c>
@@ -2435,7 +2438,7 @@
         <f aca="false">F31 &amp; G31</f>
         <v>☉🔥</v>
       </c>
-      <c r="L31" s="16" t="str">
+      <c r="L31" s="17" t="str">
         <f aca="false">VLOOKUP(G31,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -2451,15 +2454,15 @@
         <f aca="false">VLOOKUP(B32,CARD_COLORS,3,0)</f>
         <v>#FFEE00</v>
       </c>
-      <c r="D32" s="13" t="str">
+      <c r="D32" s="15" t="str">
         <f aca="false">VLOOKUP(B32,CARD_COLORS,2,0)</f>
         <v>Sun</v>
       </c>
-      <c r="E32" s="13" t="str">
+      <c r="E32" s="16" t="str">
         <f aca="false">"Planets\" &amp; D32 &amp; ".png"</f>
         <v>Planets\Sun.png</v>
       </c>
-      <c r="F32" s="13" t="str">
+      <c r="F32" s="15" t="str">
         <f aca="false">VLOOKUP(B32,CARD_COLORS,4,0)</f>
         <v>☉</v>
       </c>
@@ -2474,7 +2477,7 @@
         <f aca="false">VLOOKUP(G32,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J32" s="6" t="str">
+      <c r="J32" s="3" t="str">
         <f aca="false">D32&amp;" "&amp;H32</f>
         <v>Sun Focus</v>
       </c>
@@ -2482,7 +2485,7 @@
         <f aca="false">F32 &amp; G32</f>
         <v>☉🎯</v>
       </c>
-      <c r="L32" s="16" t="str">
+      <c r="L32" s="17" t="str">
         <f aca="false">VLOOKUP(G32,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -2498,15 +2501,15 @@
         <f aca="false">VLOOKUP(B33,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D33" s="13" t="str">
+      <c r="D33" s="15" t="str">
         <f aca="false">VLOOKUP(B33,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E33" s="13" t="str">
+      <c r="E33" s="16" t="str">
         <f aca="false">"Planets\" &amp; D33 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F33" s="13" t="str">
+      <c r="F33" s="15" t="str">
         <f aca="false">VLOOKUP(B33,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2521,7 +2524,7 @@
         <f aca="false">VLOOKUP(G33,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J33" s="6" t="str">
+      <c r="J33" s="3" t="str">
         <f aca="false">D33&amp;" "&amp;H33</f>
         <v>Saturn 0</v>
       </c>
@@ -2529,9 +2532,9 @@
         <f aca="false">F33 &amp; G33</f>
         <v>♄0</v>
       </c>
-      <c r="L33" s="16" t="str">
+      <c r="L33" s="17" t="str">
         <f aca="false">VLOOKUP(G33,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,15 +2548,15 @@
         <f aca="false">VLOOKUP(B34,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D34" s="13" t="str">
+      <c r="D34" s="15" t="str">
         <f aca="false">VLOOKUP(B34,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E34" s="13" t="str">
+      <c r="E34" s="16" t="str">
         <f aca="false">"Planets\" &amp; D34 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F34" s="13" t="str">
+      <c r="F34" s="15" t="str">
         <f aca="false">VLOOKUP(B34,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2568,7 +2571,7 @@
         <f aca="false">VLOOKUP(G34,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J34" s="6" t="str">
+      <c r="J34" s="3" t="str">
         <f aca="false">D34&amp;" "&amp;H34</f>
         <v>Saturn 1</v>
       </c>
@@ -2576,9 +2579,9 @@
         <f aca="false">F34 &amp; G34</f>
         <v>♄1</v>
       </c>
-      <c r="L34" s="16" t="str">
+      <c r="L34" s="17" t="str">
         <f aca="false">VLOOKUP(G34,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,15 +2595,15 @@
         <f aca="false">VLOOKUP(B35,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D35" s="13" t="str">
+      <c r="D35" s="15" t="str">
         <f aca="false">VLOOKUP(B35,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E35" s="13" t="str">
+      <c r="E35" s="16" t="str">
         <f aca="false">"Planets\" &amp; D35 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="15" t="str">
         <f aca="false">VLOOKUP(B35,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2615,7 +2618,7 @@
         <f aca="false">VLOOKUP(G35,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J35" s="6" t="str">
+      <c r="J35" s="3" t="str">
         <f aca="false">D35&amp;" "&amp;H35</f>
         <v>Saturn 2</v>
       </c>
@@ -2623,9 +2626,9 @@
         <f aca="false">F35 &amp; G35</f>
         <v>♄2</v>
       </c>
-      <c r="L35" s="16" t="str">
+      <c r="L35" s="17" t="str">
         <f aca="false">VLOOKUP(G35,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,15 +2642,15 @@
         <f aca="false">VLOOKUP(B36,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D36" s="13" t="str">
+      <c r="D36" s="15" t="str">
         <f aca="false">VLOOKUP(B36,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E36" s="13" t="str">
+      <c r="E36" s="16" t="str">
         <f aca="false">"Planets\" &amp; D36 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F36" s="13" t="str">
+      <c r="F36" s="15" t="str">
         <f aca="false">VLOOKUP(B36,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2662,7 +2665,7 @@
         <f aca="false">VLOOKUP(G36,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J36" s="6" t="str">
+      <c r="J36" s="3" t="str">
         <f aca="false">D36&amp;" "&amp;H36</f>
         <v>Saturn 3</v>
       </c>
@@ -2670,9 +2673,9 @@
         <f aca="false">F36 &amp; G36</f>
         <v>♄3</v>
       </c>
-      <c r="L36" s="16" t="str">
+      <c r="L36" s="17" t="str">
         <f aca="false">VLOOKUP(G36,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,15 +2689,15 @@
         <f aca="false">VLOOKUP(B37,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D37" s="13" t="str">
+      <c r="D37" s="15" t="str">
         <f aca="false">VLOOKUP(B37,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E37" s="13" t="str">
+      <c r="E37" s="16" t="str">
         <f aca="false">"Planets\" &amp; D37 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F37" s="13" t="str">
+      <c r="F37" s="15" t="str">
         <f aca="false">VLOOKUP(B37,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2709,7 +2712,7 @@
         <f aca="false">VLOOKUP(G37,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J37" s="6" t="str">
+      <c r="J37" s="3" t="str">
         <f aca="false">D37&amp;" "&amp;H37</f>
         <v>Saturn 4</v>
       </c>
@@ -2717,9 +2720,9 @@
         <f aca="false">F37 &amp; G37</f>
         <v>♄4</v>
       </c>
-      <c r="L37" s="16" t="str">
+      <c r="L37" s="17" t="str">
         <f aca="false">VLOOKUP(G37,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,15 +2736,15 @@
         <f aca="false">VLOOKUP(B38,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D38" s="13" t="str">
+      <c r="D38" s="15" t="str">
         <f aca="false">VLOOKUP(B38,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="16" t="str">
         <f aca="false">"Planets\" &amp; D38 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F38" s="13" t="str">
+      <c r="F38" s="15" t="str">
         <f aca="false">VLOOKUP(B38,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2756,7 +2759,7 @@
         <f aca="false">VLOOKUP(G38,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J38" s="6" t="str">
+      <c r="J38" s="3" t="str">
         <f aca="false">D38&amp;" "&amp;H38</f>
         <v>Saturn 5</v>
       </c>
@@ -2764,9 +2767,9 @@
         <f aca="false">F38 &amp; G38</f>
         <v>♄5</v>
       </c>
-      <c r="L38" s="16" t="str">
+      <c r="L38" s="17" t="str">
         <f aca="false">VLOOKUP(G38,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,15 +2783,15 @@
         <f aca="false">VLOOKUP(B39,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D39" s="13" t="str">
+      <c r="D39" s="15" t="str">
         <f aca="false">VLOOKUP(B39,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E39" s="13" t="str">
+      <c r="E39" s="16" t="str">
         <f aca="false">"Planets\" &amp; D39 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F39" s="13" t="str">
+      <c r="F39" s="15" t="str">
         <f aca="false">VLOOKUP(B39,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2803,7 +2806,7 @@
         <f aca="false">VLOOKUP(G39,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J39" s="6" t="str">
+      <c r="J39" s="3" t="str">
         <f aca="false">D39&amp;" "&amp;H39</f>
         <v>Saturn 6</v>
       </c>
@@ -2811,9 +2814,9 @@
         <f aca="false">F39 &amp; G39</f>
         <v>♄6</v>
       </c>
-      <c r="L39" s="16" t="str">
+      <c r="L39" s="17" t="str">
         <f aca="false">VLOOKUP(G39,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,15 +2830,15 @@
         <f aca="false">VLOOKUP(B40,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D40" s="13" t="str">
+      <c r="D40" s="15" t="str">
         <f aca="false">VLOOKUP(B40,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E40" s="13" t="str">
+      <c r="E40" s="16" t="str">
         <f aca="false">"Planets\" &amp; D40 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F40" s="13" t="str">
+      <c r="F40" s="15" t="str">
         <f aca="false">VLOOKUP(B40,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2850,7 +2853,7 @@
         <f aca="false">VLOOKUP(G40,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J40" s="6" t="str">
+      <c r="J40" s="3" t="str">
         <f aca="false">D40&amp;" "&amp;H40</f>
         <v>Saturn 7</v>
       </c>
@@ -2858,9 +2861,9 @@
         <f aca="false">F40 &amp; G40</f>
         <v>♄7</v>
       </c>
-      <c r="L40" s="16" t="str">
+      <c r="L40" s="17" t="str">
         <f aca="false">VLOOKUP(G40,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,15 +2877,15 @@
         <f aca="false">VLOOKUP(B41,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D41" s="13" t="str">
+      <c r="D41" s="15" t="str">
         <f aca="false">VLOOKUP(B41,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E41" s="13" t="str">
+      <c r="E41" s="16" t="str">
         <f aca="false">"Planets\" &amp; D41 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F41" s="13" t="str">
+      <c r="F41" s="15" t="str">
         <f aca="false">VLOOKUP(B41,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2897,7 +2900,7 @@
         <f aca="false">VLOOKUP(G41,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J41" s="6" t="str">
+      <c r="J41" s="3" t="str">
         <f aca="false">D41&amp;" "&amp;H41</f>
         <v>Saturn 8</v>
       </c>
@@ -2905,9 +2908,9 @@
         <f aca="false">F41 &amp; G41</f>
         <v>♄8</v>
       </c>
-      <c r="L41" s="16" t="str">
+      <c r="L41" s="17" t="str">
         <f aca="false">VLOOKUP(G41,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,15 +2924,15 @@
         <f aca="false">VLOOKUP(B42,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D42" s="13" t="str">
+      <c r="D42" s="15" t="str">
         <f aca="false">VLOOKUP(B42,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E42" s="13" t="str">
+      <c r="E42" s="16" t="str">
         <f aca="false">"Planets\" &amp; D42 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F42" s="13" t="str">
+      <c r="F42" s="15" t="str">
         <f aca="false">VLOOKUP(B42,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2944,7 +2947,7 @@
         <f aca="false">VLOOKUP(G42,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J42" s="6" t="str">
+      <c r="J42" s="3" t="str">
         <f aca="false">D42&amp;" "&amp;H42</f>
         <v>Saturn 9</v>
       </c>
@@ -2952,9 +2955,9 @@
         <f aca="false">F42 &amp; G42</f>
         <v>♄9</v>
       </c>
-      <c r="L42" s="16" t="str">
+      <c r="L42" s="17" t="str">
         <f aca="false">VLOOKUP(G42,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,15 +2971,15 @@
         <f aca="false">VLOOKUP(B43,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D43" s="13" t="str">
+      <c r="D43" s="15" t="str">
         <f aca="false">VLOOKUP(B43,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E43" s="13" t="str">
+      <c r="E43" s="16" t="str">
         <f aca="false">"Planets\" &amp; D43 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F43" s="13" t="str">
+      <c r="F43" s="15" t="str">
         <f aca="false">VLOOKUP(B43,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -2991,7 +2994,7 @@
         <f aca="false">VLOOKUP(G43,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J43" s="6" t="str">
+      <c r="J43" s="3" t="str">
         <f aca="false">D43&amp;" "&amp;H43</f>
         <v>Saturn +2</v>
       </c>
@@ -2999,7 +3002,7 @@
         <f aca="false">F43 &amp; G43</f>
         <v>♄+2</v>
       </c>
-      <c r="L43" s="16" t="str">
+      <c r="L43" s="17" t="str">
         <f aca="false">VLOOKUP(G43,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -3015,15 +3018,15 @@
         <f aca="false">VLOOKUP(B44,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D44" s="13" t="str">
+      <c r="D44" s="15" t="str">
         <f aca="false">VLOOKUP(B44,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E44" s="13" t="str">
+      <c r="E44" s="16" t="str">
         <f aca="false">"Planets\" &amp; D44 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F44" s="13" t="str">
+      <c r="F44" s="15" t="str">
         <f aca="false">VLOOKUP(B44,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -3038,7 +3041,7 @@
         <f aca="false">VLOOKUP(G44,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J44" s="6" t="str">
+      <c r="J44" s="3" t="str">
         <f aca="false">D44&amp;" "&amp;H44</f>
         <v>Saturn +3</v>
       </c>
@@ -3046,7 +3049,7 @@
         <f aca="false">F44 &amp; G44</f>
         <v>♄+3</v>
       </c>
-      <c r="L44" s="16" t="str">
+      <c r="L44" s="17" t="str">
         <f aca="false">VLOOKUP(G44,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -3062,15 +3065,15 @@
         <f aca="false">VLOOKUP(B45,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D45" s="13" t="str">
+      <c r="D45" s="15" t="str">
         <f aca="false">VLOOKUP(B45,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E45" s="13" t="str">
+      <c r="E45" s="16" t="str">
         <f aca="false">"Planets\" &amp; D45 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F45" s="13" t="str">
+      <c r="F45" s="15" t="str">
         <f aca="false">VLOOKUP(B45,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -3085,7 +3088,7 @@
         <f aca="false">VLOOKUP(G45,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J45" s="6" t="str">
+      <c r="J45" s="3" t="str">
         <f aca="false">D45&amp;" "&amp;H45</f>
         <v>Saturn Reversal</v>
       </c>
@@ -3093,7 +3096,7 @@
         <f aca="false">F45 &amp; G45</f>
         <v>♄🔄</v>
       </c>
-      <c r="L45" s="16" t="str">
+      <c r="L45" s="17" t="str">
         <f aca="false">VLOOKUP(G45,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -3109,15 +3112,15 @@
         <f aca="false">VLOOKUP(B46,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D46" s="13" t="str">
+      <c r="D46" s="15" t="str">
         <f aca="false">VLOOKUP(B46,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E46" s="13" t="str">
+      <c r="E46" s="16" t="str">
         <f aca="false">"Planets\" &amp; D46 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F46" s="13" t="str">
+      <c r="F46" s="15" t="str">
         <f aca="false">VLOOKUP(B46,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -3132,7 +3135,7 @@
         <f aca="false">VLOOKUP(G46,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J46" s="6" t="str">
+      <c r="J46" s="3" t="str">
         <f aca="false">D46&amp;" "&amp;H46</f>
         <v>Saturn Block</v>
       </c>
@@ -3140,7 +3143,7 @@
         <f aca="false">F46 &amp; G46</f>
         <v>♄🚫</v>
       </c>
-      <c r="L46" s="16" t="str">
+      <c r="L46" s="17" t="str">
         <f aca="false">VLOOKUP(G46,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -3156,15 +3159,15 @@
         <f aca="false">VLOOKUP(B47,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D47" s="13" t="str">
+      <c r="D47" s="15" t="str">
         <f aca="false">VLOOKUP(B47,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E47" s="13" t="str">
+      <c r="E47" s="16" t="str">
         <f aca="false">"Planets\" &amp; D47 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F47" s="13" t="str">
+      <c r="F47" s="15" t="str">
         <f aca="false">VLOOKUP(B47,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -3179,7 +3182,7 @@
         <f aca="false">VLOOKUP(G47,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J47" s="6" t="str">
+      <c r="J47" s="3" t="str">
         <f aca="false">D47&amp;" "&amp;H47</f>
         <v>Saturn Repeat</v>
       </c>
@@ -3187,7 +3190,7 @@
         <f aca="false">F47 &amp; G47</f>
         <v>♄🔂</v>
       </c>
-      <c r="L47" s="16" t="str">
+      <c r="L47" s="17" t="str">
         <f aca="false">VLOOKUP(G47,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -3203,15 +3206,15 @@
         <f aca="false">VLOOKUP(B48,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D48" s="13" t="str">
+      <c r="D48" s="15" t="str">
         <f aca="false">VLOOKUP(B48,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E48" s="13" t="str">
+      <c r="E48" s="16" t="str">
         <f aca="false">"Planets\" &amp; D48 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F48" s="13" t="str">
+      <c r="F48" s="15" t="str">
         <f aca="false">VLOOKUP(B48,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -3226,7 +3229,7 @@
         <f aca="false">VLOOKUP(G48,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J48" s="6" t="str">
+      <c r="J48" s="3" t="str">
         <f aca="false">D48&amp;" "&amp;H48</f>
         <v>Saturn Freeze</v>
       </c>
@@ -3234,7 +3237,7 @@
         <f aca="false">F48 &amp; G48</f>
         <v>♄❄️</v>
       </c>
-      <c r="L48" s="16" t="str">
+      <c r="L48" s="17" t="str">
         <f aca="false">VLOOKUP(G48,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -3250,15 +3253,15 @@
         <f aca="false">VLOOKUP(B49,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D49" s="13" t="str">
+      <c r="D49" s="15" t="str">
         <f aca="false">VLOOKUP(B49,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E49" s="13" t="str">
+      <c r="E49" s="16" t="str">
         <f aca="false">"Planets\" &amp; D49 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F49" s="13" t="str">
+      <c r="F49" s="15" t="str">
         <f aca="false">VLOOKUP(B49,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -3273,7 +3276,7 @@
         <f aca="false">VLOOKUP(G49,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J49" s="6" t="str">
+      <c r="J49" s="3" t="str">
         <f aca="false">D49&amp;" "&amp;H49</f>
         <v>Saturn Burn</v>
       </c>
@@ -3281,7 +3284,7 @@
         <f aca="false">F49 &amp; G49</f>
         <v>♄🔥</v>
       </c>
-      <c r="L49" s="16" t="str">
+      <c r="L49" s="17" t="str">
         <f aca="false">VLOOKUP(G49,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -3297,15 +3300,15 @@
         <f aca="false">VLOOKUP(B50,CARD_COLORS,3,0)</f>
         <v>#884400</v>
       </c>
-      <c r="D50" s="13" t="str">
+      <c r="D50" s="15" t="str">
         <f aca="false">VLOOKUP(B50,CARD_COLORS,2,0)</f>
         <v>Saturn</v>
       </c>
-      <c r="E50" s="13" t="str">
+      <c r="E50" s="16" t="str">
         <f aca="false">"Planets\" &amp; D50 &amp; ".png"</f>
         <v>Planets\Saturn.png</v>
       </c>
-      <c r="F50" s="13" t="str">
+      <c r="F50" s="15" t="str">
         <f aca="false">VLOOKUP(B50,CARD_COLORS,4,0)</f>
         <v>♄</v>
       </c>
@@ -3320,7 +3323,7 @@
         <f aca="false">VLOOKUP(G50,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J50" s="6" t="str">
+      <c r="J50" s="3" t="str">
         <f aca="false">D50&amp;" "&amp;H50</f>
         <v>Saturn Focus</v>
       </c>
@@ -3328,7 +3331,7 @@
         <f aca="false">F50 &amp; G50</f>
         <v>♄🎯</v>
       </c>
-      <c r="L50" s="16" t="str">
+      <c r="L50" s="17" t="str">
         <f aca="false">VLOOKUP(G50,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -3344,15 +3347,15 @@
         <f aca="false">VLOOKUP(B51,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D51" s="13" t="str">
+      <c r="D51" s="15" t="str">
         <f aca="false">VLOOKUP(B51,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E51" s="13" t="str">
+      <c r="E51" s="16" t="str">
         <f aca="false">"Planets\" &amp; D51 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F51" s="13" t="str">
+      <c r="F51" s="15" t="str">
         <f aca="false">VLOOKUP(B51,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3367,7 +3370,7 @@
         <f aca="false">VLOOKUP(G51,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J51" s="6" t="str">
+      <c r="J51" s="3" t="str">
         <f aca="false">D51&amp;" "&amp;H51</f>
         <v>Venus 0</v>
       </c>
@@ -3375,9 +3378,9 @@
         <f aca="false">F51 &amp; G51</f>
         <v>♀0</v>
       </c>
-      <c r="L51" s="16" t="str">
+      <c r="L51" s="17" t="str">
         <f aca="false">VLOOKUP(G51,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,15 +3394,15 @@
         <f aca="false">VLOOKUP(B52,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D52" s="13" t="str">
+      <c r="D52" s="15" t="str">
         <f aca="false">VLOOKUP(B52,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E52" s="13" t="str">
+      <c r="E52" s="16" t="str">
         <f aca="false">"Planets\" &amp; D52 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F52" s="13" t="str">
+      <c r="F52" s="15" t="str">
         <f aca="false">VLOOKUP(B52,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3414,7 +3417,7 @@
         <f aca="false">VLOOKUP(G52,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J52" s="6" t="str">
+      <c r="J52" s="3" t="str">
         <f aca="false">D52&amp;" "&amp;H52</f>
         <v>Venus 1</v>
       </c>
@@ -3422,9 +3425,9 @@
         <f aca="false">F52 &amp; G52</f>
         <v>♀1</v>
       </c>
-      <c r="L52" s="16" t="str">
+      <c r="L52" s="17" t="str">
         <f aca="false">VLOOKUP(G52,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,15 +3441,15 @@
         <f aca="false">VLOOKUP(B53,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D53" s="13" t="str">
+      <c r="D53" s="15" t="str">
         <f aca="false">VLOOKUP(B53,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E53" s="13" t="str">
+      <c r="E53" s="16" t="str">
         <f aca="false">"Planets\" &amp; D53 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F53" s="13" t="str">
+      <c r="F53" s="15" t="str">
         <f aca="false">VLOOKUP(B53,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3461,7 +3464,7 @@
         <f aca="false">VLOOKUP(G53,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J53" s="6" t="str">
+      <c r="J53" s="3" t="str">
         <f aca="false">D53&amp;" "&amp;H53</f>
         <v>Venus 2</v>
       </c>
@@ -3469,9 +3472,9 @@
         <f aca="false">F53 &amp; G53</f>
         <v>♀2</v>
       </c>
-      <c r="L53" s="16" t="str">
+      <c r="L53" s="17" t="str">
         <f aca="false">VLOOKUP(G53,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,15 +3488,15 @@
         <f aca="false">VLOOKUP(B54,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D54" s="13" t="str">
+      <c r="D54" s="15" t="str">
         <f aca="false">VLOOKUP(B54,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E54" s="13" t="str">
+      <c r="E54" s="16" t="str">
         <f aca="false">"Planets\" &amp; D54 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F54" s="13" t="str">
+      <c r="F54" s="15" t="str">
         <f aca="false">VLOOKUP(B54,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3508,7 +3511,7 @@
         <f aca="false">VLOOKUP(G54,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J54" s="6" t="str">
+      <c r="J54" s="3" t="str">
         <f aca="false">D54&amp;" "&amp;H54</f>
         <v>Venus 3</v>
       </c>
@@ -3516,9 +3519,9 @@
         <f aca="false">F54 &amp; G54</f>
         <v>♀3</v>
       </c>
-      <c r="L54" s="16" t="str">
+      <c r="L54" s="17" t="str">
         <f aca="false">VLOOKUP(G54,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,15 +3535,15 @@
         <f aca="false">VLOOKUP(B55,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D55" s="13" t="str">
+      <c r="D55" s="15" t="str">
         <f aca="false">VLOOKUP(B55,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E55" s="13" t="str">
+      <c r="E55" s="16" t="str">
         <f aca="false">"Planets\" &amp; D55 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F55" s="13" t="str">
+      <c r="F55" s="15" t="str">
         <f aca="false">VLOOKUP(B55,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3555,7 +3558,7 @@
         <f aca="false">VLOOKUP(G55,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J55" s="6" t="str">
+      <c r="J55" s="3" t="str">
         <f aca="false">D55&amp;" "&amp;H55</f>
         <v>Venus 4</v>
       </c>
@@ -3563,9 +3566,9 @@
         <f aca="false">F55 &amp; G55</f>
         <v>♀4</v>
       </c>
-      <c r="L55" s="16" t="str">
+      <c r="L55" s="17" t="str">
         <f aca="false">VLOOKUP(G55,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,15 +3582,15 @@
         <f aca="false">VLOOKUP(B56,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D56" s="13" t="str">
+      <c r="D56" s="15" t="str">
         <f aca="false">VLOOKUP(B56,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E56" s="13" t="str">
+      <c r="E56" s="16" t="str">
         <f aca="false">"Planets\" &amp; D56 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F56" s="13" t="str">
+      <c r="F56" s="15" t="str">
         <f aca="false">VLOOKUP(B56,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3602,7 +3605,7 @@
         <f aca="false">VLOOKUP(G56,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J56" s="6" t="str">
+      <c r="J56" s="3" t="str">
         <f aca="false">D56&amp;" "&amp;H56</f>
         <v>Venus 5</v>
       </c>
@@ -3610,9 +3613,9 @@
         <f aca="false">F56 &amp; G56</f>
         <v>♀5</v>
       </c>
-      <c r="L56" s="16" t="str">
+      <c r="L56" s="17" t="str">
         <f aca="false">VLOOKUP(G56,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,15 +3629,15 @@
         <f aca="false">VLOOKUP(B57,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D57" s="13" t="str">
+      <c r="D57" s="15" t="str">
         <f aca="false">VLOOKUP(B57,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E57" s="13" t="str">
+      <c r="E57" s="16" t="str">
         <f aca="false">"Planets\" &amp; D57 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F57" s="13" t="str">
+      <c r="F57" s="15" t="str">
         <f aca="false">VLOOKUP(B57,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3649,7 +3652,7 @@
         <f aca="false">VLOOKUP(G57,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J57" s="6" t="str">
+      <c r="J57" s="3" t="str">
         <f aca="false">D57&amp;" "&amp;H57</f>
         <v>Venus 6</v>
       </c>
@@ -3657,9 +3660,9 @@
         <f aca="false">F57 &amp; G57</f>
         <v>♀6</v>
       </c>
-      <c r="L57" s="16" t="str">
+      <c r="L57" s="17" t="str">
         <f aca="false">VLOOKUP(G57,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,15 +3676,15 @@
         <f aca="false">VLOOKUP(B58,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D58" s="13" t="str">
+      <c r="D58" s="15" t="str">
         <f aca="false">VLOOKUP(B58,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E58" s="13" t="str">
+      <c r="E58" s="16" t="str">
         <f aca="false">"Planets\" &amp; D58 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F58" s="13" t="str">
+      <c r="F58" s="15" t="str">
         <f aca="false">VLOOKUP(B58,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3696,7 +3699,7 @@
         <f aca="false">VLOOKUP(G58,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J58" s="6" t="str">
+      <c r="J58" s="3" t="str">
         <f aca="false">D58&amp;" "&amp;H58</f>
         <v>Venus 7</v>
       </c>
@@ -3704,9 +3707,9 @@
         <f aca="false">F58 &amp; G58</f>
         <v>♀7</v>
       </c>
-      <c r="L58" s="16" t="str">
+      <c r="L58" s="17" t="str">
         <f aca="false">VLOOKUP(G58,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,15 +3723,15 @@
         <f aca="false">VLOOKUP(B59,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D59" s="13" t="str">
+      <c r="D59" s="15" t="str">
         <f aca="false">VLOOKUP(B59,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E59" s="13" t="str">
+      <c r="E59" s="16" t="str">
         <f aca="false">"Planets\" &amp; D59 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F59" s="13" t="str">
+      <c r="F59" s="15" t="str">
         <f aca="false">VLOOKUP(B59,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3743,7 +3746,7 @@
         <f aca="false">VLOOKUP(G59,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J59" s="6" t="str">
+      <c r="J59" s="3" t="str">
         <f aca="false">D59&amp;" "&amp;H59</f>
         <v>Venus 8</v>
       </c>
@@ -3751,9 +3754,9 @@
         <f aca="false">F59 &amp; G59</f>
         <v>♀8</v>
       </c>
-      <c r="L59" s="16" t="str">
+      <c r="L59" s="17" t="str">
         <f aca="false">VLOOKUP(G59,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,15 +3770,15 @@
         <f aca="false">VLOOKUP(B60,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D60" s="13" t="str">
+      <c r="D60" s="15" t="str">
         <f aca="false">VLOOKUP(B60,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E60" s="13" t="str">
+      <c r="E60" s="16" t="str">
         <f aca="false">"Planets\" &amp; D60 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F60" s="13" t="str">
+      <c r="F60" s="15" t="str">
         <f aca="false">VLOOKUP(B60,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3790,7 +3793,7 @@
         <f aca="false">VLOOKUP(G60,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J60" s="6" t="str">
+      <c r="J60" s="3" t="str">
         <f aca="false">D60&amp;" "&amp;H60</f>
         <v>Venus 9</v>
       </c>
@@ -3798,9 +3801,9 @@
         <f aca="false">F60 &amp; G60</f>
         <v>♀9</v>
       </c>
-      <c r="L60" s="16" t="str">
+      <c r="L60" s="17" t="str">
         <f aca="false">VLOOKUP(G60,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,15 +3817,15 @@
         <f aca="false">VLOOKUP(B61,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D61" s="13" t="str">
+      <c r="D61" s="15" t="str">
         <f aca="false">VLOOKUP(B61,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E61" s="13" t="str">
+      <c r="E61" s="16" t="str">
         <f aca="false">"Planets\" &amp; D61 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F61" s="13" t="str">
+      <c r="F61" s="15" t="str">
         <f aca="false">VLOOKUP(B61,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3837,7 +3840,7 @@
         <f aca="false">VLOOKUP(G61,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J61" s="6" t="str">
+      <c r="J61" s="3" t="str">
         <f aca="false">D61&amp;" "&amp;H61</f>
         <v>Venus +2</v>
       </c>
@@ -3845,7 +3848,7 @@
         <f aca="false">F61 &amp; G61</f>
         <v>♀+2</v>
       </c>
-      <c r="L61" s="16" t="str">
+      <c r="L61" s="17" t="str">
         <f aca="false">VLOOKUP(G61,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -3861,15 +3864,15 @@
         <f aca="false">VLOOKUP(B62,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D62" s="13" t="str">
+      <c r="D62" s="15" t="str">
         <f aca="false">VLOOKUP(B62,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E62" s="13" t="str">
+      <c r="E62" s="16" t="str">
         <f aca="false">"Planets\" &amp; D62 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F62" s="13" t="str">
+      <c r="F62" s="15" t="str">
         <f aca="false">VLOOKUP(B62,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3884,7 +3887,7 @@
         <f aca="false">VLOOKUP(G62,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J62" s="6" t="str">
+      <c r="J62" s="3" t="str">
         <f aca="false">D62&amp;" "&amp;H62</f>
         <v>Venus +3</v>
       </c>
@@ -3892,7 +3895,7 @@
         <f aca="false">F62 &amp; G62</f>
         <v>♀+3</v>
       </c>
-      <c r="L62" s="16" t="str">
+      <c r="L62" s="17" t="str">
         <f aca="false">VLOOKUP(G62,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -3908,15 +3911,15 @@
         <f aca="false">VLOOKUP(B63,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D63" s="13" t="str">
+      <c r="D63" s="15" t="str">
         <f aca="false">VLOOKUP(B63,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E63" s="13" t="str">
+      <c r="E63" s="16" t="str">
         <f aca="false">"Planets\" &amp; D63 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F63" s="13" t="str">
+      <c r="F63" s="15" t="str">
         <f aca="false">VLOOKUP(B63,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3931,7 +3934,7 @@
         <f aca="false">VLOOKUP(G63,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J63" s="6" t="str">
+      <c r="J63" s="3" t="str">
         <f aca="false">D63&amp;" "&amp;H63</f>
         <v>Venus Reversal</v>
       </c>
@@ -3939,7 +3942,7 @@
         <f aca="false">F63 &amp; G63</f>
         <v>♀🔄</v>
       </c>
-      <c r="L63" s="16" t="str">
+      <c r="L63" s="17" t="str">
         <f aca="false">VLOOKUP(G63,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -3955,15 +3958,15 @@
         <f aca="false">VLOOKUP(B64,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D64" s="13" t="str">
+      <c r="D64" s="15" t="str">
         <f aca="false">VLOOKUP(B64,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E64" s="13" t="str">
+      <c r="E64" s="16" t="str">
         <f aca="false">"Planets\" &amp; D64 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F64" s="13" t="str">
+      <c r="F64" s="15" t="str">
         <f aca="false">VLOOKUP(B64,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -3978,7 +3981,7 @@
         <f aca="false">VLOOKUP(G64,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J64" s="6" t="str">
+      <c r="J64" s="3" t="str">
         <f aca="false">D64&amp;" "&amp;H64</f>
         <v>Venus Block</v>
       </c>
@@ -3986,7 +3989,7 @@
         <f aca="false">F64 &amp; G64</f>
         <v>♀🚫</v>
       </c>
-      <c r="L64" s="16" t="str">
+      <c r="L64" s="17" t="str">
         <f aca="false">VLOOKUP(G64,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -4002,15 +4005,15 @@
         <f aca="false">VLOOKUP(B65,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D65" s="13" t="str">
+      <c r="D65" s="15" t="str">
         <f aca="false">VLOOKUP(B65,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E65" s="13" t="str">
+      <c r="E65" s="16" t="str">
         <f aca="false">"Planets\" &amp; D65 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F65" s="13" t="str">
+      <c r="F65" s="15" t="str">
         <f aca="false">VLOOKUP(B65,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -4025,7 +4028,7 @@
         <f aca="false">VLOOKUP(G65,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J65" s="6" t="str">
+      <c r="J65" s="3" t="str">
         <f aca="false">D65&amp;" "&amp;H65</f>
         <v>Venus Repeat</v>
       </c>
@@ -4033,7 +4036,7 @@
         <f aca="false">F65 &amp; G65</f>
         <v>♀🔂</v>
       </c>
-      <c r="L65" s="16" t="str">
+      <c r="L65" s="17" t="str">
         <f aca="false">VLOOKUP(G65,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -4049,15 +4052,15 @@
         <f aca="false">VLOOKUP(B66,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D66" s="13" t="str">
+      <c r="D66" s="15" t="str">
         <f aca="false">VLOOKUP(B66,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E66" s="13" t="str">
+      <c r="E66" s="16" t="str">
         <f aca="false">"Planets\" &amp; D66 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F66" s="13" t="str">
+      <c r="F66" s="15" t="str">
         <f aca="false">VLOOKUP(B66,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -4072,7 +4075,7 @@
         <f aca="false">VLOOKUP(G66,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J66" s="6" t="str">
+      <c r="J66" s="3" t="str">
         <f aca="false">D66&amp;" "&amp;H66</f>
         <v>Venus Freeze</v>
       </c>
@@ -4080,7 +4083,7 @@
         <f aca="false">F66 &amp; G66</f>
         <v>♀❄️</v>
       </c>
-      <c r="L66" s="16" t="str">
+      <c r="L66" s="17" t="str">
         <f aca="false">VLOOKUP(G66,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -4096,15 +4099,15 @@
         <f aca="false">VLOOKUP(B67,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D67" s="13" t="str">
+      <c r="D67" s="15" t="str">
         <f aca="false">VLOOKUP(B67,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E67" s="13" t="str">
+      <c r="E67" s="16" t="str">
         <f aca="false">"Planets\" &amp; D67 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F67" s="13" t="str">
+      <c r="F67" s="15" t="str">
         <f aca="false">VLOOKUP(B67,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -4119,7 +4122,7 @@
         <f aca="false">VLOOKUP(G67,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J67" s="6" t="str">
+      <c r="J67" s="3" t="str">
         <f aca="false">D67&amp;" "&amp;H67</f>
         <v>Venus Burn</v>
       </c>
@@ -4127,7 +4130,7 @@
         <f aca="false">F67 &amp; G67</f>
         <v>♀🔥</v>
       </c>
-      <c r="L67" s="16" t="str">
+      <c r="L67" s="17" t="str">
         <f aca="false">VLOOKUP(G67,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -4143,15 +4146,15 @@
         <f aca="false">VLOOKUP(B68,CARD_COLORS,3,0)</f>
         <v>#CC00CC</v>
       </c>
-      <c r="D68" s="13" t="str">
+      <c r="D68" s="15" t="str">
         <f aca="false">VLOOKUP(B68,CARD_COLORS,2,0)</f>
         <v>Venus</v>
       </c>
-      <c r="E68" s="13" t="str">
+      <c r="E68" s="16" t="str">
         <f aca="false">"Planets\" &amp; D68 &amp; ".png"</f>
         <v>Planets\Venus.png</v>
       </c>
-      <c r="F68" s="13" t="str">
+      <c r="F68" s="15" t="str">
         <f aca="false">VLOOKUP(B68,CARD_COLORS,4,0)</f>
         <v>♀</v>
       </c>
@@ -4166,7 +4169,7 @@
         <f aca="false">VLOOKUP(G68,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J68" s="6" t="str">
+      <c r="J68" s="3" t="str">
         <f aca="false">D68&amp;" "&amp;H68</f>
         <v>Venus Focus</v>
       </c>
@@ -4174,7 +4177,7 @@
         <f aca="false">F68 &amp; G68</f>
         <v>♀🎯</v>
       </c>
-      <c r="L68" s="16" t="str">
+      <c r="L68" s="17" t="str">
         <f aca="false">VLOOKUP(G68,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -4190,15 +4193,15 @@
         <f aca="false">VLOOKUP(B69,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D69" s="13" t="str">
+      <c r="D69" s="15" t="str">
         <f aca="false">VLOOKUP(B69,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E69" s="13" t="str">
+      <c r="E69" s="16" t="str">
         <f aca="false">"Planets\" &amp; D69 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F69" s="13" t="str">
+      <c r="F69" s="15" t="str">
         <f aca="false">VLOOKUP(B69,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4213,7 +4216,7 @@
         <f aca="false">VLOOKUP(G69,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J69" s="6" t="str">
+      <c r="J69" s="3" t="str">
         <f aca="false">D69&amp;" "&amp;H69</f>
         <v>Earth 0</v>
       </c>
@@ -4221,9 +4224,9 @@
         <f aca="false">F69 &amp; G69</f>
         <v>⊕0</v>
       </c>
-      <c r="L69" s="16" t="str">
+      <c r="L69" s="17" t="str">
         <f aca="false">VLOOKUP(G69,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,15 +4240,15 @@
         <f aca="false">VLOOKUP(B70,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D70" s="13" t="str">
+      <c r="D70" s="15" t="str">
         <f aca="false">VLOOKUP(B70,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E70" s="13" t="str">
+      <c r="E70" s="16" t="str">
         <f aca="false">"Planets\" &amp; D70 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F70" s="13" t="str">
+      <c r="F70" s="15" t="str">
         <f aca="false">VLOOKUP(B70,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4260,7 +4263,7 @@
         <f aca="false">VLOOKUP(G70,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J70" s="6" t="str">
+      <c r="J70" s="3" t="str">
         <f aca="false">D70&amp;" "&amp;H70</f>
         <v>Earth 1</v>
       </c>
@@ -4268,9 +4271,9 @@
         <f aca="false">F70 &amp; G70</f>
         <v>⊕1</v>
       </c>
-      <c r="L70" s="16" t="str">
+      <c r="L70" s="17" t="str">
         <f aca="false">VLOOKUP(G70,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4284,15 +4287,15 @@
         <f aca="false">VLOOKUP(B71,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D71" s="13" t="str">
+      <c r="D71" s="15" t="str">
         <f aca="false">VLOOKUP(B71,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E71" s="13" t="str">
+      <c r="E71" s="16" t="str">
         <f aca="false">"Planets\" &amp; D71 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F71" s="13" t="str">
+      <c r="F71" s="15" t="str">
         <f aca="false">VLOOKUP(B71,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4307,7 +4310,7 @@
         <f aca="false">VLOOKUP(G71,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J71" s="6" t="str">
+      <c r="J71" s="3" t="str">
         <f aca="false">D71&amp;" "&amp;H71</f>
         <v>Earth 2</v>
       </c>
@@ -4315,9 +4318,9 @@
         <f aca="false">F71 &amp; G71</f>
         <v>⊕2</v>
       </c>
-      <c r="L71" s="16" t="str">
+      <c r="L71" s="17" t="str">
         <f aca="false">VLOOKUP(G71,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,15 +4334,15 @@
         <f aca="false">VLOOKUP(B72,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D72" s="13" t="str">
+      <c r="D72" s="15" t="str">
         <f aca="false">VLOOKUP(B72,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E72" s="13" t="str">
+      <c r="E72" s="16" t="str">
         <f aca="false">"Planets\" &amp; D72 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F72" s="13" t="str">
+      <c r="F72" s="15" t="str">
         <f aca="false">VLOOKUP(B72,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4354,7 +4357,7 @@
         <f aca="false">VLOOKUP(G72,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J72" s="6" t="str">
+      <c r="J72" s="3" t="str">
         <f aca="false">D72&amp;" "&amp;H72</f>
         <v>Earth 3</v>
       </c>
@@ -4362,9 +4365,9 @@
         <f aca="false">F72 &amp; G72</f>
         <v>⊕3</v>
       </c>
-      <c r="L72" s="16" t="str">
+      <c r="L72" s="17" t="str">
         <f aca="false">VLOOKUP(G72,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,15 +4381,15 @@
         <f aca="false">VLOOKUP(B73,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D73" s="13" t="str">
+      <c r="D73" s="15" t="str">
         <f aca="false">VLOOKUP(B73,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E73" s="13" t="str">
+      <c r="E73" s="16" t="str">
         <f aca="false">"Planets\" &amp; D73 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F73" s="13" t="str">
+      <c r="F73" s="15" t="str">
         <f aca="false">VLOOKUP(B73,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4401,7 +4404,7 @@
         <f aca="false">VLOOKUP(G73,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J73" s="6" t="str">
+      <c r="J73" s="3" t="str">
         <f aca="false">D73&amp;" "&amp;H73</f>
         <v>Earth 4</v>
       </c>
@@ -4409,9 +4412,9 @@
         <f aca="false">F73 &amp; G73</f>
         <v>⊕4</v>
       </c>
-      <c r="L73" s="16" t="str">
+      <c r="L73" s="17" t="str">
         <f aca="false">VLOOKUP(G73,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,15 +4428,15 @@
         <f aca="false">VLOOKUP(B74,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D74" s="13" t="str">
+      <c r="D74" s="15" t="str">
         <f aca="false">VLOOKUP(B74,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E74" s="13" t="str">
+      <c r="E74" s="16" t="str">
         <f aca="false">"Planets\" &amp; D74 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F74" s="13" t="str">
+      <c r="F74" s="15" t="str">
         <f aca="false">VLOOKUP(B74,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4448,7 +4451,7 @@
         <f aca="false">VLOOKUP(G74,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J74" s="6" t="str">
+      <c r="J74" s="3" t="str">
         <f aca="false">D74&amp;" "&amp;H74</f>
         <v>Earth 5</v>
       </c>
@@ -4456,9 +4459,9 @@
         <f aca="false">F74 &amp; G74</f>
         <v>⊕5</v>
       </c>
-      <c r="L74" s="16" t="str">
+      <c r="L74" s="17" t="str">
         <f aca="false">VLOOKUP(G74,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,15 +4475,15 @@
         <f aca="false">VLOOKUP(B75,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D75" s="13" t="str">
+      <c r="D75" s="15" t="str">
         <f aca="false">VLOOKUP(B75,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E75" s="13" t="str">
+      <c r="E75" s="16" t="str">
         <f aca="false">"Planets\" &amp; D75 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F75" s="13" t="str">
+      <c r="F75" s="15" t="str">
         <f aca="false">VLOOKUP(B75,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4495,7 +4498,7 @@
         <f aca="false">VLOOKUP(G75,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J75" s="6" t="str">
+      <c r="J75" s="3" t="str">
         <f aca="false">D75&amp;" "&amp;H75</f>
         <v>Earth 6</v>
       </c>
@@ -4503,9 +4506,9 @@
         <f aca="false">F75 &amp; G75</f>
         <v>⊕6</v>
       </c>
-      <c r="L75" s="16" t="str">
+      <c r="L75" s="17" t="str">
         <f aca="false">VLOOKUP(G75,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,15 +4522,15 @@
         <f aca="false">VLOOKUP(B76,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D76" s="13" t="str">
+      <c r="D76" s="15" t="str">
         <f aca="false">VLOOKUP(B76,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E76" s="13" t="str">
+      <c r="E76" s="16" t="str">
         <f aca="false">"Planets\" &amp; D76 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F76" s="13" t="str">
+      <c r="F76" s="15" t="str">
         <f aca="false">VLOOKUP(B76,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4542,7 +4545,7 @@
         <f aca="false">VLOOKUP(G76,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J76" s="6" t="str">
+      <c r="J76" s="3" t="str">
         <f aca="false">D76&amp;" "&amp;H76</f>
         <v>Earth 7</v>
       </c>
@@ -4550,9 +4553,9 @@
         <f aca="false">F76 &amp; G76</f>
         <v>⊕7</v>
       </c>
-      <c r="L76" s="16" t="str">
+      <c r="L76" s="17" t="str">
         <f aca="false">VLOOKUP(G76,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,15 +4569,15 @@
         <f aca="false">VLOOKUP(B77,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D77" s="13" t="str">
+      <c r="D77" s="15" t="str">
         <f aca="false">VLOOKUP(B77,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E77" s="13" t="str">
+      <c r="E77" s="16" t="str">
         <f aca="false">"Planets\" &amp; D77 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F77" s="13" t="str">
+      <c r="F77" s="15" t="str">
         <f aca="false">VLOOKUP(B77,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4589,7 +4592,7 @@
         <f aca="false">VLOOKUP(G77,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J77" s="6" t="str">
+      <c r="J77" s="3" t="str">
         <f aca="false">D77&amp;" "&amp;H77</f>
         <v>Earth 8</v>
       </c>
@@ -4597,9 +4600,9 @@
         <f aca="false">F77 &amp; G77</f>
         <v>⊕8</v>
       </c>
-      <c r="L77" s="16" t="str">
+      <c r="L77" s="17" t="str">
         <f aca="false">VLOOKUP(G77,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,15 +4616,15 @@
         <f aca="false">VLOOKUP(B78,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D78" s="13" t="str">
+      <c r="D78" s="15" t="str">
         <f aca="false">VLOOKUP(B78,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E78" s="13" t="str">
+      <c r="E78" s="16" t="str">
         <f aca="false">"Planets\" &amp; D78 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F78" s="13" t="str">
+      <c r="F78" s="15" t="str">
         <f aca="false">VLOOKUP(B78,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4636,7 +4639,7 @@
         <f aca="false">VLOOKUP(G78,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J78" s="6" t="str">
+      <c r="J78" s="3" t="str">
         <f aca="false">D78&amp;" "&amp;H78</f>
         <v>Earth 9</v>
       </c>
@@ -4644,9 +4647,9 @@
         <f aca="false">F78 &amp; G78</f>
         <v>⊕9</v>
       </c>
-      <c r="L78" s="16" t="str">
+      <c r="L78" s="17" t="str">
         <f aca="false">VLOOKUP(G78,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,15 +4663,15 @@
         <f aca="false">VLOOKUP(B79,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D79" s="13" t="str">
+      <c r="D79" s="15" t="str">
         <f aca="false">VLOOKUP(B79,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E79" s="13" t="str">
+      <c r="E79" s="16" t="str">
         <f aca="false">"Planets\" &amp; D79 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F79" s="13" t="str">
+      <c r="F79" s="15" t="str">
         <f aca="false">VLOOKUP(B79,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4683,7 +4686,7 @@
         <f aca="false">VLOOKUP(G79,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J79" s="6" t="str">
+      <c r="J79" s="3" t="str">
         <f aca="false">D79&amp;" "&amp;H79</f>
         <v>Earth +2</v>
       </c>
@@ -4691,7 +4694,7 @@
         <f aca="false">F79 &amp; G79</f>
         <v>⊕+2</v>
       </c>
-      <c r="L79" s="16" t="str">
+      <c r="L79" s="17" t="str">
         <f aca="false">VLOOKUP(G79,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -4707,15 +4710,15 @@
         <f aca="false">VLOOKUP(B80,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D80" s="13" t="str">
+      <c r="D80" s="15" t="str">
         <f aca="false">VLOOKUP(B80,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E80" s="13" t="str">
+      <c r="E80" s="16" t="str">
         <f aca="false">"Planets\" &amp; D80 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F80" s="13" t="str">
+      <c r="F80" s="15" t="str">
         <f aca="false">VLOOKUP(B80,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4730,7 +4733,7 @@
         <f aca="false">VLOOKUP(G80,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J80" s="6" t="str">
+      <c r="J80" s="3" t="str">
         <f aca="false">D80&amp;" "&amp;H80</f>
         <v>Earth +3</v>
       </c>
@@ -4738,7 +4741,7 @@
         <f aca="false">F80 &amp; G80</f>
         <v>⊕+3</v>
       </c>
-      <c r="L80" s="16" t="str">
+      <c r="L80" s="17" t="str">
         <f aca="false">VLOOKUP(G80,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -4754,15 +4757,15 @@
         <f aca="false">VLOOKUP(B81,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D81" s="13" t="str">
+      <c r="D81" s="15" t="str">
         <f aca="false">VLOOKUP(B81,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E81" s="13" t="str">
+      <c r="E81" s="16" t="str">
         <f aca="false">"Planets\" &amp; D81 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F81" s="13" t="str">
+      <c r="F81" s="15" t="str">
         <f aca="false">VLOOKUP(B81,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4777,7 +4780,7 @@
         <f aca="false">VLOOKUP(G81,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J81" s="6" t="str">
+      <c r="J81" s="3" t="str">
         <f aca="false">D81&amp;" "&amp;H81</f>
         <v>Earth Reversal</v>
       </c>
@@ -4785,7 +4788,7 @@
         <f aca="false">F81 &amp; G81</f>
         <v>⊕🔄</v>
       </c>
-      <c r="L81" s="16" t="str">
+      <c r="L81" s="17" t="str">
         <f aca="false">VLOOKUP(G81,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -4801,15 +4804,15 @@
         <f aca="false">VLOOKUP(B82,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D82" s="13" t="str">
+      <c r="D82" s="15" t="str">
         <f aca="false">VLOOKUP(B82,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E82" s="13" t="str">
+      <c r="E82" s="16" t="str">
         <f aca="false">"Planets\" &amp; D82 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F82" s="13" t="str">
+      <c r="F82" s="15" t="str">
         <f aca="false">VLOOKUP(B82,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4824,7 +4827,7 @@
         <f aca="false">VLOOKUP(G82,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J82" s="6" t="str">
+      <c r="J82" s="3" t="str">
         <f aca="false">D82&amp;" "&amp;H82</f>
         <v>Earth Block</v>
       </c>
@@ -4832,7 +4835,7 @@
         <f aca="false">F82 &amp; G82</f>
         <v>⊕🚫</v>
       </c>
-      <c r="L82" s="16" t="str">
+      <c r="L82" s="17" t="str">
         <f aca="false">VLOOKUP(G82,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -4848,15 +4851,15 @@
         <f aca="false">VLOOKUP(B83,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D83" s="13" t="str">
+      <c r="D83" s="15" t="str">
         <f aca="false">VLOOKUP(B83,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E83" s="13" t="str">
+      <c r="E83" s="16" t="str">
         <f aca="false">"Planets\" &amp; D83 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F83" s="13" t="str">
+      <c r="F83" s="15" t="str">
         <f aca="false">VLOOKUP(B83,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4871,7 +4874,7 @@
         <f aca="false">VLOOKUP(G83,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J83" s="6" t="str">
+      <c r="J83" s="3" t="str">
         <f aca="false">D83&amp;" "&amp;H83</f>
         <v>Earth Repeat</v>
       </c>
@@ -4879,7 +4882,7 @@
         <f aca="false">F83 &amp; G83</f>
         <v>⊕🔂</v>
       </c>
-      <c r="L83" s="16" t="str">
+      <c r="L83" s="17" t="str">
         <f aca="false">VLOOKUP(G83,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -4895,15 +4898,15 @@
         <f aca="false">VLOOKUP(B84,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D84" s="13" t="str">
+      <c r="D84" s="15" t="str">
         <f aca="false">VLOOKUP(B84,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E84" s="13" t="str">
+      <c r="E84" s="16" t="str">
         <f aca="false">"Planets\" &amp; D84 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F84" s="13" t="str">
+      <c r="F84" s="15" t="str">
         <f aca="false">VLOOKUP(B84,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4918,7 +4921,7 @@
         <f aca="false">VLOOKUP(G84,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J84" s="6" t="str">
+      <c r="J84" s="3" t="str">
         <f aca="false">D84&amp;" "&amp;H84</f>
         <v>Earth Freeze</v>
       </c>
@@ -4926,7 +4929,7 @@
         <f aca="false">F84 &amp; G84</f>
         <v>⊕❄️</v>
       </c>
-      <c r="L84" s="16" t="str">
+      <c r="L84" s="17" t="str">
         <f aca="false">VLOOKUP(G84,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -4942,15 +4945,15 @@
         <f aca="false">VLOOKUP(B85,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D85" s="13" t="str">
+      <c r="D85" s="15" t="str">
         <f aca="false">VLOOKUP(B85,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E85" s="13" t="str">
+      <c r="E85" s="16" t="str">
         <f aca="false">"Planets\" &amp; D85 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F85" s="13" t="str">
+      <c r="F85" s="15" t="str">
         <f aca="false">VLOOKUP(B85,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -4965,7 +4968,7 @@
         <f aca="false">VLOOKUP(G85,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J85" s="6" t="str">
+      <c r="J85" s="3" t="str">
         <f aca="false">D85&amp;" "&amp;H85</f>
         <v>Earth Burn</v>
       </c>
@@ -4973,7 +4976,7 @@
         <f aca="false">F85 &amp; G85</f>
         <v>⊕🔥</v>
       </c>
-      <c r="L85" s="16" t="str">
+      <c r="L85" s="17" t="str">
         <f aca="false">VLOOKUP(G85,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -4989,15 +4992,15 @@
         <f aca="false">VLOOKUP(B86,CARD_COLORS,3,0)</f>
         <v>#008800</v>
       </c>
-      <c r="D86" s="13" t="str">
+      <c r="D86" s="15" t="str">
         <f aca="false">VLOOKUP(B86,CARD_COLORS,2,0)</f>
         <v>Earth</v>
       </c>
-      <c r="E86" s="13" t="str">
+      <c r="E86" s="16" t="str">
         <f aca="false">"Planets\" &amp; D86 &amp; ".png"</f>
         <v>Planets\Earth.png</v>
       </c>
-      <c r="F86" s="13" t="str">
+      <c r="F86" s="15" t="str">
         <f aca="false">VLOOKUP(B86,CARD_COLORS,4,0)</f>
         <v>⊕</v>
       </c>
@@ -5012,7 +5015,7 @@
         <f aca="false">VLOOKUP(G86,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J86" s="6" t="str">
+      <c r="J86" s="3" t="str">
         <f aca="false">D86&amp;" "&amp;H86</f>
         <v>Earth Focus</v>
       </c>
@@ -5020,7 +5023,7 @@
         <f aca="false">F86 &amp; G86</f>
         <v>⊕🎯</v>
       </c>
-      <c r="L86" s="16" t="str">
+      <c r="L86" s="17" t="str">
         <f aca="false">VLOOKUP(G86,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -5036,15 +5039,15 @@
         <f aca="false">VLOOKUP(B87,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D87" s="13" t="str">
+      <c r="D87" s="15" t="str">
         <f aca="false">VLOOKUP(B87,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E87" s="13" t="str">
+      <c r="E87" s="16" t="str">
         <f aca="false">"Planets\" &amp; D87 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F87" s="13" t="str">
+      <c r="F87" s="15" t="str">
         <f aca="false">VLOOKUP(B87,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5059,7 +5062,7 @@
         <f aca="false">VLOOKUP(G87,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J87" s="6" t="str">
+      <c r="J87" s="3" t="str">
         <f aca="false">D87&amp;" "&amp;H87</f>
         <v>Moon 0</v>
       </c>
@@ -5067,9 +5070,9 @@
         <f aca="false">F87 &amp; G87</f>
         <v>☾0</v>
       </c>
-      <c r="L87" s="16" t="str">
+      <c r="L87" s="17" t="str">
         <f aca="false">VLOOKUP(G87,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,15 +5086,15 @@
         <f aca="false">VLOOKUP(B88,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D88" s="13" t="str">
+      <c r="D88" s="15" t="str">
         <f aca="false">VLOOKUP(B88,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E88" s="13" t="str">
+      <c r="E88" s="16" t="str">
         <f aca="false">"Planets\" &amp; D88 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F88" s="13" t="str">
+      <c r="F88" s="15" t="str">
         <f aca="false">VLOOKUP(B88,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5106,7 +5109,7 @@
         <f aca="false">VLOOKUP(G88,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J88" s="6" t="str">
+      <c r="J88" s="3" t="str">
         <f aca="false">D88&amp;" "&amp;H88</f>
         <v>Moon 1</v>
       </c>
@@ -5114,9 +5117,9 @@
         <f aca="false">F88 &amp; G88</f>
         <v>☾1</v>
       </c>
-      <c r="L88" s="16" t="str">
+      <c r="L88" s="17" t="str">
         <f aca="false">VLOOKUP(G88,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,15 +5133,15 @@
         <f aca="false">VLOOKUP(B89,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D89" s="13" t="str">
+      <c r="D89" s="15" t="str">
         <f aca="false">VLOOKUP(B89,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E89" s="13" t="str">
+      <c r="E89" s="16" t="str">
         <f aca="false">"Planets\" &amp; D89 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F89" s="13" t="str">
+      <c r="F89" s="15" t="str">
         <f aca="false">VLOOKUP(B89,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5153,7 +5156,7 @@
         <f aca="false">VLOOKUP(G89,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J89" s="6" t="str">
+      <c r="J89" s="3" t="str">
         <f aca="false">D89&amp;" "&amp;H89</f>
         <v>Moon 2</v>
       </c>
@@ -5161,9 +5164,9 @@
         <f aca="false">F89 &amp; G89</f>
         <v>☾2</v>
       </c>
-      <c r="L89" s="16" t="str">
+      <c r="L89" s="17" t="str">
         <f aca="false">VLOOKUP(G89,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,15 +5180,15 @@
         <f aca="false">VLOOKUP(B90,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D90" s="13" t="str">
+      <c r="D90" s="15" t="str">
         <f aca="false">VLOOKUP(B90,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E90" s="13" t="str">
+      <c r="E90" s="16" t="str">
         <f aca="false">"Planets\" &amp; D90 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F90" s="13" t="str">
+      <c r="F90" s="15" t="str">
         <f aca="false">VLOOKUP(B90,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5200,7 +5203,7 @@
         <f aca="false">VLOOKUP(G90,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J90" s="6" t="str">
+      <c r="J90" s="3" t="str">
         <f aca="false">D90&amp;" "&amp;H90</f>
         <v>Moon 3</v>
       </c>
@@ -5208,9 +5211,9 @@
         <f aca="false">F90 &amp; G90</f>
         <v>☾3</v>
       </c>
-      <c r="L90" s="16" t="str">
+      <c r="L90" s="17" t="str">
         <f aca="false">VLOOKUP(G90,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,15 +5227,15 @@
         <f aca="false">VLOOKUP(B91,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D91" s="13" t="str">
+      <c r="D91" s="15" t="str">
         <f aca="false">VLOOKUP(B91,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E91" s="13" t="str">
+      <c r="E91" s="16" t="str">
         <f aca="false">"Planets\" &amp; D91 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F91" s="13" t="str">
+      <c r="F91" s="15" t="str">
         <f aca="false">VLOOKUP(B91,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5247,7 +5250,7 @@
         <f aca="false">VLOOKUP(G91,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J91" s="6" t="str">
+      <c r="J91" s="3" t="str">
         <f aca="false">D91&amp;" "&amp;H91</f>
         <v>Moon 4</v>
       </c>
@@ -5255,9 +5258,9 @@
         <f aca="false">F91 &amp; G91</f>
         <v>☾4</v>
       </c>
-      <c r="L91" s="16" t="str">
+      <c r="L91" s="17" t="str">
         <f aca="false">VLOOKUP(G91,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,15 +5274,15 @@
         <f aca="false">VLOOKUP(B92,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D92" s="13" t="str">
+      <c r="D92" s="15" t="str">
         <f aca="false">VLOOKUP(B92,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E92" s="13" t="str">
+      <c r="E92" s="16" t="str">
         <f aca="false">"Planets\" &amp; D92 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F92" s="13" t="str">
+      <c r="F92" s="15" t="str">
         <f aca="false">VLOOKUP(B92,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5294,7 +5297,7 @@
         <f aca="false">VLOOKUP(G92,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J92" s="6" t="str">
+      <c r="J92" s="3" t="str">
         <f aca="false">D92&amp;" "&amp;H92</f>
         <v>Moon 5</v>
       </c>
@@ -5302,9 +5305,9 @@
         <f aca="false">F92 &amp; G92</f>
         <v>☾5</v>
       </c>
-      <c r="L92" s="16" t="str">
+      <c r="L92" s="17" t="str">
         <f aca="false">VLOOKUP(G92,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,15 +5321,15 @@
         <f aca="false">VLOOKUP(B93,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D93" s="13" t="str">
+      <c r="D93" s="15" t="str">
         <f aca="false">VLOOKUP(B93,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E93" s="13" t="str">
+      <c r="E93" s="16" t="str">
         <f aca="false">"Planets\" &amp; D93 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F93" s="13" t="str">
+      <c r="F93" s="15" t="str">
         <f aca="false">VLOOKUP(B93,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5341,7 +5344,7 @@
         <f aca="false">VLOOKUP(G93,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J93" s="6" t="str">
+      <c r="J93" s="3" t="str">
         <f aca="false">D93&amp;" "&amp;H93</f>
         <v>Moon 6</v>
       </c>
@@ -5349,9 +5352,9 @@
         <f aca="false">F93 &amp; G93</f>
         <v>☾6</v>
       </c>
-      <c r="L93" s="16" t="str">
+      <c r="L93" s="17" t="str">
         <f aca="false">VLOOKUP(G93,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,15 +5368,15 @@
         <f aca="false">VLOOKUP(B94,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D94" s="13" t="str">
+      <c r="D94" s="15" t="str">
         <f aca="false">VLOOKUP(B94,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E94" s="13" t="str">
+      <c r="E94" s="16" t="str">
         <f aca="false">"Planets\" &amp; D94 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F94" s="13" t="str">
+      <c r="F94" s="15" t="str">
         <f aca="false">VLOOKUP(B94,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5388,7 +5391,7 @@
         <f aca="false">VLOOKUP(G94,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J94" s="6" t="str">
+      <c r="J94" s="3" t="str">
         <f aca="false">D94&amp;" "&amp;H94</f>
         <v>Moon 7</v>
       </c>
@@ -5396,9 +5399,9 @@
         <f aca="false">F94 &amp; G94</f>
         <v>☾7</v>
       </c>
-      <c r="L94" s="16" t="str">
+      <c r="L94" s="17" t="str">
         <f aca="false">VLOOKUP(G94,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,15 +5415,15 @@
         <f aca="false">VLOOKUP(B95,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D95" s="13" t="str">
+      <c r="D95" s="15" t="str">
         <f aca="false">VLOOKUP(B95,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E95" s="13" t="str">
+      <c r="E95" s="16" t="str">
         <f aca="false">"Planets\" &amp; D95 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F95" s="13" t="str">
+      <c r="F95" s="15" t="str">
         <f aca="false">VLOOKUP(B95,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5435,7 +5438,7 @@
         <f aca="false">VLOOKUP(G95,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J95" s="6" t="str">
+      <c r="J95" s="3" t="str">
         <f aca="false">D95&amp;" "&amp;H95</f>
         <v>Moon 8</v>
       </c>
@@ -5443,9 +5446,9 @@
         <f aca="false">F95 &amp; G95</f>
         <v>☾8</v>
       </c>
-      <c r="L95" s="16" t="str">
+      <c r="L95" s="17" t="str">
         <f aca="false">VLOOKUP(G95,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,15 +5462,15 @@
         <f aca="false">VLOOKUP(B96,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D96" s="13" t="str">
+      <c r="D96" s="15" t="str">
         <f aca="false">VLOOKUP(B96,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E96" s="13" t="str">
+      <c r="E96" s="16" t="str">
         <f aca="false">"Planets\" &amp; D96 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F96" s="13" t="str">
+      <c r="F96" s="15" t="str">
         <f aca="false">VLOOKUP(B96,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5482,7 +5485,7 @@
         <f aca="false">VLOOKUP(G96,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J96" s="6" t="str">
+      <c r="J96" s="3" t="str">
         <f aca="false">D96&amp;" "&amp;H96</f>
         <v>Moon 9</v>
       </c>
@@ -5490,9 +5493,9 @@
         <f aca="false">F96 &amp; G96</f>
         <v>☾9</v>
       </c>
-      <c r="L96" s="16" t="str">
+      <c r="L96" s="17" t="str">
         <f aca="false">VLOOKUP(G96,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,15 +5509,15 @@
         <f aca="false">VLOOKUP(B97,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D97" s="13" t="str">
+      <c r="D97" s="15" t="str">
         <f aca="false">VLOOKUP(B97,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E97" s="13" t="str">
+      <c r="E97" s="16" t="str">
         <f aca="false">"Planets\" &amp; D97 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F97" s="13" t="str">
+      <c r="F97" s="15" t="str">
         <f aca="false">VLOOKUP(B97,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5529,7 +5532,7 @@
         <f aca="false">VLOOKUP(G97,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J97" s="6" t="str">
+      <c r="J97" s="3" t="str">
         <f aca="false">D97&amp;" "&amp;H97</f>
         <v>Moon +2</v>
       </c>
@@ -5537,7 +5540,7 @@
         <f aca="false">F97 &amp; G97</f>
         <v>☾+2</v>
       </c>
-      <c r="L97" s="16" t="str">
+      <c r="L97" s="17" t="str">
         <f aca="false">VLOOKUP(G97,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -5553,15 +5556,15 @@
         <f aca="false">VLOOKUP(B98,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D98" s="13" t="str">
+      <c r="D98" s="15" t="str">
         <f aca="false">VLOOKUP(B98,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E98" s="13" t="str">
+      <c r="E98" s="16" t="str">
         <f aca="false">"Planets\" &amp; D98 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F98" s="13" t="str">
+      <c r="F98" s="15" t="str">
         <f aca="false">VLOOKUP(B98,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5576,7 +5579,7 @@
         <f aca="false">VLOOKUP(G98,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J98" s="6" t="str">
+      <c r="J98" s="3" t="str">
         <f aca="false">D98&amp;" "&amp;H98</f>
         <v>Moon +3</v>
       </c>
@@ -5584,7 +5587,7 @@
         <f aca="false">F98 &amp; G98</f>
         <v>☾+3</v>
       </c>
-      <c r="L98" s="16" t="str">
+      <c r="L98" s="17" t="str">
         <f aca="false">VLOOKUP(G98,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -5600,15 +5603,15 @@
         <f aca="false">VLOOKUP(B99,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D99" s="13" t="str">
+      <c r="D99" s="15" t="str">
         <f aca="false">VLOOKUP(B99,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E99" s="13" t="str">
+      <c r="E99" s="16" t="str">
         <f aca="false">"Planets\" &amp; D99 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F99" s="13" t="str">
+      <c r="F99" s="15" t="str">
         <f aca="false">VLOOKUP(B99,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5623,7 +5626,7 @@
         <f aca="false">VLOOKUP(G99,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J99" s="6" t="str">
+      <c r="J99" s="3" t="str">
         <f aca="false">D99&amp;" "&amp;H99</f>
         <v>Moon Reversal</v>
       </c>
@@ -5631,7 +5634,7 @@
         <f aca="false">F99 &amp; G99</f>
         <v>☾🔄</v>
       </c>
-      <c r="L99" s="16" t="str">
+      <c r="L99" s="17" t="str">
         <f aca="false">VLOOKUP(G99,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -5647,15 +5650,15 @@
         <f aca="false">VLOOKUP(B100,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D100" s="13" t="str">
+      <c r="D100" s="15" t="str">
         <f aca="false">VLOOKUP(B100,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E100" s="13" t="str">
+      <c r="E100" s="16" t="str">
         <f aca="false">"Planets\" &amp; D100 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F100" s="13" t="str">
+      <c r="F100" s="15" t="str">
         <f aca="false">VLOOKUP(B100,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5670,7 +5673,7 @@
         <f aca="false">VLOOKUP(G100,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J100" s="6" t="str">
+      <c r="J100" s="3" t="str">
         <f aca="false">D100&amp;" "&amp;H100</f>
         <v>Moon Block</v>
       </c>
@@ -5678,7 +5681,7 @@
         <f aca="false">F100 &amp; G100</f>
         <v>☾🚫</v>
       </c>
-      <c r="L100" s="16" t="str">
+      <c r="L100" s="17" t="str">
         <f aca="false">VLOOKUP(G100,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -5694,15 +5697,15 @@
         <f aca="false">VLOOKUP(B101,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D101" s="13" t="str">
+      <c r="D101" s="15" t="str">
         <f aca="false">VLOOKUP(B101,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E101" s="13" t="str">
+      <c r="E101" s="16" t="str">
         <f aca="false">"Planets\" &amp; D101 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F101" s="13" t="str">
+      <c r="F101" s="15" t="str">
         <f aca="false">VLOOKUP(B101,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5717,7 +5720,7 @@
         <f aca="false">VLOOKUP(G101,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J101" s="6" t="str">
+      <c r="J101" s="3" t="str">
         <f aca="false">D101&amp;" "&amp;H101</f>
         <v>Moon Repeat</v>
       </c>
@@ -5725,7 +5728,7 @@
         <f aca="false">F101 &amp; G101</f>
         <v>☾🔂</v>
       </c>
-      <c r="L101" s="16" t="str">
+      <c r="L101" s="17" t="str">
         <f aca="false">VLOOKUP(G101,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -5741,15 +5744,15 @@
         <f aca="false">VLOOKUP(B102,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D102" s="13" t="str">
+      <c r="D102" s="15" t="str">
         <f aca="false">VLOOKUP(B102,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E102" s="13" t="str">
+      <c r="E102" s="16" t="str">
         <f aca="false">"Planets\" &amp; D102 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F102" s="13" t="str">
+      <c r="F102" s="15" t="str">
         <f aca="false">VLOOKUP(B102,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5764,7 +5767,7 @@
         <f aca="false">VLOOKUP(G102,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J102" s="6" t="str">
+      <c r="J102" s="3" t="str">
         <f aca="false">D102&amp;" "&amp;H102</f>
         <v>Moon Freeze</v>
       </c>
@@ -5772,7 +5775,7 @@
         <f aca="false">F102 &amp; G102</f>
         <v>☾❄️</v>
       </c>
-      <c r="L102" s="16" t="str">
+      <c r="L102" s="17" t="str">
         <f aca="false">VLOOKUP(G102,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -5788,15 +5791,15 @@
         <f aca="false">VLOOKUP(B103,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D103" s="13" t="str">
+      <c r="D103" s="15" t="str">
         <f aca="false">VLOOKUP(B103,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E103" s="13" t="str">
+      <c r="E103" s="16" t="str">
         <f aca="false">"Planets\" &amp; D103 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F103" s="13" t="str">
+      <c r="F103" s="15" t="str">
         <f aca="false">VLOOKUP(B103,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5811,7 +5814,7 @@
         <f aca="false">VLOOKUP(G103,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J103" s="6" t="str">
+      <c r="J103" s="3" t="str">
         <f aca="false">D103&amp;" "&amp;H103</f>
         <v>Moon Burn</v>
       </c>
@@ -5819,7 +5822,7 @@
         <f aca="false">F103 &amp; G103</f>
         <v>☾🔥</v>
       </c>
-      <c r="L103" s="16" t="str">
+      <c r="L103" s="17" t="str">
         <f aca="false">VLOOKUP(G103,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -5835,15 +5838,15 @@
         <f aca="false">VLOOKUP(B104,CARD_COLORS,3,0)</f>
         <v>#888888</v>
       </c>
-      <c r="D104" s="13" t="str">
+      <c r="D104" s="15" t="str">
         <f aca="false">VLOOKUP(B104,CARD_COLORS,2,0)</f>
         <v>Moon</v>
       </c>
-      <c r="E104" s="13" t="str">
+      <c r="E104" s="16" t="str">
         <f aca="false">"Planets\" &amp; D104 &amp; ".png"</f>
         <v>Planets\Moon.png</v>
       </c>
-      <c r="F104" s="13" t="str">
+      <c r="F104" s="15" t="str">
         <f aca="false">VLOOKUP(B104,CARD_COLORS,4,0)</f>
         <v>☾</v>
       </c>
@@ -5858,7 +5861,7 @@
         <f aca="false">VLOOKUP(G104,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J104" s="6" t="str">
+      <c r="J104" s="3" t="str">
         <f aca="false">D104&amp;" "&amp;H104</f>
         <v>Moon Focus</v>
       </c>
@@ -5866,7 +5869,7 @@
         <f aca="false">F104 &amp; G104</f>
         <v>☾🎯</v>
       </c>
-      <c r="L104" s="16" t="str">
+      <c r="L104" s="17" t="str">
         <f aca="false">VLOOKUP(G104,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -5882,15 +5885,15 @@
         <f aca="false">VLOOKUP(B105,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D105" s="13" t="str">
+      <c r="D105" s="15" t="str">
         <f aca="false">VLOOKUP(B105,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E105" s="13" t="str">
+      <c r="E105" s="16" t="str">
         <f aca="false">"Planets\" &amp; D105 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F105" s="13" t="str">
+      <c r="F105" s="15" t="str">
         <f aca="false">VLOOKUP(B105,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -5905,7 +5908,7 @@
         <f aca="false">VLOOKUP(G105,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J105" s="6" t="str">
+      <c r="J105" s="3" t="str">
         <f aca="false">D105&amp;" "&amp;H105</f>
         <v>Mars 0</v>
       </c>
@@ -5913,9 +5916,9 @@
         <f aca="false">F105 &amp; G105</f>
         <v>♂0</v>
       </c>
-      <c r="L105" s="16" t="str">
+      <c r="L105" s="17" t="str">
         <f aca="false">VLOOKUP(G105,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,15 +5932,15 @@
         <f aca="false">VLOOKUP(B106,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D106" s="13" t="str">
+      <c r="D106" s="15" t="str">
         <f aca="false">VLOOKUP(B106,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E106" s="13" t="str">
+      <c r="E106" s="16" t="str">
         <f aca="false">"Planets\" &amp; D106 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F106" s="13" t="str">
+      <c r="F106" s="15" t="str">
         <f aca="false">VLOOKUP(B106,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -5952,7 +5955,7 @@
         <f aca="false">VLOOKUP(G106,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J106" s="6" t="str">
+      <c r="J106" s="3" t="str">
         <f aca="false">D106&amp;" "&amp;H106</f>
         <v>Mars 1</v>
       </c>
@@ -5960,9 +5963,9 @@
         <f aca="false">F106 &amp; G106</f>
         <v>♂1</v>
       </c>
-      <c r="L106" s="16" t="str">
+      <c r="L106" s="17" t="str">
         <f aca="false">VLOOKUP(G106,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,15 +5979,15 @@
         <f aca="false">VLOOKUP(B107,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D107" s="13" t="str">
+      <c r="D107" s="15" t="str">
         <f aca="false">VLOOKUP(B107,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E107" s="13" t="str">
+      <c r="E107" s="16" t="str">
         <f aca="false">"Planets\" &amp; D107 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F107" s="13" t="str">
+      <c r="F107" s="15" t="str">
         <f aca="false">VLOOKUP(B107,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -5999,7 +6002,7 @@
         <f aca="false">VLOOKUP(G107,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J107" s="6" t="str">
+      <c r="J107" s="3" t="str">
         <f aca="false">D107&amp;" "&amp;H107</f>
         <v>Mars 2</v>
       </c>
@@ -6007,9 +6010,9 @@
         <f aca="false">F107 &amp; G107</f>
         <v>♂2</v>
       </c>
-      <c r="L107" s="16" t="str">
+      <c r="L107" s="17" t="str">
         <f aca="false">VLOOKUP(G107,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,15 +6026,15 @@
         <f aca="false">VLOOKUP(B108,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D108" s="13" t="str">
+      <c r="D108" s="15" t="str">
         <f aca="false">VLOOKUP(B108,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E108" s="13" t="str">
+      <c r="E108" s="16" t="str">
         <f aca="false">"Planets\" &amp; D108 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F108" s="13" t="str">
+      <c r="F108" s="15" t="str">
         <f aca="false">VLOOKUP(B108,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6046,7 +6049,7 @@
         <f aca="false">VLOOKUP(G108,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J108" s="6" t="str">
+      <c r="J108" s="3" t="str">
         <f aca="false">D108&amp;" "&amp;H108</f>
         <v>Mars 3</v>
       </c>
@@ -6054,9 +6057,9 @@
         <f aca="false">F108 &amp; G108</f>
         <v>♂3</v>
       </c>
-      <c r="L108" s="16" t="str">
+      <c r="L108" s="17" t="str">
         <f aca="false">VLOOKUP(G108,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6070,15 +6073,15 @@
         <f aca="false">VLOOKUP(B109,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D109" s="13" t="str">
+      <c r="D109" s="15" t="str">
         <f aca="false">VLOOKUP(B109,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E109" s="13" t="str">
+      <c r="E109" s="16" t="str">
         <f aca="false">"Planets\" &amp; D109 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F109" s="13" t="str">
+      <c r="F109" s="15" t="str">
         <f aca="false">VLOOKUP(B109,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6093,7 +6096,7 @@
         <f aca="false">VLOOKUP(G109,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J109" s="6" t="str">
+      <c r="J109" s="3" t="str">
         <f aca="false">D109&amp;" "&amp;H109</f>
         <v>Mars 4</v>
       </c>
@@ -6101,9 +6104,9 @@
         <f aca="false">F109 &amp; G109</f>
         <v>♂4</v>
       </c>
-      <c r="L109" s="16" t="str">
+      <c r="L109" s="17" t="str">
         <f aca="false">VLOOKUP(G109,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,15 +6120,15 @@
         <f aca="false">VLOOKUP(B110,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D110" s="13" t="str">
+      <c r="D110" s="15" t="str">
         <f aca="false">VLOOKUP(B110,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E110" s="13" t="str">
+      <c r="E110" s="16" t="str">
         <f aca="false">"Planets\" &amp; D110 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F110" s="13" t="str">
+      <c r="F110" s="15" t="str">
         <f aca="false">VLOOKUP(B110,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6140,7 +6143,7 @@
         <f aca="false">VLOOKUP(G110,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J110" s="6" t="str">
+      <c r="J110" s="3" t="str">
         <f aca="false">D110&amp;" "&amp;H110</f>
         <v>Mars 5</v>
       </c>
@@ -6148,9 +6151,9 @@
         <f aca="false">F110 &amp; G110</f>
         <v>♂5</v>
       </c>
-      <c r="L110" s="16" t="str">
+      <c r="L110" s="17" t="str">
         <f aca="false">VLOOKUP(G110,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,15 +6167,15 @@
         <f aca="false">VLOOKUP(B111,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D111" s="13" t="str">
+      <c r="D111" s="15" t="str">
         <f aca="false">VLOOKUP(B111,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E111" s="13" t="str">
+      <c r="E111" s="16" t="str">
         <f aca="false">"Planets\" &amp; D111 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F111" s="13" t="str">
+      <c r="F111" s="15" t="str">
         <f aca="false">VLOOKUP(B111,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6187,7 +6190,7 @@
         <f aca="false">VLOOKUP(G111,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J111" s="6" t="str">
+      <c r="J111" s="3" t="str">
         <f aca="false">D111&amp;" "&amp;H111</f>
         <v>Mars 6</v>
       </c>
@@ -6195,9 +6198,9 @@
         <f aca="false">F111 &amp; G111</f>
         <v>♂6</v>
       </c>
-      <c r="L111" s="16" t="str">
+      <c r="L111" s="17" t="str">
         <f aca="false">VLOOKUP(G111,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,15 +6214,15 @@
         <f aca="false">VLOOKUP(B112,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D112" s="13" t="str">
+      <c r="D112" s="15" t="str">
         <f aca="false">VLOOKUP(B112,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E112" s="13" t="str">
+      <c r="E112" s="16" t="str">
         <f aca="false">"Planets\" &amp; D112 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F112" s="13" t="str">
+      <c r="F112" s="15" t="str">
         <f aca="false">VLOOKUP(B112,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6234,7 +6237,7 @@
         <f aca="false">VLOOKUP(G112,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J112" s="6" t="str">
+      <c r="J112" s="3" t="str">
         <f aca="false">D112&amp;" "&amp;H112</f>
         <v>Mars 7</v>
       </c>
@@ -6242,9 +6245,9 @@
         <f aca="false">F112 &amp; G112</f>
         <v>♂7</v>
       </c>
-      <c r="L112" s="16" t="str">
+      <c r="L112" s="17" t="str">
         <f aca="false">VLOOKUP(G112,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,15 +6261,15 @@
         <f aca="false">VLOOKUP(B113,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D113" s="13" t="str">
+      <c r="D113" s="15" t="str">
         <f aca="false">VLOOKUP(B113,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E113" s="13" t="str">
+      <c r="E113" s="16" t="str">
         <f aca="false">"Planets\" &amp; D113 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F113" s="13" t="str">
+      <c r="F113" s="15" t="str">
         <f aca="false">VLOOKUP(B113,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6281,7 +6284,7 @@
         <f aca="false">VLOOKUP(G113,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J113" s="6" t="str">
+      <c r="J113" s="3" t="str">
         <f aca="false">D113&amp;" "&amp;H113</f>
         <v>Mars 8</v>
       </c>
@@ -6289,9 +6292,9 @@
         <f aca="false">F113 &amp; G113</f>
         <v>♂8</v>
       </c>
-      <c r="L113" s="16" t="str">
+      <c r="L113" s="17" t="str">
         <f aca="false">VLOOKUP(G113,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,15 +6308,15 @@
         <f aca="false">VLOOKUP(B114,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D114" s="13" t="str">
+      <c r="D114" s="15" t="str">
         <f aca="false">VLOOKUP(B114,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E114" s="13" t="str">
+      <c r="E114" s="16" t="str">
         <f aca="false">"Planets\" &amp; D114 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F114" s="13" t="str">
+      <c r="F114" s="15" t="str">
         <f aca="false">VLOOKUP(B114,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6328,7 +6331,7 @@
         <f aca="false">VLOOKUP(G114,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J114" s="6" t="str">
+      <c r="J114" s="3" t="str">
         <f aca="false">D114&amp;" "&amp;H114</f>
         <v>Mars 9</v>
       </c>
@@ -6336,9 +6339,9 @@
         <f aca="false">F114 &amp; G114</f>
         <v>♂9</v>
       </c>
-      <c r="L114" s="16" t="str">
+      <c r="L114" s="17" t="str">
         <f aca="false">VLOOKUP(G114,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,15 +6355,15 @@
         <f aca="false">VLOOKUP(B115,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D115" s="13" t="str">
+      <c r="D115" s="15" t="str">
         <f aca="false">VLOOKUP(B115,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E115" s="13" t="str">
+      <c r="E115" s="16" t="str">
         <f aca="false">"Planets\" &amp; D115 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F115" s="13" t="str">
+      <c r="F115" s="15" t="str">
         <f aca="false">VLOOKUP(B115,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6375,7 +6378,7 @@
         <f aca="false">VLOOKUP(G115,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J115" s="6" t="str">
+      <c r="J115" s="3" t="str">
         <f aca="false">D115&amp;" "&amp;H115</f>
         <v>Mars +2</v>
       </c>
@@ -6383,7 +6386,7 @@
         <f aca="false">F115 &amp; G115</f>
         <v>♂+2</v>
       </c>
-      <c r="L115" s="16" t="str">
+      <c r="L115" s="17" t="str">
         <f aca="false">VLOOKUP(G115,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -6399,15 +6402,15 @@
         <f aca="false">VLOOKUP(B116,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D116" s="13" t="str">
+      <c r="D116" s="15" t="str">
         <f aca="false">VLOOKUP(B116,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E116" s="13" t="str">
+      <c r="E116" s="16" t="str">
         <f aca="false">"Planets\" &amp; D116 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F116" s="13" t="str">
+      <c r="F116" s="15" t="str">
         <f aca="false">VLOOKUP(B116,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6422,7 +6425,7 @@
         <f aca="false">VLOOKUP(G116,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J116" s="6" t="str">
+      <c r="J116" s="3" t="str">
         <f aca="false">D116&amp;" "&amp;H116</f>
         <v>Mars +3</v>
       </c>
@@ -6430,7 +6433,7 @@
         <f aca="false">F116 &amp; G116</f>
         <v>♂+3</v>
       </c>
-      <c r="L116" s="16" t="str">
+      <c r="L116" s="17" t="str">
         <f aca="false">VLOOKUP(G116,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -6446,15 +6449,15 @@
         <f aca="false">VLOOKUP(B117,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D117" s="13" t="str">
+      <c r="D117" s="15" t="str">
         <f aca="false">VLOOKUP(B117,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E117" s="13" t="str">
+      <c r="E117" s="16" t="str">
         <f aca="false">"Planets\" &amp; D117 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F117" s="13" t="str">
+      <c r="F117" s="15" t="str">
         <f aca="false">VLOOKUP(B117,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6469,7 +6472,7 @@
         <f aca="false">VLOOKUP(G117,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J117" s="6" t="str">
+      <c r="J117" s="3" t="str">
         <f aca="false">D117&amp;" "&amp;H117</f>
         <v>Mars Reversal</v>
       </c>
@@ -6477,7 +6480,7 @@
         <f aca="false">F117 &amp; G117</f>
         <v>♂🔄</v>
       </c>
-      <c r="L117" s="16" t="str">
+      <c r="L117" s="17" t="str">
         <f aca="false">VLOOKUP(G117,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -6493,15 +6496,15 @@
         <f aca="false">VLOOKUP(B118,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D118" s="13" t="str">
+      <c r="D118" s="15" t="str">
         <f aca="false">VLOOKUP(B118,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E118" s="13" t="str">
+      <c r="E118" s="16" t="str">
         <f aca="false">"Planets\" &amp; D118 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F118" s="13" t="str">
+      <c r="F118" s="15" t="str">
         <f aca="false">VLOOKUP(B118,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6516,7 +6519,7 @@
         <f aca="false">VLOOKUP(G118,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J118" s="6" t="str">
+      <c r="J118" s="3" t="str">
         <f aca="false">D118&amp;" "&amp;H118</f>
         <v>Mars Block</v>
       </c>
@@ -6524,7 +6527,7 @@
         <f aca="false">F118 &amp; G118</f>
         <v>♂🚫</v>
       </c>
-      <c r="L118" s="16" t="str">
+      <c r="L118" s="17" t="str">
         <f aca="false">VLOOKUP(G118,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -6540,15 +6543,15 @@
         <f aca="false">VLOOKUP(B119,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D119" s="13" t="str">
+      <c r="D119" s="15" t="str">
         <f aca="false">VLOOKUP(B119,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E119" s="13" t="str">
+      <c r="E119" s="16" t="str">
         <f aca="false">"Planets\" &amp; D119 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F119" s="13" t="str">
+      <c r="F119" s="15" t="str">
         <f aca="false">VLOOKUP(B119,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6563,7 +6566,7 @@
         <f aca="false">VLOOKUP(G119,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J119" s="6" t="str">
+      <c r="J119" s="3" t="str">
         <f aca="false">D119&amp;" "&amp;H119</f>
         <v>Mars Repeat</v>
       </c>
@@ -6571,7 +6574,7 @@
         <f aca="false">F119 &amp; G119</f>
         <v>♂🔂</v>
       </c>
-      <c r="L119" s="16" t="str">
+      <c r="L119" s="17" t="str">
         <f aca="false">VLOOKUP(G119,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -6587,15 +6590,15 @@
         <f aca="false">VLOOKUP(B120,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D120" s="13" t="str">
+      <c r="D120" s="15" t="str">
         <f aca="false">VLOOKUP(B120,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E120" s="13" t="str">
+      <c r="E120" s="16" t="str">
         <f aca="false">"Planets\" &amp; D120 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F120" s="13" t="str">
+      <c r="F120" s="15" t="str">
         <f aca="false">VLOOKUP(B120,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6610,7 +6613,7 @@
         <f aca="false">VLOOKUP(G120,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J120" s="6" t="str">
+      <c r="J120" s="3" t="str">
         <f aca="false">D120&amp;" "&amp;H120</f>
         <v>Mars Freeze</v>
       </c>
@@ -6618,7 +6621,7 @@
         <f aca="false">F120 &amp; G120</f>
         <v>♂❄️</v>
       </c>
-      <c r="L120" s="16" t="str">
+      <c r="L120" s="17" t="str">
         <f aca="false">VLOOKUP(G120,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -6634,15 +6637,15 @@
         <f aca="false">VLOOKUP(B121,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D121" s="13" t="str">
+      <c r="D121" s="15" t="str">
         <f aca="false">VLOOKUP(B121,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E121" s="13" t="str">
+      <c r="E121" s="16" t="str">
         <f aca="false">"Planets\" &amp; D121 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F121" s="13" t="str">
+      <c r="F121" s="15" t="str">
         <f aca="false">VLOOKUP(B121,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6657,7 +6660,7 @@
         <f aca="false">VLOOKUP(G121,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J121" s="6" t="str">
+      <c r="J121" s="3" t="str">
         <f aca="false">D121&amp;" "&amp;H121</f>
         <v>Mars Burn</v>
       </c>
@@ -6665,7 +6668,7 @@
         <f aca="false">F121 &amp; G121</f>
         <v>♂🔥</v>
       </c>
-      <c r="L121" s="16" t="str">
+      <c r="L121" s="17" t="str">
         <f aca="false">VLOOKUP(G121,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -6681,15 +6684,15 @@
         <f aca="false">VLOOKUP(B122,CARD_COLORS,3,0)</f>
         <v>#880000</v>
       </c>
-      <c r="D122" s="13" t="str">
+      <c r="D122" s="15" t="str">
         <f aca="false">VLOOKUP(B122,CARD_COLORS,2,0)</f>
         <v>Mars</v>
       </c>
-      <c r="E122" s="13" t="str">
+      <c r="E122" s="16" t="str">
         <f aca="false">"Planets\" &amp; D122 &amp; ".png"</f>
         <v>Planets\Mars.png</v>
       </c>
-      <c r="F122" s="13" t="str">
+      <c r="F122" s="15" t="str">
         <f aca="false">VLOOKUP(B122,CARD_COLORS,4,0)</f>
         <v>♂</v>
       </c>
@@ -6704,7 +6707,7 @@
         <f aca="false">VLOOKUP(G122,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J122" s="6" t="str">
+      <c r="J122" s="3" t="str">
         <f aca="false">D122&amp;" "&amp;H122</f>
         <v>Mars Focus</v>
       </c>
@@ -6712,7 +6715,7 @@
         <f aca="false">F122 &amp; G122</f>
         <v>♂🎯</v>
       </c>
-      <c r="L122" s="16" t="str">
+      <c r="L122" s="17" t="str">
         <f aca="false">VLOOKUP(G122,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -6728,15 +6731,15 @@
         <f aca="false">VLOOKUP(B123,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D123" s="13" t="str">
+      <c r="D123" s="15" t="str">
         <f aca="false">VLOOKUP(B123,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E123" s="13" t="str">
+      <c r="E123" s="16" t="str">
         <f aca="false">"Planets\" &amp; D123 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F123" s="13" t="str">
+      <c r="F123" s="15" t="str">
         <f aca="false">VLOOKUP(B123,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -6751,7 +6754,7 @@
         <f aca="false">VLOOKUP(G123,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J123" s="6" t="str">
+      <c r="J123" s="3" t="str">
         <f aca="false">D123&amp;" "&amp;H123</f>
         <v>Jupiter 0</v>
       </c>
@@ -6759,9 +6762,9 @@
         <f aca="false">F123 &amp; G123</f>
         <v>♃0</v>
       </c>
-      <c r="L123" s="16" t="str">
+      <c r="L123" s="17" t="str">
         <f aca="false">VLOOKUP(G123,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,15 +6778,15 @@
         <f aca="false">VLOOKUP(B124,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D124" s="13" t="str">
+      <c r="D124" s="15" t="str">
         <f aca="false">VLOOKUP(B124,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E124" s="13" t="str">
+      <c r="E124" s="16" t="str">
         <f aca="false">"Planets\" &amp; D124 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F124" s="13" t="str">
+      <c r="F124" s="15" t="str">
         <f aca="false">VLOOKUP(B124,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -6798,7 +6801,7 @@
         <f aca="false">VLOOKUP(G124,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J124" s="6" t="str">
+      <c r="J124" s="3" t="str">
         <f aca="false">D124&amp;" "&amp;H124</f>
         <v>Jupiter 1</v>
       </c>
@@ -6806,9 +6809,9 @@
         <f aca="false">F124 &amp; G124</f>
         <v>♃1</v>
       </c>
-      <c r="L124" s="16" t="str">
+      <c r="L124" s="17" t="str">
         <f aca="false">VLOOKUP(G124,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,15 +6825,15 @@
         <f aca="false">VLOOKUP(B125,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D125" s="13" t="str">
+      <c r="D125" s="15" t="str">
         <f aca="false">VLOOKUP(B125,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E125" s="13" t="str">
+      <c r="E125" s="16" t="str">
         <f aca="false">"Planets\" &amp; D125 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F125" s="13" t="str">
+      <c r="F125" s="15" t="str">
         <f aca="false">VLOOKUP(B125,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -6845,7 +6848,7 @@
         <f aca="false">VLOOKUP(G125,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J125" s="6" t="str">
+      <c r="J125" s="3" t="str">
         <f aca="false">D125&amp;" "&amp;H125</f>
         <v>Jupiter 2</v>
       </c>
@@ -6853,9 +6856,9 @@
         <f aca="false">F125 &amp; G125</f>
         <v>♃2</v>
       </c>
-      <c r="L125" s="16" t="str">
+      <c r="L125" s="17" t="str">
         <f aca="false">VLOOKUP(G125,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,15 +6872,15 @@
         <f aca="false">VLOOKUP(B126,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D126" s="13" t="str">
+      <c r="D126" s="15" t="str">
         <f aca="false">VLOOKUP(B126,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E126" s="13" t="str">
+      <c r="E126" s="16" t="str">
         <f aca="false">"Planets\" &amp; D126 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F126" s="13" t="str">
+      <c r="F126" s="15" t="str">
         <f aca="false">VLOOKUP(B126,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -6892,7 +6895,7 @@
         <f aca="false">VLOOKUP(G126,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J126" s="6" t="str">
+      <c r="J126" s="3" t="str">
         <f aca="false">D126&amp;" "&amp;H126</f>
         <v>Jupiter 3</v>
       </c>
@@ -6900,9 +6903,9 @@
         <f aca="false">F126 &amp; G126</f>
         <v>♃3</v>
       </c>
-      <c r="L126" s="16" t="str">
+      <c r="L126" s="17" t="str">
         <f aca="false">VLOOKUP(G126,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,15 +6919,15 @@
         <f aca="false">VLOOKUP(B127,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D127" s="13" t="str">
+      <c r="D127" s="15" t="str">
         <f aca="false">VLOOKUP(B127,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E127" s="13" t="str">
+      <c r="E127" s="16" t="str">
         <f aca="false">"Planets\" &amp; D127 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F127" s="13" t="str">
+      <c r="F127" s="15" t="str">
         <f aca="false">VLOOKUP(B127,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -6939,7 +6942,7 @@
         <f aca="false">VLOOKUP(G127,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J127" s="6" t="str">
+      <c r="J127" s="3" t="str">
         <f aca="false">D127&amp;" "&amp;H127</f>
         <v>Jupiter 4</v>
       </c>
@@ -6947,9 +6950,9 @@
         <f aca="false">F127 &amp; G127</f>
         <v>♃4</v>
       </c>
-      <c r="L127" s="16" t="str">
+      <c r="L127" s="17" t="str">
         <f aca="false">VLOOKUP(G127,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,15 +6966,15 @@
         <f aca="false">VLOOKUP(B128,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D128" s="13" t="str">
+      <c r="D128" s="15" t="str">
         <f aca="false">VLOOKUP(B128,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E128" s="13" t="str">
+      <c r="E128" s="16" t="str">
         <f aca="false">"Planets\" &amp; D128 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F128" s="13" t="str">
+      <c r="F128" s="15" t="str">
         <f aca="false">VLOOKUP(B128,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -6986,7 +6989,7 @@
         <f aca="false">VLOOKUP(G128,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J128" s="6" t="str">
+      <c r="J128" s="3" t="str">
         <f aca="false">D128&amp;" "&amp;H128</f>
         <v>Jupiter 5</v>
       </c>
@@ -6994,9 +6997,9 @@
         <f aca="false">F128 &amp; G128</f>
         <v>♃5</v>
       </c>
-      <c r="L128" s="16" t="str">
+      <c r="L128" s="17" t="str">
         <f aca="false">VLOOKUP(G128,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,15 +7013,15 @@
         <f aca="false">VLOOKUP(B129,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D129" s="13" t="str">
+      <c r="D129" s="15" t="str">
         <f aca="false">VLOOKUP(B129,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E129" s="13" t="str">
+      <c r="E129" s="16" t="str">
         <f aca="false">"Planets\" &amp; D129 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F129" s="13" t="str">
+      <c r="F129" s="15" t="str">
         <f aca="false">VLOOKUP(B129,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7033,7 +7036,7 @@
         <f aca="false">VLOOKUP(G129,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J129" s="6" t="str">
+      <c r="J129" s="3" t="str">
         <f aca="false">D129&amp;" "&amp;H129</f>
         <v>Jupiter 6</v>
       </c>
@@ -7041,9 +7044,9 @@
         <f aca="false">F129 &amp; G129</f>
         <v>♃6</v>
       </c>
-      <c r="L129" s="16" t="str">
+      <c r="L129" s="17" t="str">
         <f aca="false">VLOOKUP(G129,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,15 +7060,15 @@
         <f aca="false">VLOOKUP(B130,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D130" s="13" t="str">
+      <c r="D130" s="15" t="str">
         <f aca="false">VLOOKUP(B130,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E130" s="13" t="str">
+      <c r="E130" s="16" t="str">
         <f aca="false">"Planets\" &amp; D130 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F130" s="13" t="str">
+      <c r="F130" s="15" t="str">
         <f aca="false">VLOOKUP(B130,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7080,7 +7083,7 @@
         <f aca="false">VLOOKUP(G130,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J130" s="6" t="str">
+      <c r="J130" s="3" t="str">
         <f aca="false">D130&amp;" "&amp;H130</f>
         <v>Jupiter 7</v>
       </c>
@@ -7088,9 +7091,9 @@
         <f aca="false">F130 &amp; G130</f>
         <v>♃7</v>
       </c>
-      <c r="L130" s="16" t="str">
+      <c r="L130" s="17" t="str">
         <f aca="false">VLOOKUP(G130,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,15 +7107,15 @@
         <f aca="false">VLOOKUP(B131,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D131" s="13" t="str">
+      <c r="D131" s="15" t="str">
         <f aca="false">VLOOKUP(B131,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E131" s="13" t="str">
+      <c r="E131" s="16" t="str">
         <f aca="false">"Planets\" &amp; D131 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F131" s="13" t="str">
+      <c r="F131" s="15" t="str">
         <f aca="false">VLOOKUP(B131,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7127,7 +7130,7 @@
         <f aca="false">VLOOKUP(G131,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J131" s="6" t="str">
+      <c r="J131" s="3" t="str">
         <f aca="false">D131&amp;" "&amp;H131</f>
         <v>Jupiter 8</v>
       </c>
@@ -7135,9 +7138,9 @@
         <f aca="false">F131 &amp; G131</f>
         <v>♃8</v>
       </c>
-      <c r="L131" s="16" t="str">
+      <c r="L131" s="17" t="str">
         <f aca="false">VLOOKUP(G131,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,15 +7154,15 @@
         <f aca="false">VLOOKUP(B132,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D132" s="13" t="str">
+      <c r="D132" s="15" t="str">
         <f aca="false">VLOOKUP(B132,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E132" s="13" t="str">
+      <c r="E132" s="16" t="str">
         <f aca="false">"Planets\" &amp; D132 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F132" s="13" t="str">
+      <c r="F132" s="15" t="str">
         <f aca="false">VLOOKUP(B132,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7174,7 +7177,7 @@
         <f aca="false">VLOOKUP(G132,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J132" s="6" t="str">
+      <c r="J132" s="3" t="str">
         <f aca="false">D132&amp;" "&amp;H132</f>
         <v>Jupiter 9</v>
       </c>
@@ -7182,9 +7185,9 @@
         <f aca="false">F132 &amp; G132</f>
         <v>♃9</v>
       </c>
-      <c r="L132" s="16" t="str">
+      <c r="L132" s="17" t="str">
         <f aca="false">VLOOKUP(G132,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7198,15 +7201,15 @@
         <f aca="false">VLOOKUP(B133,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D133" s="13" t="str">
+      <c r="D133" s="15" t="str">
         <f aca="false">VLOOKUP(B133,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E133" s="13" t="str">
+      <c r="E133" s="16" t="str">
         <f aca="false">"Planets\" &amp; D133 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F133" s="13" t="str">
+      <c r="F133" s="15" t="str">
         <f aca="false">VLOOKUP(B133,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7221,7 +7224,7 @@
         <f aca="false">VLOOKUP(G133,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J133" s="6" t="str">
+      <c r="J133" s="3" t="str">
         <f aca="false">D133&amp;" "&amp;H133</f>
         <v>Jupiter +2</v>
       </c>
@@ -7229,7 +7232,7 @@
         <f aca="false">F133 &amp; G133</f>
         <v>♃+2</v>
       </c>
-      <c r="L133" s="16" t="str">
+      <c r="L133" s="17" t="str">
         <f aca="false">VLOOKUP(G133,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -7245,15 +7248,15 @@
         <f aca="false">VLOOKUP(B134,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D134" s="13" t="str">
+      <c r="D134" s="15" t="str">
         <f aca="false">VLOOKUP(B134,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E134" s="13" t="str">
+      <c r="E134" s="16" t="str">
         <f aca="false">"Planets\" &amp; D134 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F134" s="13" t="str">
+      <c r="F134" s="15" t="str">
         <f aca="false">VLOOKUP(B134,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7268,7 +7271,7 @@
         <f aca="false">VLOOKUP(G134,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J134" s="6" t="str">
+      <c r="J134" s="3" t="str">
         <f aca="false">D134&amp;" "&amp;H134</f>
         <v>Jupiter +3</v>
       </c>
@@ -7276,7 +7279,7 @@
         <f aca="false">F134 &amp; G134</f>
         <v>♃+3</v>
       </c>
-      <c r="L134" s="16" t="str">
+      <c r="L134" s="17" t="str">
         <f aca="false">VLOOKUP(G134,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -7292,15 +7295,15 @@
         <f aca="false">VLOOKUP(B135,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D135" s="13" t="str">
+      <c r="D135" s="15" t="str">
         <f aca="false">VLOOKUP(B135,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E135" s="13" t="str">
+      <c r="E135" s="16" t="str">
         <f aca="false">"Planets\" &amp; D135 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F135" s="13" t="str">
+      <c r="F135" s="15" t="str">
         <f aca="false">VLOOKUP(B135,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7315,7 +7318,7 @@
         <f aca="false">VLOOKUP(G135,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J135" s="6" t="str">
+      <c r="J135" s="3" t="str">
         <f aca="false">D135&amp;" "&amp;H135</f>
         <v>Jupiter Reversal</v>
       </c>
@@ -7323,7 +7326,7 @@
         <f aca="false">F135 &amp; G135</f>
         <v>♃🔄</v>
       </c>
-      <c r="L135" s="16" t="str">
+      <c r="L135" s="17" t="str">
         <f aca="false">VLOOKUP(G135,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -7339,15 +7342,15 @@
         <f aca="false">VLOOKUP(B136,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D136" s="13" t="str">
+      <c r="D136" s="15" t="str">
         <f aca="false">VLOOKUP(B136,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E136" s="13" t="str">
+      <c r="E136" s="16" t="str">
         <f aca="false">"Planets\" &amp; D136 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F136" s="13" t="str">
+      <c r="F136" s="15" t="str">
         <f aca="false">VLOOKUP(B136,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7362,7 +7365,7 @@
         <f aca="false">VLOOKUP(G136,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J136" s="6" t="str">
+      <c r="J136" s="3" t="str">
         <f aca="false">D136&amp;" "&amp;H136</f>
         <v>Jupiter Block</v>
       </c>
@@ -7370,7 +7373,7 @@
         <f aca="false">F136 &amp; G136</f>
         <v>♃🚫</v>
       </c>
-      <c r="L136" s="16" t="str">
+      <c r="L136" s="17" t="str">
         <f aca="false">VLOOKUP(G136,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -7386,15 +7389,15 @@
         <f aca="false">VLOOKUP(B137,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D137" s="13" t="str">
+      <c r="D137" s="15" t="str">
         <f aca="false">VLOOKUP(B137,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E137" s="13" t="str">
+      <c r="E137" s="16" t="str">
         <f aca="false">"Planets\" &amp; D137 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F137" s="13" t="str">
+      <c r="F137" s="15" t="str">
         <f aca="false">VLOOKUP(B137,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7409,7 +7412,7 @@
         <f aca="false">VLOOKUP(G137,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J137" s="6" t="str">
+      <c r="J137" s="3" t="str">
         <f aca="false">D137&amp;" "&amp;H137</f>
         <v>Jupiter Repeat</v>
       </c>
@@ -7417,7 +7420,7 @@
         <f aca="false">F137 &amp; G137</f>
         <v>♃🔂</v>
       </c>
-      <c r="L137" s="16" t="str">
+      <c r="L137" s="17" t="str">
         <f aca="false">VLOOKUP(G137,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -7433,15 +7436,15 @@
         <f aca="false">VLOOKUP(B138,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D138" s="13" t="str">
+      <c r="D138" s="15" t="str">
         <f aca="false">VLOOKUP(B138,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E138" s="13" t="str">
+      <c r="E138" s="16" t="str">
         <f aca="false">"Planets\" &amp; D138 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F138" s="13" t="str">
+      <c r="F138" s="15" t="str">
         <f aca="false">VLOOKUP(B138,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7456,7 +7459,7 @@
         <f aca="false">VLOOKUP(G138,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J138" s="6" t="str">
+      <c r="J138" s="3" t="str">
         <f aca="false">D138&amp;" "&amp;H138</f>
         <v>Jupiter Freeze</v>
       </c>
@@ -7464,7 +7467,7 @@
         <f aca="false">F138 &amp; G138</f>
         <v>♃❄️</v>
       </c>
-      <c r="L138" s="16" t="str">
+      <c r="L138" s="17" t="str">
         <f aca="false">VLOOKUP(G138,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -7480,15 +7483,15 @@
         <f aca="false">VLOOKUP(B139,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D139" s="13" t="str">
+      <c r="D139" s="15" t="str">
         <f aca="false">VLOOKUP(B139,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E139" s="13" t="str">
+      <c r="E139" s="16" t="str">
         <f aca="false">"Planets\" &amp; D139 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F139" s="13" t="str">
+      <c r="F139" s="15" t="str">
         <f aca="false">VLOOKUP(B139,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7503,7 +7506,7 @@
         <f aca="false">VLOOKUP(G139,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J139" s="6" t="str">
+      <c r="J139" s="3" t="str">
         <f aca="false">D139&amp;" "&amp;H139</f>
         <v>Jupiter Burn</v>
       </c>
@@ -7511,7 +7514,7 @@
         <f aca="false">F139 &amp; G139</f>
         <v>♃🔥</v>
       </c>
-      <c r="L139" s="16" t="str">
+      <c r="L139" s="17" t="str">
         <f aca="false">VLOOKUP(G139,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -7527,15 +7530,15 @@
         <f aca="false">VLOOKUP(B140,CARD_COLORS,3,0)</f>
         <v>#FF8800</v>
       </c>
-      <c r="D140" s="13" t="str">
+      <c r="D140" s="15" t="str">
         <f aca="false">VLOOKUP(B140,CARD_COLORS,2,0)</f>
         <v>Jupiter</v>
       </c>
-      <c r="E140" s="13" t="str">
+      <c r="E140" s="16" t="str">
         <f aca="false">"Planets\" &amp; D140 &amp; ".png"</f>
         <v>Planets\Jupiter.png</v>
       </c>
-      <c r="F140" s="13" t="str">
+      <c r="F140" s="15" t="str">
         <f aca="false">VLOOKUP(B140,CARD_COLORS,4,0)</f>
         <v>♃</v>
       </c>
@@ -7550,7 +7553,7 @@
         <f aca="false">VLOOKUP(G140,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J140" s="6" t="str">
+      <c r="J140" s="3" t="str">
         <f aca="false">D140&amp;" "&amp;H140</f>
         <v>Jupiter Focus</v>
       </c>
@@ -7558,7 +7561,7 @@
         <f aca="false">F140 &amp; G140</f>
         <v>♃🎯</v>
       </c>
-      <c r="L140" s="16" t="str">
+      <c r="L140" s="17" t="str">
         <f aca="false">VLOOKUP(G140,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -7574,15 +7577,15 @@
         <f aca="false">VLOOKUP(B141,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D141" s="13" t="str">
+      <c r="D141" s="15" t="str">
         <f aca="false">VLOOKUP(B141,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E141" s="13" t="str">
+      <c r="E141" s="16" t="str">
         <f aca="false">"Planets\" &amp; D141 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F141" s="13" t="str">
+      <c r="F141" s="15" t="str">
         <f aca="false">VLOOKUP(B141,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7597,7 +7600,7 @@
         <f aca="false">VLOOKUP(G141,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J141" s="6" t="str">
+      <c r="J141" s="3" t="str">
         <f aca="false">D141&amp;" "&amp;H141</f>
         <v>Mercury 0</v>
       </c>
@@ -7605,9 +7608,9 @@
         <f aca="false">F141 &amp; G141</f>
         <v>☿0</v>
       </c>
-      <c r="L141" s="16" t="str">
+      <c r="L141" s="17" t="str">
         <f aca="false">VLOOKUP(G141,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7621,15 +7624,15 @@
         <f aca="false">VLOOKUP(B142,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D142" s="13" t="str">
+      <c r="D142" s="15" t="str">
         <f aca="false">VLOOKUP(B142,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E142" s="13" t="str">
+      <c r="E142" s="16" t="str">
         <f aca="false">"Planets\" &amp; D142 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F142" s="13" t="str">
+      <c r="F142" s="15" t="str">
         <f aca="false">VLOOKUP(B142,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7644,7 +7647,7 @@
         <f aca="false">VLOOKUP(G142,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J142" s="6" t="str">
+      <c r="J142" s="3" t="str">
         <f aca="false">D142&amp;" "&amp;H142</f>
         <v>Mercury 1</v>
       </c>
@@ -7652,9 +7655,9 @@
         <f aca="false">F142 &amp; G142</f>
         <v>☿1</v>
       </c>
-      <c r="L142" s="16" t="str">
+      <c r="L142" s="17" t="str">
         <f aca="false">VLOOKUP(G142,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7668,15 +7671,15 @@
         <f aca="false">VLOOKUP(B143,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D143" s="13" t="str">
+      <c r="D143" s="15" t="str">
         <f aca="false">VLOOKUP(B143,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E143" s="13" t="str">
+      <c r="E143" s="16" t="str">
         <f aca="false">"Planets\" &amp; D143 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F143" s="13" t="str">
+      <c r="F143" s="15" t="str">
         <f aca="false">VLOOKUP(B143,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7691,7 +7694,7 @@
         <f aca="false">VLOOKUP(G143,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J143" s="6" t="str">
+      <c r="J143" s="3" t="str">
         <f aca="false">D143&amp;" "&amp;H143</f>
         <v>Mercury 2</v>
       </c>
@@ -7699,9 +7702,9 @@
         <f aca="false">F143 &amp; G143</f>
         <v>☿2</v>
       </c>
-      <c r="L143" s="16" t="str">
+      <c r="L143" s="17" t="str">
         <f aca="false">VLOOKUP(G143,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,15 +7718,15 @@
         <f aca="false">VLOOKUP(B144,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D144" s="13" t="str">
+      <c r="D144" s="15" t="str">
         <f aca="false">VLOOKUP(B144,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E144" s="13" t="str">
+      <c r="E144" s="16" t="str">
         <f aca="false">"Planets\" &amp; D144 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F144" s="13" t="str">
+      <c r="F144" s="15" t="str">
         <f aca="false">VLOOKUP(B144,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7738,7 +7741,7 @@
         <f aca="false">VLOOKUP(G144,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J144" s="6" t="str">
+      <c r="J144" s="3" t="str">
         <f aca="false">D144&amp;" "&amp;H144</f>
         <v>Mercury 3</v>
       </c>
@@ -7746,9 +7749,9 @@
         <f aca="false">F144 &amp; G144</f>
         <v>☿3</v>
       </c>
-      <c r="L144" s="16" t="str">
+      <c r="L144" s="17" t="str">
         <f aca="false">VLOOKUP(G144,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,15 +7765,15 @@
         <f aca="false">VLOOKUP(B145,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D145" s="13" t="str">
+      <c r="D145" s="15" t="str">
         <f aca="false">VLOOKUP(B145,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E145" s="13" t="str">
+      <c r="E145" s="16" t="str">
         <f aca="false">"Planets\" &amp; D145 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F145" s="13" t="str">
+      <c r="F145" s="15" t="str">
         <f aca="false">VLOOKUP(B145,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7785,7 +7788,7 @@
         <f aca="false">VLOOKUP(G145,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J145" s="6" t="str">
+      <c r="J145" s="3" t="str">
         <f aca="false">D145&amp;" "&amp;H145</f>
         <v>Mercury 4</v>
       </c>
@@ -7793,9 +7796,9 @@
         <f aca="false">F145 &amp; G145</f>
         <v>☿4</v>
       </c>
-      <c r="L145" s="16" t="str">
+      <c r="L145" s="17" t="str">
         <f aca="false">VLOOKUP(G145,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7809,15 +7812,15 @@
         <f aca="false">VLOOKUP(B146,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D146" s="13" t="str">
+      <c r="D146" s="15" t="str">
         <f aca="false">VLOOKUP(B146,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E146" s="13" t="str">
+      <c r="E146" s="16" t="str">
         <f aca="false">"Planets\" &amp; D146 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F146" s="13" t="str">
+      <c r="F146" s="15" t="str">
         <f aca="false">VLOOKUP(B146,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7832,7 +7835,7 @@
         <f aca="false">VLOOKUP(G146,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J146" s="6" t="str">
+      <c r="J146" s="3" t="str">
         <f aca="false">D146&amp;" "&amp;H146</f>
         <v>Mercury 5</v>
       </c>
@@ -7840,9 +7843,9 @@
         <f aca="false">F146 &amp; G146</f>
         <v>☿5</v>
       </c>
-      <c r="L146" s="16" t="str">
+      <c r="L146" s="17" t="str">
         <f aca="false">VLOOKUP(G146,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7856,15 +7859,15 @@
         <f aca="false">VLOOKUP(B147,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D147" s="13" t="str">
+      <c r="D147" s="15" t="str">
         <f aca="false">VLOOKUP(B147,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E147" s="13" t="str">
+      <c r="E147" s="16" t="str">
         <f aca="false">"Planets\" &amp; D147 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F147" s="13" t="str">
+      <c r="F147" s="15" t="str">
         <f aca="false">VLOOKUP(B147,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7879,7 +7882,7 @@
         <f aca="false">VLOOKUP(G147,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J147" s="6" t="str">
+      <c r="J147" s="3" t="str">
         <f aca="false">D147&amp;" "&amp;H147</f>
         <v>Mercury 6</v>
       </c>
@@ -7887,9 +7890,9 @@
         <f aca="false">F147 &amp; G147</f>
         <v>☿6</v>
       </c>
-      <c r="L147" s="16" t="str">
+      <c r="L147" s="17" t="str">
         <f aca="false">VLOOKUP(G147,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7903,15 +7906,15 @@
         <f aca="false">VLOOKUP(B148,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D148" s="13" t="str">
+      <c r="D148" s="15" t="str">
         <f aca="false">VLOOKUP(B148,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E148" s="13" t="str">
+      <c r="E148" s="16" t="str">
         <f aca="false">"Planets\" &amp; D148 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F148" s="13" t="str">
+      <c r="F148" s="15" t="str">
         <f aca="false">VLOOKUP(B148,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7926,7 +7929,7 @@
         <f aca="false">VLOOKUP(G148,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J148" s="6" t="str">
+      <c r="J148" s="3" t="str">
         <f aca="false">D148&amp;" "&amp;H148</f>
         <v>Mercury 7</v>
       </c>
@@ -7934,9 +7937,9 @@
         <f aca="false">F148 &amp; G148</f>
         <v>☿7</v>
       </c>
-      <c r="L148" s="16" t="str">
+      <c r="L148" s="17" t="str">
         <f aca="false">VLOOKUP(G148,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,15 +7953,15 @@
         <f aca="false">VLOOKUP(B149,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D149" s="13" t="str">
+      <c r="D149" s="15" t="str">
         <f aca="false">VLOOKUP(B149,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E149" s="13" t="str">
+      <c r="E149" s="16" t="str">
         <f aca="false">"Planets\" &amp; D149 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F149" s="13" t="str">
+      <c r="F149" s="15" t="str">
         <f aca="false">VLOOKUP(B149,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -7973,7 +7976,7 @@
         <f aca="false">VLOOKUP(G149,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J149" s="6" t="str">
+      <c r="J149" s="3" t="str">
         <f aca="false">D149&amp;" "&amp;H149</f>
         <v>Mercury 8</v>
       </c>
@@ -7981,9 +7984,9 @@
         <f aca="false">F149 &amp; G149</f>
         <v>☿8</v>
       </c>
-      <c r="L149" s="16" t="str">
+      <c r="L149" s="17" t="str">
         <f aca="false">VLOOKUP(G149,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,15 +8000,15 @@
         <f aca="false">VLOOKUP(B150,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D150" s="13" t="str">
+      <c r="D150" s="15" t="str">
         <f aca="false">VLOOKUP(B150,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E150" s="13" t="str">
+      <c r="E150" s="16" t="str">
         <f aca="false">"Planets\" &amp; D150 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F150" s="13" t="str">
+      <c r="F150" s="15" t="str">
         <f aca="false">VLOOKUP(B150,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8020,7 +8023,7 @@
         <f aca="false">VLOOKUP(G150,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J150" s="6" t="str">
+      <c r="J150" s="3" t="str">
         <f aca="false">D150&amp;" "&amp;H150</f>
         <v>Mercury 9</v>
       </c>
@@ -8028,9 +8031,9 @@
         <f aca="false">F150 &amp; G150</f>
         <v>☿9</v>
       </c>
-      <c r="L150" s="16" t="str">
+      <c r="L150" s="17" t="str">
         <f aca="false">VLOOKUP(G150,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8044,15 +8047,15 @@
         <f aca="false">VLOOKUP(B151,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D151" s="13" t="str">
+      <c r="D151" s="15" t="str">
         <f aca="false">VLOOKUP(B151,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E151" s="13" t="str">
+      <c r="E151" s="16" t="str">
         <f aca="false">"Planets\" &amp; D151 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F151" s="13" t="str">
+      <c r="F151" s="15" t="str">
         <f aca="false">VLOOKUP(B151,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8067,7 +8070,7 @@
         <f aca="false">VLOOKUP(G151,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J151" s="6" t="str">
+      <c r="J151" s="3" t="str">
         <f aca="false">D151&amp;" "&amp;H151</f>
         <v>Mercury +2</v>
       </c>
@@ -8075,7 +8078,7 @@
         <f aca="false">F151 &amp; G151</f>
         <v>☿+2</v>
       </c>
-      <c r="L151" s="16" t="str">
+      <c r="L151" s="17" t="str">
         <f aca="false">VLOOKUP(G151,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -8091,15 +8094,15 @@
         <f aca="false">VLOOKUP(B152,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D152" s="13" t="str">
+      <c r="D152" s="15" t="str">
         <f aca="false">VLOOKUP(B152,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E152" s="13" t="str">
+      <c r="E152" s="16" t="str">
         <f aca="false">"Planets\" &amp; D152 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F152" s="13" t="str">
+      <c r="F152" s="15" t="str">
         <f aca="false">VLOOKUP(B152,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8114,7 +8117,7 @@
         <f aca="false">VLOOKUP(G152,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J152" s="6" t="str">
+      <c r="J152" s="3" t="str">
         <f aca="false">D152&amp;" "&amp;H152</f>
         <v>Mercury +3</v>
       </c>
@@ -8122,7 +8125,7 @@
         <f aca="false">F152 &amp; G152</f>
         <v>☿+3</v>
       </c>
-      <c r="L152" s="16" t="str">
+      <c r="L152" s="17" t="str">
         <f aca="false">VLOOKUP(G152,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -8138,15 +8141,15 @@
         <f aca="false">VLOOKUP(B153,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D153" s="13" t="str">
+      <c r="D153" s="15" t="str">
         <f aca="false">VLOOKUP(B153,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E153" s="13" t="str">
+      <c r="E153" s="16" t="str">
         <f aca="false">"Planets\" &amp; D153 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F153" s="13" t="str">
+      <c r="F153" s="15" t="str">
         <f aca="false">VLOOKUP(B153,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8161,7 +8164,7 @@
         <f aca="false">VLOOKUP(G153,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J153" s="6" t="str">
+      <c r="J153" s="3" t="str">
         <f aca="false">D153&amp;" "&amp;H153</f>
         <v>Mercury Reversal</v>
       </c>
@@ -8169,7 +8172,7 @@
         <f aca="false">F153 &amp; G153</f>
         <v>☿🔄</v>
       </c>
-      <c r="L153" s="16" t="str">
+      <c r="L153" s="17" t="str">
         <f aca="false">VLOOKUP(G153,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -8185,15 +8188,15 @@
         <f aca="false">VLOOKUP(B154,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D154" s="13" t="str">
+      <c r="D154" s="15" t="str">
         <f aca="false">VLOOKUP(B154,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E154" s="13" t="str">
+      <c r="E154" s="16" t="str">
         <f aca="false">"Planets\" &amp; D154 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F154" s="13" t="str">
+      <c r="F154" s="15" t="str">
         <f aca="false">VLOOKUP(B154,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8208,7 +8211,7 @@
         <f aca="false">VLOOKUP(G154,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J154" s="6" t="str">
+      <c r="J154" s="3" t="str">
         <f aca="false">D154&amp;" "&amp;H154</f>
         <v>Mercury Block</v>
       </c>
@@ -8216,7 +8219,7 @@
         <f aca="false">F154 &amp; G154</f>
         <v>☿🚫</v>
       </c>
-      <c r="L154" s="16" t="str">
+      <c r="L154" s="17" t="str">
         <f aca="false">VLOOKUP(G154,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -8232,15 +8235,15 @@
         <f aca="false">VLOOKUP(B155,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D155" s="13" t="str">
+      <c r="D155" s="15" t="str">
         <f aca="false">VLOOKUP(B155,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E155" s="13" t="str">
+      <c r="E155" s="16" t="str">
         <f aca="false">"Planets\" &amp; D155 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F155" s="13" t="str">
+      <c r="F155" s="15" t="str">
         <f aca="false">VLOOKUP(B155,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8255,7 +8258,7 @@
         <f aca="false">VLOOKUP(G155,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J155" s="6" t="str">
+      <c r="J155" s="3" t="str">
         <f aca="false">D155&amp;" "&amp;H155</f>
         <v>Mercury Repeat</v>
       </c>
@@ -8263,7 +8266,7 @@
         <f aca="false">F155 &amp; G155</f>
         <v>☿🔂</v>
       </c>
-      <c r="L155" s="16" t="str">
+      <c r="L155" s="17" t="str">
         <f aca="false">VLOOKUP(G155,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -8279,15 +8282,15 @@
         <f aca="false">VLOOKUP(B156,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D156" s="13" t="str">
+      <c r="D156" s="15" t="str">
         <f aca="false">VLOOKUP(B156,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E156" s="13" t="str">
+      <c r="E156" s="16" t="str">
         <f aca="false">"Planets\" &amp; D156 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F156" s="13" t="str">
+      <c r="F156" s="15" t="str">
         <f aca="false">VLOOKUP(B156,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8302,7 +8305,7 @@
         <f aca="false">VLOOKUP(G156,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J156" s="6" t="str">
+      <c r="J156" s="3" t="str">
         <f aca="false">D156&amp;" "&amp;H156</f>
         <v>Mercury Freeze</v>
       </c>
@@ -8310,7 +8313,7 @@
         <f aca="false">F156 &amp; G156</f>
         <v>☿❄️</v>
       </c>
-      <c r="L156" s="16" t="str">
+      <c r="L156" s="17" t="str">
         <f aca="false">VLOOKUP(G156,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -8326,15 +8329,15 @@
         <f aca="false">VLOOKUP(B157,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D157" s="13" t="str">
+      <c r="D157" s="15" t="str">
         <f aca="false">VLOOKUP(B157,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E157" s="13" t="str">
+      <c r="E157" s="16" t="str">
         <f aca="false">"Planets\" &amp; D157 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F157" s="13" t="str">
+      <c r="F157" s="15" t="str">
         <f aca="false">VLOOKUP(B157,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8349,7 +8352,7 @@
         <f aca="false">VLOOKUP(G157,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J157" s="6" t="str">
+      <c r="J157" s="3" t="str">
         <f aca="false">D157&amp;" "&amp;H157</f>
         <v>Mercury Burn</v>
       </c>
@@ -8357,7 +8360,7 @@
         <f aca="false">F157 &amp; G157</f>
         <v>☿🔥</v>
       </c>
-      <c r="L157" s="16" t="str">
+      <c r="L157" s="17" t="str">
         <f aca="false">VLOOKUP(G157,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -8373,15 +8376,15 @@
         <f aca="false">VLOOKUP(B158,CARD_COLORS,3,0)</f>
         <v>#440088</v>
       </c>
-      <c r="D158" s="13" t="str">
+      <c r="D158" s="15" t="str">
         <f aca="false">VLOOKUP(B158,CARD_COLORS,2,0)</f>
         <v>Mercury</v>
       </c>
-      <c r="E158" s="13" t="str">
+      <c r="E158" s="16" t="str">
         <f aca="false">"Planets\" &amp; D158 &amp; ".png"</f>
         <v>Planets\Mercury.png</v>
       </c>
-      <c r="F158" s="13" t="str">
+      <c r="F158" s="15" t="str">
         <f aca="false">VLOOKUP(B158,CARD_COLORS,4,0)</f>
         <v>☿</v>
       </c>
@@ -8396,7 +8399,7 @@
         <f aca="false">VLOOKUP(G158,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J158" s="6" t="str">
+      <c r="J158" s="3" t="str">
         <f aca="false">D158&amp;" "&amp;H158</f>
         <v>Mercury Focus</v>
       </c>
@@ -8404,7 +8407,7 @@
         <f aca="false">F158 &amp; G158</f>
         <v>☿🎯</v>
       </c>
-      <c r="L158" s="16" t="str">
+      <c r="L158" s="17" t="str">
         <f aca="false">VLOOKUP(G158,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -8420,15 +8423,15 @@
         <f aca="false">VLOOKUP(B159,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D159" s="13" t="str">
+      <c r="D159" s="15" t="str">
         <f aca="false">VLOOKUP(B159,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E159" s="13" t="str">
+      <c r="E159" s="16" t="str">
         <f aca="false">"Planets\" &amp; D159 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F159" s="13" t="str">
+      <c r="F159" s="15" t="str">
         <f aca="false">VLOOKUP(B159,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8443,7 +8446,7 @@
         <f aca="false">VLOOKUP(G159,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J159" s="6" t="str">
+      <c r="J159" s="3" t="str">
         <f aca="false">D159&amp;" "&amp;H159</f>
         <v>Uranus 0</v>
       </c>
@@ -8451,9 +8454,9 @@
         <f aca="false">F159 &amp; G159</f>
         <v>♅0</v>
       </c>
-      <c r="L159" s="16" t="str">
+      <c r="L159" s="17" t="str">
         <f aca="false">VLOOKUP(G159,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,15 +8470,15 @@
         <f aca="false">VLOOKUP(B160,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D160" s="13" t="str">
+      <c r="D160" s="15" t="str">
         <f aca="false">VLOOKUP(B160,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E160" s="13" t="str">
+      <c r="E160" s="16" t="str">
         <f aca="false">"Planets\" &amp; D160 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F160" s="13" t="str">
+      <c r="F160" s="15" t="str">
         <f aca="false">VLOOKUP(B160,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8490,7 +8493,7 @@
         <f aca="false">VLOOKUP(G160,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J160" s="6" t="str">
+      <c r="J160" s="3" t="str">
         <f aca="false">D160&amp;" "&amp;H160</f>
         <v>Uranus 1</v>
       </c>
@@ -8498,9 +8501,9 @@
         <f aca="false">F160 &amp; G160</f>
         <v>♅1</v>
       </c>
-      <c r="L160" s="16" t="str">
+      <c r="L160" s="17" t="str">
         <f aca="false">VLOOKUP(G160,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8514,15 +8517,15 @@
         <f aca="false">VLOOKUP(B161,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D161" s="13" t="str">
+      <c r="D161" s="15" t="str">
         <f aca="false">VLOOKUP(B161,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E161" s="13" t="str">
+      <c r="E161" s="16" t="str">
         <f aca="false">"Planets\" &amp; D161 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F161" s="13" t="str">
+      <c r="F161" s="15" t="str">
         <f aca="false">VLOOKUP(B161,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8537,7 +8540,7 @@
         <f aca="false">VLOOKUP(G161,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J161" s="6" t="str">
+      <c r="J161" s="3" t="str">
         <f aca="false">D161&amp;" "&amp;H161</f>
         <v>Uranus 2</v>
       </c>
@@ -8545,9 +8548,9 @@
         <f aca="false">F161 &amp; G161</f>
         <v>♅2</v>
       </c>
-      <c r="L161" s="16" t="str">
+      <c r="L161" s="17" t="str">
         <f aca="false">VLOOKUP(G161,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8561,15 +8564,15 @@
         <f aca="false">VLOOKUP(B162,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D162" s="13" t="str">
+      <c r="D162" s="15" t="str">
         <f aca="false">VLOOKUP(B162,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E162" s="13" t="str">
+      <c r="E162" s="16" t="str">
         <f aca="false">"Planets\" &amp; D162 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F162" s="13" t="str">
+      <c r="F162" s="15" t="str">
         <f aca="false">VLOOKUP(B162,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8584,7 +8587,7 @@
         <f aca="false">VLOOKUP(G162,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J162" s="6" t="str">
+      <c r="J162" s="3" t="str">
         <f aca="false">D162&amp;" "&amp;H162</f>
         <v>Uranus 3</v>
       </c>
@@ -8592,9 +8595,9 @@
         <f aca="false">F162 &amp; G162</f>
         <v>♅3</v>
       </c>
-      <c r="L162" s="16" t="str">
+      <c r="L162" s="17" t="str">
         <f aca="false">VLOOKUP(G162,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8608,15 +8611,15 @@
         <f aca="false">VLOOKUP(B163,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D163" s="13" t="str">
+      <c r="D163" s="15" t="str">
         <f aca="false">VLOOKUP(B163,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E163" s="13" t="str">
+      <c r="E163" s="16" t="str">
         <f aca="false">"Planets\" &amp; D163 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F163" s="13" t="str">
+      <c r="F163" s="15" t="str">
         <f aca="false">VLOOKUP(B163,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8631,7 +8634,7 @@
         <f aca="false">VLOOKUP(G163,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J163" s="6" t="str">
+      <c r="J163" s="3" t="str">
         <f aca="false">D163&amp;" "&amp;H163</f>
         <v>Uranus 4</v>
       </c>
@@ -8639,9 +8642,9 @@
         <f aca="false">F163 &amp; G163</f>
         <v>♅4</v>
       </c>
-      <c r="L163" s="16" t="str">
+      <c r="L163" s="17" t="str">
         <f aca="false">VLOOKUP(G163,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,15 +8658,15 @@
         <f aca="false">VLOOKUP(B164,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D164" s="13" t="str">
+      <c r="D164" s="15" t="str">
         <f aca="false">VLOOKUP(B164,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E164" s="13" t="str">
+      <c r="E164" s="16" t="str">
         <f aca="false">"Planets\" &amp; D164 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F164" s="13" t="str">
+      <c r="F164" s="15" t="str">
         <f aca="false">VLOOKUP(B164,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8678,7 +8681,7 @@
         <f aca="false">VLOOKUP(G164,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J164" s="6" t="str">
+      <c r="J164" s="3" t="str">
         <f aca="false">D164&amp;" "&amp;H164</f>
         <v>Uranus 5</v>
       </c>
@@ -8686,9 +8689,9 @@
         <f aca="false">F164 &amp; G164</f>
         <v>♅5</v>
       </c>
-      <c r="L164" s="16" t="str">
+      <c r="L164" s="17" t="str">
         <f aca="false">VLOOKUP(G164,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8702,15 +8705,15 @@
         <f aca="false">VLOOKUP(B165,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D165" s="13" t="str">
+      <c r="D165" s="15" t="str">
         <f aca="false">VLOOKUP(B165,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E165" s="13" t="str">
+      <c r="E165" s="16" t="str">
         <f aca="false">"Planets\" &amp; D165 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F165" s="13" t="str">
+      <c r="F165" s="15" t="str">
         <f aca="false">VLOOKUP(B165,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8725,7 +8728,7 @@
         <f aca="false">VLOOKUP(G165,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J165" s="6" t="str">
+      <c r="J165" s="3" t="str">
         <f aca="false">D165&amp;" "&amp;H165</f>
         <v>Uranus 6</v>
       </c>
@@ -8733,9 +8736,9 @@
         <f aca="false">F165 &amp; G165</f>
         <v>♅6</v>
       </c>
-      <c r="L165" s="16" t="str">
+      <c r="L165" s="17" t="str">
         <f aca="false">VLOOKUP(G165,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8749,15 +8752,15 @@
         <f aca="false">VLOOKUP(B166,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D166" s="13" t="str">
+      <c r="D166" s="15" t="str">
         <f aca="false">VLOOKUP(B166,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E166" s="13" t="str">
+      <c r="E166" s="16" t="str">
         <f aca="false">"Planets\" &amp; D166 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F166" s="13" t="str">
+      <c r="F166" s="15" t="str">
         <f aca="false">VLOOKUP(B166,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8772,7 +8775,7 @@
         <f aca="false">VLOOKUP(G166,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J166" s="6" t="str">
+      <c r="J166" s="3" t="str">
         <f aca="false">D166&amp;" "&amp;H166</f>
         <v>Uranus 7</v>
       </c>
@@ -8780,9 +8783,9 @@
         <f aca="false">F166 &amp; G166</f>
         <v>♅7</v>
       </c>
-      <c r="L166" s="16" t="str">
+      <c r="L166" s="17" t="str">
         <f aca="false">VLOOKUP(G166,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8796,15 +8799,15 @@
         <f aca="false">VLOOKUP(B167,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D167" s="13" t="str">
+      <c r="D167" s="15" t="str">
         <f aca="false">VLOOKUP(B167,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E167" s="13" t="str">
+      <c r="E167" s="16" t="str">
         <f aca="false">"Planets\" &amp; D167 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F167" s="13" t="str">
+      <c r="F167" s="15" t="str">
         <f aca="false">VLOOKUP(B167,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8819,7 +8822,7 @@
         <f aca="false">VLOOKUP(G167,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J167" s="6" t="str">
+      <c r="J167" s="3" t="str">
         <f aca="false">D167&amp;" "&amp;H167</f>
         <v>Uranus 8</v>
       </c>
@@ -8827,9 +8830,9 @@
         <f aca="false">F167 &amp; G167</f>
         <v>♅8</v>
       </c>
-      <c r="L167" s="16" t="str">
+      <c r="L167" s="17" t="str">
         <f aca="false">VLOOKUP(G167,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8843,15 +8846,15 @@
         <f aca="false">VLOOKUP(B168,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D168" s="13" t="str">
+      <c r="D168" s="15" t="str">
         <f aca="false">VLOOKUP(B168,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E168" s="13" t="str">
+      <c r="E168" s="16" t="str">
         <f aca="false">"Planets\" &amp; D168 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F168" s="13" t="str">
+      <c r="F168" s="15" t="str">
         <f aca="false">VLOOKUP(B168,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8866,7 +8869,7 @@
         <f aca="false">VLOOKUP(G168,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J168" s="6" t="str">
+      <c r="J168" s="3" t="str">
         <f aca="false">D168&amp;" "&amp;H168</f>
         <v>Uranus 9</v>
       </c>
@@ -8874,9 +8877,9 @@
         <f aca="false">F168 &amp; G168</f>
         <v>♅9</v>
       </c>
-      <c r="L168" s="16" t="str">
+      <c r="L168" s="17" t="str">
         <f aca="false">VLOOKUP(G168,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8890,15 +8893,15 @@
         <f aca="false">VLOOKUP(B169,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D169" s="13" t="str">
+      <c r="D169" s="15" t="str">
         <f aca="false">VLOOKUP(B169,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E169" s="13" t="str">
+      <c r="E169" s="16" t="str">
         <f aca="false">"Planets\" &amp; D169 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F169" s="13" t="str">
+      <c r="F169" s="15" t="str">
         <f aca="false">VLOOKUP(B169,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8913,7 +8916,7 @@
         <f aca="false">VLOOKUP(G169,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J169" s="6" t="str">
+      <c r="J169" s="3" t="str">
         <f aca="false">D169&amp;" "&amp;H169</f>
         <v>Uranus +2</v>
       </c>
@@ -8921,7 +8924,7 @@
         <f aca="false">F169 &amp; G169</f>
         <v>♅+2</v>
       </c>
-      <c r="L169" s="16" t="str">
+      <c r="L169" s="17" t="str">
         <f aca="false">VLOOKUP(G169,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -8937,15 +8940,15 @@
         <f aca="false">VLOOKUP(B170,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D170" s="13" t="str">
+      <c r="D170" s="15" t="str">
         <f aca="false">VLOOKUP(B170,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E170" s="13" t="str">
+      <c r="E170" s="16" t="str">
         <f aca="false">"Planets\" &amp; D170 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F170" s="13" t="str">
+      <c r="F170" s="15" t="str">
         <f aca="false">VLOOKUP(B170,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -8960,7 +8963,7 @@
         <f aca="false">VLOOKUP(G170,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J170" s="6" t="str">
+      <c r="J170" s="3" t="str">
         <f aca="false">D170&amp;" "&amp;H170</f>
         <v>Uranus +3</v>
       </c>
@@ -8968,7 +8971,7 @@
         <f aca="false">F170 &amp; G170</f>
         <v>♅+3</v>
       </c>
-      <c r="L170" s="16" t="str">
+      <c r="L170" s="17" t="str">
         <f aca="false">VLOOKUP(G170,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -8984,15 +8987,15 @@
         <f aca="false">VLOOKUP(B171,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D171" s="13" t="str">
+      <c r="D171" s="15" t="str">
         <f aca="false">VLOOKUP(B171,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E171" s="13" t="str">
+      <c r="E171" s="16" t="str">
         <f aca="false">"Planets\" &amp; D171 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F171" s="13" t="str">
+      <c r="F171" s="15" t="str">
         <f aca="false">VLOOKUP(B171,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -9007,7 +9010,7 @@
         <f aca="false">VLOOKUP(G171,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J171" s="6" t="str">
+      <c r="J171" s="3" t="str">
         <f aca="false">D171&amp;" "&amp;H171</f>
         <v>Uranus Reversal</v>
       </c>
@@ -9015,7 +9018,7 @@
         <f aca="false">F171 &amp; G171</f>
         <v>♅🔄</v>
       </c>
-      <c r="L171" s="16" t="str">
+      <c r="L171" s="17" t="str">
         <f aca="false">VLOOKUP(G171,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -9031,15 +9034,15 @@
         <f aca="false">VLOOKUP(B172,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D172" s="13" t="str">
+      <c r="D172" s="15" t="str">
         <f aca="false">VLOOKUP(B172,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E172" s="13" t="str">
+      <c r="E172" s="16" t="str">
         <f aca="false">"Planets\" &amp; D172 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F172" s="13" t="str">
+      <c r="F172" s="15" t="str">
         <f aca="false">VLOOKUP(B172,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -9054,7 +9057,7 @@
         <f aca="false">VLOOKUP(G172,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J172" s="6" t="str">
+      <c r="J172" s="3" t="str">
         <f aca="false">D172&amp;" "&amp;H172</f>
         <v>Uranus Block</v>
       </c>
@@ -9062,7 +9065,7 @@
         <f aca="false">F172 &amp; G172</f>
         <v>♅🚫</v>
       </c>
-      <c r="L172" s="16" t="str">
+      <c r="L172" s="17" t="str">
         <f aca="false">VLOOKUP(G172,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -9078,15 +9081,15 @@
         <f aca="false">VLOOKUP(B173,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D173" s="13" t="str">
+      <c r="D173" s="15" t="str">
         <f aca="false">VLOOKUP(B173,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E173" s="13" t="str">
+      <c r="E173" s="16" t="str">
         <f aca="false">"Planets\" &amp; D173 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F173" s="13" t="str">
+      <c r="F173" s="15" t="str">
         <f aca="false">VLOOKUP(B173,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -9101,7 +9104,7 @@
         <f aca="false">VLOOKUP(G173,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J173" s="6" t="str">
+      <c r="J173" s="3" t="str">
         <f aca="false">D173&amp;" "&amp;H173</f>
         <v>Uranus Repeat</v>
       </c>
@@ -9109,7 +9112,7 @@
         <f aca="false">F173 &amp; G173</f>
         <v>♅🔂</v>
       </c>
-      <c r="L173" s="16" t="str">
+      <c r="L173" s="17" t="str">
         <f aca="false">VLOOKUP(G173,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -9125,15 +9128,15 @@
         <f aca="false">VLOOKUP(B174,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D174" s="13" t="str">
+      <c r="D174" s="15" t="str">
         <f aca="false">VLOOKUP(B174,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E174" s="13" t="str">
+      <c r="E174" s="16" t="str">
         <f aca="false">"Planets\" &amp; D174 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F174" s="13" t="str">
+      <c r="F174" s="15" t="str">
         <f aca="false">VLOOKUP(B174,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -9148,7 +9151,7 @@
         <f aca="false">VLOOKUP(G174,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J174" s="6" t="str">
+      <c r="J174" s="3" t="str">
         <f aca="false">D174&amp;" "&amp;H174</f>
         <v>Uranus Freeze</v>
       </c>
@@ -9156,7 +9159,7 @@
         <f aca="false">F174 &amp; G174</f>
         <v>♅❄️</v>
       </c>
-      <c r="L174" s="16" t="str">
+      <c r="L174" s="17" t="str">
         <f aca="false">VLOOKUP(G174,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -9172,15 +9175,15 @@
         <f aca="false">VLOOKUP(B175,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D175" s="13" t="str">
+      <c r="D175" s="15" t="str">
         <f aca="false">VLOOKUP(B175,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E175" s="13" t="str">
+      <c r="E175" s="16" t="str">
         <f aca="false">"Planets\" &amp; D175 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F175" s="13" t="str">
+      <c r="F175" s="15" t="str">
         <f aca="false">VLOOKUP(B175,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -9195,7 +9198,7 @@
         <f aca="false">VLOOKUP(G175,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J175" s="6" t="str">
+      <c r="J175" s="3" t="str">
         <f aca="false">D175&amp;" "&amp;H175</f>
         <v>Uranus Burn</v>
       </c>
@@ -9203,7 +9206,7 @@
         <f aca="false">F175 &amp; G175</f>
         <v>♅🔥</v>
       </c>
-      <c r="L175" s="16" t="str">
+      <c r="L175" s="17" t="str">
         <f aca="false">VLOOKUP(G175,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -9219,15 +9222,15 @@
         <f aca="false">VLOOKUP(B176,CARD_COLORS,3,0)</f>
         <v>#008888</v>
       </c>
-      <c r="D176" s="13" t="str">
+      <c r="D176" s="15" t="str">
         <f aca="false">VLOOKUP(B176,CARD_COLORS,2,0)</f>
         <v>Uranus</v>
       </c>
-      <c r="E176" s="13" t="str">
+      <c r="E176" s="16" t="str">
         <f aca="false">"Planets\" &amp; D176 &amp; ".png"</f>
         <v>Planets\Uranus.png</v>
       </c>
-      <c r="F176" s="13" t="str">
+      <c r="F176" s="15" t="str">
         <f aca="false">VLOOKUP(B176,CARD_COLORS,4,0)</f>
         <v>♅</v>
       </c>
@@ -9242,7 +9245,7 @@
         <f aca="false">VLOOKUP(G176,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J176" s="6" t="str">
+      <c r="J176" s="3" t="str">
         <f aca="false">D176&amp;" "&amp;H176</f>
         <v>Uranus Focus</v>
       </c>
@@ -9250,7 +9253,7 @@
         <f aca="false">F176 &amp; G176</f>
         <v>♅🎯</v>
       </c>
-      <c r="L176" s="16" t="str">
+      <c r="L176" s="17" t="str">
         <f aca="false">VLOOKUP(G176,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -9266,15 +9269,15 @@
         <f aca="false">VLOOKUP(B177,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D177" s="13" t="str">
+      <c r="D177" s="15" t="str">
         <f aca="false">VLOOKUP(B177,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E177" s="13" t="str">
+      <c r="E177" s="16" t="str">
         <f aca="false">"Planets\" &amp; D177 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F177" s="13" t="str">
+      <c r="F177" s="15" t="str">
         <f aca="false">VLOOKUP(B177,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9289,7 +9292,7 @@
         <f aca="false">VLOOKUP(G177,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J177" s="6" t="str">
+      <c r="J177" s="3" t="str">
         <f aca="false">D177&amp;" "&amp;H177</f>
         <v>Neptune 0</v>
       </c>
@@ -9297,9 +9300,9 @@
         <f aca="false">F177 &amp; G177</f>
         <v>♆0</v>
       </c>
-      <c r="L177" s="16" t="str">
+      <c r="L177" s="17" t="str">
         <f aca="false">VLOOKUP(G177,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9313,15 +9316,15 @@
         <f aca="false">VLOOKUP(B178,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D178" s="13" t="str">
+      <c r="D178" s="15" t="str">
         <f aca="false">VLOOKUP(B178,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E178" s="13" t="str">
+      <c r="E178" s="16" t="str">
         <f aca="false">"Planets\" &amp; D178 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F178" s="13" t="str">
+      <c r="F178" s="15" t="str">
         <f aca="false">VLOOKUP(B178,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9336,7 +9339,7 @@
         <f aca="false">VLOOKUP(G178,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J178" s="6" t="str">
+      <c r="J178" s="3" t="str">
         <f aca="false">D178&amp;" "&amp;H178</f>
         <v>Neptune 1</v>
       </c>
@@ -9344,9 +9347,9 @@
         <f aca="false">F178 &amp; G178</f>
         <v>♆1</v>
       </c>
-      <c r="L178" s="16" t="str">
+      <c r="L178" s="17" t="str">
         <f aca="false">VLOOKUP(G178,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9360,15 +9363,15 @@
         <f aca="false">VLOOKUP(B179,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D179" s="13" t="str">
+      <c r="D179" s="15" t="str">
         <f aca="false">VLOOKUP(B179,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E179" s="13" t="str">
+      <c r="E179" s="16" t="str">
         <f aca="false">"Planets\" &amp; D179 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F179" s="13" t="str">
+      <c r="F179" s="15" t="str">
         <f aca="false">VLOOKUP(B179,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9383,7 +9386,7 @@
         <f aca="false">VLOOKUP(G179,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J179" s="6" t="str">
+      <c r="J179" s="3" t="str">
         <f aca="false">D179&amp;" "&amp;H179</f>
         <v>Neptune 2</v>
       </c>
@@ -9391,9 +9394,9 @@
         <f aca="false">F179 &amp; G179</f>
         <v>♆2</v>
       </c>
-      <c r="L179" s="16" t="str">
+      <c r="L179" s="17" t="str">
         <f aca="false">VLOOKUP(G179,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9407,15 +9410,15 @@
         <f aca="false">VLOOKUP(B180,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D180" s="13" t="str">
+      <c r="D180" s="15" t="str">
         <f aca="false">VLOOKUP(B180,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E180" s="13" t="str">
+      <c r="E180" s="16" t="str">
         <f aca="false">"Planets\" &amp; D180 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F180" s="13" t="str">
+      <c r="F180" s="15" t="str">
         <f aca="false">VLOOKUP(B180,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9430,7 +9433,7 @@
         <f aca="false">VLOOKUP(G180,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J180" s="6" t="str">
+      <c r="J180" s="3" t="str">
         <f aca="false">D180&amp;" "&amp;H180</f>
         <v>Neptune 3</v>
       </c>
@@ -9438,9 +9441,9 @@
         <f aca="false">F180 &amp; G180</f>
         <v>♆3</v>
       </c>
-      <c r="L180" s="16" t="str">
+      <c r="L180" s="17" t="str">
         <f aca="false">VLOOKUP(G180,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9454,15 +9457,15 @@
         <f aca="false">VLOOKUP(B181,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D181" s="13" t="str">
+      <c r="D181" s="15" t="str">
         <f aca="false">VLOOKUP(B181,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E181" s="13" t="str">
+      <c r="E181" s="16" t="str">
         <f aca="false">"Planets\" &amp; D181 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F181" s="13" t="str">
+      <c r="F181" s="15" t="str">
         <f aca="false">VLOOKUP(B181,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9477,7 +9480,7 @@
         <f aca="false">VLOOKUP(G181,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J181" s="6" t="str">
+      <c r="J181" s="3" t="str">
         <f aca="false">D181&amp;" "&amp;H181</f>
         <v>Neptune 4</v>
       </c>
@@ -9485,9 +9488,9 @@
         <f aca="false">F181 &amp; G181</f>
         <v>♆4</v>
       </c>
-      <c r="L181" s="16" t="str">
+      <c r="L181" s="17" t="str">
         <f aca="false">VLOOKUP(G181,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,15 +9504,15 @@
         <f aca="false">VLOOKUP(B182,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D182" s="13" t="str">
+      <c r="D182" s="15" t="str">
         <f aca="false">VLOOKUP(B182,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E182" s="13" t="str">
+      <c r="E182" s="16" t="str">
         <f aca="false">"Planets\" &amp; D182 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F182" s="13" t="str">
+      <c r="F182" s="15" t="str">
         <f aca="false">VLOOKUP(B182,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9524,7 +9527,7 @@
         <f aca="false">VLOOKUP(G182,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J182" s="6" t="str">
+      <c r="J182" s="3" t="str">
         <f aca="false">D182&amp;" "&amp;H182</f>
         <v>Neptune 5</v>
       </c>
@@ -9532,9 +9535,9 @@
         <f aca="false">F182 &amp; G182</f>
         <v>♆5</v>
       </c>
-      <c r="L182" s="16" t="str">
+      <c r="L182" s="17" t="str">
         <f aca="false">VLOOKUP(G182,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9548,15 +9551,15 @@
         <f aca="false">VLOOKUP(B183,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D183" s="13" t="str">
+      <c r="D183" s="15" t="str">
         <f aca="false">VLOOKUP(B183,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E183" s="13" t="str">
+      <c r="E183" s="16" t="str">
         <f aca="false">"Planets\" &amp; D183 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F183" s="13" t="str">
+      <c r="F183" s="15" t="str">
         <f aca="false">VLOOKUP(B183,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9571,7 +9574,7 @@
         <f aca="false">VLOOKUP(G183,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J183" s="6" t="str">
+      <c r="J183" s="3" t="str">
         <f aca="false">D183&amp;" "&amp;H183</f>
         <v>Neptune 6</v>
       </c>
@@ -9579,9 +9582,9 @@
         <f aca="false">F183 &amp; G183</f>
         <v>♆6</v>
       </c>
-      <c r="L183" s="16" t="str">
+      <c r="L183" s="17" t="str">
         <f aca="false">VLOOKUP(G183,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9595,15 +9598,15 @@
         <f aca="false">VLOOKUP(B184,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D184" s="13" t="str">
+      <c r="D184" s="15" t="str">
         <f aca="false">VLOOKUP(B184,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E184" s="13" t="str">
+      <c r="E184" s="16" t="str">
         <f aca="false">"Planets\" &amp; D184 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F184" s="13" t="str">
+      <c r="F184" s="15" t="str">
         <f aca="false">VLOOKUP(B184,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9618,7 +9621,7 @@
         <f aca="false">VLOOKUP(G184,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J184" s="6" t="str">
+      <c r="J184" s="3" t="str">
         <f aca="false">D184&amp;" "&amp;H184</f>
         <v>Neptune 7</v>
       </c>
@@ -9626,9 +9629,9 @@
         <f aca="false">F184 &amp; G184</f>
         <v>♆7</v>
       </c>
-      <c r="L184" s="16" t="str">
+      <c r="L184" s="17" t="str">
         <f aca="false">VLOOKUP(G184,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9642,15 +9645,15 @@
         <f aca="false">VLOOKUP(B185,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D185" s="13" t="str">
+      <c r="D185" s="15" t="str">
         <f aca="false">VLOOKUP(B185,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E185" s="13" t="str">
+      <c r="E185" s="16" t="str">
         <f aca="false">"Planets\" &amp; D185 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F185" s="13" t="str">
+      <c r="F185" s="15" t="str">
         <f aca="false">VLOOKUP(B185,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9665,7 +9668,7 @@
         <f aca="false">VLOOKUP(G185,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J185" s="6" t="str">
+      <c r="J185" s="3" t="str">
         <f aca="false">D185&amp;" "&amp;H185</f>
         <v>Neptune 8</v>
       </c>
@@ -9673,9 +9676,9 @@
         <f aca="false">F185 &amp; G185</f>
         <v>♆8</v>
       </c>
-      <c r="L185" s="16" t="str">
+      <c r="L185" s="17" t="str">
         <f aca="false">VLOOKUP(G185,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9689,15 +9692,15 @@
         <f aca="false">VLOOKUP(B186,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D186" s="13" t="str">
+      <c r="D186" s="15" t="str">
         <f aca="false">VLOOKUP(B186,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E186" s="13" t="str">
+      <c r="E186" s="16" t="str">
         <f aca="false">"Planets\" &amp; D186 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F186" s="13" t="str">
+      <c r="F186" s="15" t="str">
         <f aca="false">VLOOKUP(B186,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9712,7 +9715,7 @@
         <f aca="false">VLOOKUP(G186,COLOR_EFFECTS,3,0)</f>
         <v>Normal</v>
       </c>
-      <c r="J186" s="6" t="str">
+      <c r="J186" s="3" t="str">
         <f aca="false">D186&amp;" "&amp;H186</f>
         <v>Neptune 9</v>
       </c>
@@ -9720,9 +9723,9 @@
         <f aca="false">F186 &amp; G186</f>
         <v>♆9</v>
       </c>
-      <c r="L186" s="16" t="str">
+      <c r="L186" s="17" t="str">
         <f aca="false">VLOOKUP(G186,COLOR_EFFECTS,4,0)</f>
-        <v>None</v>
+        <v> </v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9736,15 +9739,15 @@
         <f aca="false">VLOOKUP(B187,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D187" s="13" t="str">
+      <c r="D187" s="15" t="str">
         <f aca="false">VLOOKUP(B187,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E187" s="13" t="str">
+      <c r="E187" s="16" t="str">
         <f aca="false">"Planets\" &amp; D187 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F187" s="13" t="str">
+      <c r="F187" s="15" t="str">
         <f aca="false">VLOOKUP(B187,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9759,7 +9762,7 @@
         <f aca="false">VLOOKUP(G187,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J187" s="6" t="str">
+      <c r="J187" s="3" t="str">
         <f aca="false">D187&amp;" "&amp;H187</f>
         <v>Neptune +2</v>
       </c>
@@ -9767,7 +9770,7 @@
         <f aca="false">F187 &amp; G187</f>
         <v>♆+2</v>
       </c>
-      <c r="L187" s="16" t="str">
+      <c r="L187" s="17" t="str">
         <f aca="false">VLOOKUP(G187,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 2 cards</v>
       </c>
@@ -9783,15 +9786,15 @@
         <f aca="false">VLOOKUP(B188,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D188" s="13" t="str">
+      <c r="D188" s="15" t="str">
         <f aca="false">VLOOKUP(B188,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E188" s="13" t="str">
+      <c r="E188" s="16" t="str">
         <f aca="false">"Planets\" &amp; D188 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F188" s="13" t="str">
+      <c r="F188" s="15" t="str">
         <f aca="false">VLOOKUP(B188,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9806,7 +9809,7 @@
         <f aca="false">VLOOKUP(G188,COLOR_EFFECTS,3,0)</f>
         <v>Trap</v>
       </c>
-      <c r="J188" s="6" t="str">
+      <c r="J188" s="3" t="str">
         <f aca="false">D188&amp;" "&amp;H188</f>
         <v>Neptune +3</v>
       </c>
@@ -9814,7 +9817,7 @@
         <f aca="false">F188 &amp; G188</f>
         <v>♆+3</v>
       </c>
-      <c r="L188" s="16" t="str">
+      <c r="L188" s="17" t="str">
         <f aca="false">VLOOKUP(G188,COLOR_EFFECTS,4,0)</f>
         <v>Next player draws 3 cards</v>
       </c>
@@ -9830,15 +9833,15 @@
         <f aca="false">VLOOKUP(B189,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D189" s="13" t="str">
+      <c r="D189" s="15" t="str">
         <f aca="false">VLOOKUP(B189,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E189" s="13" t="str">
+      <c r="E189" s="16" t="str">
         <f aca="false">"Planets\" &amp; D189 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F189" s="13" t="str">
+      <c r="F189" s="15" t="str">
         <f aca="false">VLOOKUP(B189,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9853,7 +9856,7 @@
         <f aca="false">VLOOKUP(G189,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J189" s="6" t="str">
+      <c r="J189" s="3" t="str">
         <f aca="false">D189&amp;" "&amp;H189</f>
         <v>Neptune Reversal</v>
       </c>
@@ -9861,7 +9864,7 @@
         <f aca="false">F189 &amp; G189</f>
         <v>♆🔄</v>
       </c>
-      <c r="L189" s="16" t="str">
+      <c r="L189" s="17" t="str">
         <f aca="false">VLOOKUP(G189,COLOR_EFFECTS,4,0)</f>
         <v>Reverse turn direction</v>
       </c>
@@ -9877,15 +9880,15 @@
         <f aca="false">VLOOKUP(B190,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D190" s="13" t="str">
+      <c r="D190" s="15" t="str">
         <f aca="false">VLOOKUP(B190,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E190" s="13" t="str">
+      <c r="E190" s="16" t="str">
         <f aca="false">"Planets\" &amp; D190 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F190" s="13" t="str">
+      <c r="F190" s="15" t="str">
         <f aca="false">VLOOKUP(B190,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9900,7 +9903,7 @@
         <f aca="false">VLOOKUP(G190,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J190" s="6" t="str">
+      <c r="J190" s="3" t="str">
         <f aca="false">D190&amp;" "&amp;H190</f>
         <v>Neptune Block</v>
       </c>
@@ -9908,7 +9911,7 @@
         <f aca="false">F190 &amp; G190</f>
         <v>♆🚫</v>
       </c>
-      <c r="L190" s="16" t="str">
+      <c r="L190" s="17" t="str">
         <f aca="false">VLOOKUP(G190,COLOR_EFFECTS,4,0)</f>
         <v>Next player sits out</v>
       </c>
@@ -9924,15 +9927,15 @@
         <f aca="false">VLOOKUP(B191,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D191" s="13" t="str">
+      <c r="D191" s="15" t="str">
         <f aca="false">VLOOKUP(B191,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E191" s="13" t="str">
+      <c r="E191" s="16" t="str">
         <f aca="false">"Planets\" &amp; D191 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F191" s="13" t="str">
+      <c r="F191" s="15" t="str">
         <f aca="false">VLOOKUP(B191,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9947,7 +9950,7 @@
         <f aca="false">VLOOKUP(G191,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J191" s="6" t="str">
+      <c r="J191" s="3" t="str">
         <f aca="false">D191&amp;" "&amp;H191</f>
         <v>Neptune Repeat</v>
       </c>
@@ -9955,7 +9958,7 @@
         <f aca="false">F191 &amp; G191</f>
         <v>♆🔂</v>
       </c>
-      <c r="L191" s="16" t="str">
+      <c r="L191" s="17" t="str">
         <f aca="false">VLOOKUP(G191,COLOR_EFFECTS,4,0)</f>
         <v>Next turn is same player again</v>
       </c>
@@ -9971,15 +9974,15 @@
         <f aca="false">VLOOKUP(B192,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D192" s="13" t="str">
+      <c r="D192" s="15" t="str">
         <f aca="false">VLOOKUP(B192,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E192" s="13" t="str">
+      <c r="E192" s="16" t="str">
         <f aca="false">"Planets\" &amp; D192 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F192" s="13" t="str">
+      <c r="F192" s="15" t="str">
         <f aca="false">VLOOKUP(B192,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -9994,7 +9997,7 @@
         <f aca="false">VLOOKUP(G192,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J192" s="6" t="str">
+      <c r="J192" s="3" t="str">
         <f aca="false">D192&amp;" "&amp;H192</f>
         <v>Neptune Freeze</v>
       </c>
@@ -10002,7 +10005,7 @@
         <f aca="false">F192 &amp; G192</f>
         <v>♆❄️</v>
       </c>
-      <c r="L192" s="16" t="str">
+      <c r="L192" s="17" t="str">
         <f aca="false">VLOOKUP(G192,COLOR_EFFECTS,4,0)</f>
         <v>Keep color for one full iteration</v>
       </c>
@@ -10018,15 +10021,15 @@
         <f aca="false">VLOOKUP(B193,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D193" s="13" t="str">
+      <c r="D193" s="15" t="str">
         <f aca="false">VLOOKUP(B193,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E193" s="13" t="str">
+      <c r="E193" s="16" t="str">
         <f aca="false">"Planets\" &amp; D193 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F193" s="13" t="str">
+      <c r="F193" s="15" t="str">
         <f aca="false">VLOOKUP(B193,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -10041,7 +10044,7 @@
         <f aca="false">VLOOKUP(G193,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J193" s="6" t="str">
+      <c r="J193" s="3" t="str">
         <f aca="false">D193&amp;" "&amp;H193</f>
         <v>Neptune Burn</v>
       </c>
@@ -10049,7 +10052,7 @@
         <f aca="false">F193 &amp; G193</f>
         <v>♆🔥</v>
       </c>
-      <c r="L193" s="16" t="str">
+      <c r="L193" s="17" t="str">
         <f aca="false">VLOOKUP(G193,COLOR_EFFECTS,4,0)</f>
         <v>Change color for one full iteration</v>
       </c>
@@ -10065,15 +10068,15 @@
         <f aca="false">VLOOKUP(B194,CARD_COLORS,3,0)</f>
         <v>#000088</v>
       </c>
-      <c r="D194" s="13" t="str">
+      <c r="D194" s="15" t="str">
         <f aca="false">VLOOKUP(B194,CARD_COLORS,2,0)</f>
         <v>Neptune</v>
       </c>
-      <c r="E194" s="13" t="str">
+      <c r="E194" s="16" t="str">
         <f aca="false">"Planets\" &amp; D194 &amp; ".png"</f>
         <v>Planets\Neptune.png</v>
       </c>
-      <c r="F194" s="13" t="str">
+      <c r="F194" s="15" t="str">
         <f aca="false">VLOOKUP(B194,CARD_COLORS,4,0)</f>
         <v>♆</v>
       </c>
@@ -10088,7 +10091,7 @@
         <f aca="false">VLOOKUP(G194,COLOR_EFFECTS,3,0)</f>
         <v>Action</v>
       </c>
-      <c r="J194" s="6" t="str">
+      <c r="J194" s="3" t="str">
         <f aca="false">D194&amp;" "&amp;H194</f>
         <v>Neptune Focus</v>
       </c>
@@ -10096,7 +10099,7 @@
         <f aca="false">F194 &amp; G194</f>
         <v>♆🎯</v>
       </c>
-      <c r="L194" s="16" t="str">
+      <c r="L194" s="17" t="str">
         <f aca="false">VLOOKUP(G194,COLOR_EFFECTS,4,0)</f>
         <v>Freely chose next player</v>
       </c>
@@ -10119,616 +10122,616 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="67.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="67.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="7" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="18" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="7" width="29.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="7" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="26" t="n">
+      <c r="F2" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>12</v>
+      <c r="I2" s="28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="17" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="26" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="26" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>12</v>
+      <c r="I11" s="28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="D12" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="18" t="s">
         <v>93</v>
       </c>
+      <c r="I12" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="D13" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>97</v>
+      <c r="H13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="H14" s="18" t="s">
         <v>100</v>
       </c>
+      <c r="I14" s="28" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="27" t="s">
+      <c r="G15" s="18" t="s">
         <v>102</v>
       </c>
+      <c r="H15" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="27" t="s">
+      <c r="G16" s="18" t="s">
         <v>104</v>
       </c>
+      <c r="H16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="27" t="s">
+      <c r="G17" s="18" t="s">
         <v>106</v>
       </c>
+      <c r="H17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="27" t="s">
+      <c r="G18" s="18" t="s">
         <v>108</v>
       </c>
+      <c r="H18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="33" t="s">
+      <c r="G19" s="33" t="s">
         <v>110</v>
       </c>
+      <c r="H19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="36" t="s">
+      <c r="G20" s="36" t="s">
         <v>112</v>
       </c>
+      <c r="H20" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="27" t="s">
+      <c r="G21" s="18" t="s">
         <v>114</v>
       </c>
+      <c r="H21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="27" t="s">
+      <c r="G22" s="18" t="s">
         <v>116</v>
       </c>
+      <c r="H22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="27" t="s">
+      <c r="G23" s="18" t="s">
         <v>118</v>
       </c>
+      <c r="H23" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="27" t="s">
+      <c r="G24" s="18" t="s">
         <v>120</v>
       </c>
+      <c r="H24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="27" t="s">
+      <c r="G25" s="18" t="s">
         <v>122</v>
       </c>
+      <c r="H25" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      <c r="G26" s="33" t="s">
         <v>124</v>
       </c>
+      <c r="H26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="35" t="s">
+      <c r="G27" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="H27" s="36" t="s">
         <v>127</v>
       </c>
+      <c r="I27" s="37" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="27" t="s">
+      <c r="G28" s="18" t="s">
         <v>129</v>
       </c>
+      <c r="H28" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>130</v>
+      <c r="G29" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>131</v>
+      <c r="H30" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>132</v>
+      <c r="H31" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" state="visible" r:id="rId3"/>
@@ -240,7 +240,7 @@
     <t xml:space="preserve">Mars</t>
   </si>
   <si>
-    <t xml:space="preserve">#880000</t>
+    <t xml:space="preserve">#CC0000</t>
   </si>
   <si>
     <t xml:space="preserve">♂</t>
@@ -648,11 +648,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -994,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="C105" s="3" t="str">
         <f aca="false">VLOOKUP(B105,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D105" s="15" t="str">
         <f aca="false">VLOOKUP(B105,CARD_COLORS,2,0)</f>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="C106" s="3" t="str">
         <f aca="false">VLOOKUP(B106,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D106" s="15" t="str">
         <f aca="false">VLOOKUP(B106,CARD_COLORS,2,0)</f>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="C107" s="3" t="str">
         <f aca="false">VLOOKUP(B107,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D107" s="15" t="str">
         <f aca="false">VLOOKUP(B107,CARD_COLORS,2,0)</f>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="C108" s="3" t="str">
         <f aca="false">VLOOKUP(B108,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D108" s="15" t="str">
         <f aca="false">VLOOKUP(B108,CARD_COLORS,2,0)</f>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="C109" s="3" t="str">
         <f aca="false">VLOOKUP(B109,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D109" s="15" t="str">
         <f aca="false">VLOOKUP(B109,CARD_COLORS,2,0)</f>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="C110" s="3" t="str">
         <f aca="false">VLOOKUP(B110,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D110" s="15" t="str">
         <f aca="false">VLOOKUP(B110,CARD_COLORS,2,0)</f>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C111" s="3" t="str">
         <f aca="false">VLOOKUP(B111,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D111" s="15" t="str">
         <f aca="false">VLOOKUP(B111,CARD_COLORS,2,0)</f>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C112" s="3" t="str">
         <f aca="false">VLOOKUP(B112,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D112" s="15" t="str">
         <f aca="false">VLOOKUP(B112,CARD_COLORS,2,0)</f>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="C113" s="3" t="str">
         <f aca="false">VLOOKUP(B113,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D113" s="15" t="str">
         <f aca="false">VLOOKUP(B113,CARD_COLORS,2,0)</f>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="C114" s="3" t="str">
         <f aca="false">VLOOKUP(B114,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D114" s="15" t="str">
         <f aca="false">VLOOKUP(B114,CARD_COLORS,2,0)</f>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="C115" s="3" t="str">
         <f aca="false">VLOOKUP(B115,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D115" s="15" t="str">
         <f aca="false">VLOOKUP(B115,CARD_COLORS,2,0)</f>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="C116" s="3" t="str">
         <f aca="false">VLOOKUP(B116,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D116" s="15" t="str">
         <f aca="false">VLOOKUP(B116,CARD_COLORS,2,0)</f>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C117" s="3" t="str">
         <f aca="false">VLOOKUP(B117,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D117" s="15" t="str">
         <f aca="false">VLOOKUP(B117,CARD_COLORS,2,0)</f>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="C118" s="3" t="str">
         <f aca="false">VLOOKUP(B118,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D118" s="15" t="str">
         <f aca="false">VLOOKUP(B118,CARD_COLORS,2,0)</f>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="C119" s="3" t="str">
         <f aca="false">VLOOKUP(B119,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D119" s="15" t="str">
         <f aca="false">VLOOKUP(B119,CARD_COLORS,2,0)</f>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C120" s="3" t="str">
         <f aca="false">VLOOKUP(B120,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D120" s="15" t="str">
         <f aca="false">VLOOKUP(B120,CARD_COLORS,2,0)</f>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="C121" s="3" t="str">
         <f aca="false">VLOOKUP(B121,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D121" s="15" t="str">
         <f aca="false">VLOOKUP(B121,CARD_COLORS,2,0)</f>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="C122" s="3" t="str">
         <f aca="false">VLOOKUP(B122,CARD_COLORS,3,0)</f>
-        <v>#880000</v>
+        <v>#CC0000</v>
       </c>
       <c r="D122" s="15" t="str">
         <f aca="false">VLOOKUP(B122,CARD_COLORS,2,0)</f>
@@ -10122,8 +10122,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
